--- a/HW4/產業加市值選股(每月初調整).xlsx
+++ b/HW4/產業加市值選股(每月初調整).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\MPTIS\HW4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\MPTIS\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B52824-64D4-47A0-B6C1-C804B7D0D345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759C9304-54A4-4915-A6DD-2F1CD4B47C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="960" windowWidth="20265" windowHeight="19515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,11 @@
     <t>400追蹤日報酬%</t>
   </si>
   <si>
-    <t>300追蹤日報酬%</t>
+    <t>250追蹤日報酬%</t>
   </si>
   <si>
-    <t>250追蹤日報酬%</t>
+    <t>350追蹤日報酬%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -380,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="G471" sqref="G471"/>
+    <sheetView tabSelected="1" topLeftCell="A694" workbookViewId="0">
+      <selection activeCell="D735" sqref="D735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -410,10 +411,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -427,7 +428,7 @@
         <v>0.668550603367704</v>
       </c>
       <c r="D2" s="1">
-        <v>0.65340103618736201</v>
+        <v>0.65507101468033901</v>
       </c>
       <c r="E2" s="1">
         <v>0.64253996116410805</v>
@@ -444,7 +445,7 @@
         <v>0.899219743091768</v>
       </c>
       <c r="D3" s="1">
-        <v>0.928336668609547</v>
+        <v>0.91216192375211402</v>
       </c>
       <c r="E3" s="1">
         <v>0.95711052756392201</v>
@@ -461,7 +462,7 @@
         <v>0.399216757679076</v>
       </c>
       <c r="D4" s="1">
-        <v>0.40060942270167799</v>
+        <v>0.40189932008581902</v>
       </c>
       <c r="E4" s="1">
         <v>0.39760126857621197</v>
@@ -478,7 +479,7 @@
         <v>0.30602313499541001</v>
       </c>
       <c r="D5" s="1">
-        <v>0.30286190733401303</v>
+        <v>0.304463240577586</v>
       </c>
       <c r="E5" s="1">
         <v>0.30456966770708099</v>
@@ -495,7 +496,7 @@
         <v>0.398485871960646</v>
       </c>
       <c r="D6" s="1">
-        <v>0.41176188231211203</v>
+        <v>0.40851407954698998</v>
       </c>
       <c r="E6" s="1">
         <v>0.44761470454903801</v>
@@ -512,7 +513,7 @@
         <v>1.3219435742350301E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>8.3095196271753893E-3</v>
+        <v>9.8065550255537499E-3</v>
       </c>
       <c r="E7" s="1">
         <v>2.4184676655063998E-2</v>
@@ -529,7 +530,7 @@
         <v>-0.82281239375795701</v>
       </c>
       <c r="D8" s="1">
-        <v>-0.84099154764621797</v>
+        <v>-0.82554464142150297</v>
       </c>
       <c r="E8" s="1">
         <v>-0.86367801668492405</v>
@@ -546,7 +547,7 @@
         <v>-0.211842144386686</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.21076523293549301</v>
+        <v>-0.21964371774469699</v>
       </c>
       <c r="E9" s="1">
         <v>-0.20345076454497299</v>
@@ -563,7 +564,7 @@
         <v>0.68775770206010201</v>
       </c>
       <c r="D10" s="1">
-        <v>0.68280314742749004</v>
+        <v>0.68868370830710801</v>
       </c>
       <c r="E10" s="1">
         <v>0.69878999189134805</v>
@@ -580,7 +581,7 @@
         <v>0.67472743110162803</v>
       </c>
       <c r="D11" s="1">
-        <v>0.69888139823993001</v>
+        <v>0.68808266495308401</v>
       </c>
       <c r="E11" s="1">
         <v>0.73597785375719704</v>
@@ -597,7 +598,7 @@
         <v>0.24928000912986201</v>
       </c>
       <c r="D12" s="1">
-        <v>0.24639705161947001</v>
+        <v>0.25063048650292002</v>
       </c>
       <c r="E12" s="1">
         <v>0.23773200988261101</v>
@@ -614,7 +615,7 @@
         <v>0.124441472154336</v>
       </c>
       <c r="D13" s="1">
-        <v>0.126602643226017</v>
+        <v>0.124215761094375</v>
       </c>
       <c r="E13" s="1">
         <v>0.117943043400017</v>
@@ -631,7 +632,7 @@
         <v>0.69317627573306895</v>
       </c>
       <c r="D14" s="1">
-        <v>0.73022338239351103</v>
+        <v>0.70490628133690503</v>
       </c>
       <c r="E14" s="1">
         <v>0.78003206791203705</v>
@@ -648,7 +649,7 @@
         <v>0.79359139178263505</v>
       </c>
       <c r="D15" s="1">
-        <v>0.82964685578949704</v>
+        <v>0.80376937225348899</v>
       </c>
       <c r="E15" s="1">
         <v>0.88633729745331302</v>
@@ -665,7 +666,7 @@
         <v>0.78960905045674201</v>
       </c>
       <c r="D16" s="1">
-        <v>0.80884765337027897</v>
+        <v>0.79754021214165405</v>
       </c>
       <c r="E16" s="1">
         <v>0.82489056030025198</v>
@@ -682,7 +683,7 @@
         <v>0.26240006758426898</v>
       </c>
       <c r="D17" s="1">
-        <v>0.27597259718223799</v>
+        <v>0.26857258027245001</v>
       </c>
       <c r="E17" s="1">
         <v>0.308737572775242</v>
@@ -699,7 +700,7 @@
         <v>-1.0117244892895001</v>
       </c>
       <c r="D18" s="1">
-        <v>-1.06098184419176</v>
+        <v>-1.0374058179860099</v>
       </c>
       <c r="E18" s="1">
         <v>-1.11611555848446</v>
@@ -716,7 +717,7 @@
         <v>0.19452393024352799</v>
       </c>
       <c r="D19" s="1">
-        <v>0.21043031491712899</v>
+        <v>0.204890515846367</v>
       </c>
       <c r="E19" s="1">
         <v>0.22806720110939899</v>
@@ -733,7 +734,7 @@
         <v>-0.20673917440056899</v>
       </c>
       <c r="D20" s="1">
-        <v>-0.207451333020651</v>
+        <v>-0.210021012023589</v>
       </c>
       <c r="E20" s="1">
         <v>-0.18424787513729601</v>
@@ -750,7 +751,7 @@
         <v>0.736725668040347</v>
       </c>
       <c r="D21" s="1">
-        <v>0.75907832706132405</v>
+        <v>0.74325595171617298</v>
       </c>
       <c r="E21" s="1">
         <v>0.78706710747648501</v>
@@ -767,7 +768,7 @@
         <v>-1.3508531709150999</v>
       </c>
       <c r="D22" s="1">
-        <v>-1.36235157797494</v>
+        <v>-1.354030976572</v>
       </c>
       <c r="E22" s="1">
         <v>-1.41063774549736</v>
@@ -784,7 +785,7 @@
         <v>0.27527701846031399</v>
       </c>
       <c r="D23" s="1">
-        <v>0.27330251807071498</v>
+        <v>0.27118651469170302</v>
       </c>
       <c r="E23" s="1">
         <v>0.28465544313950703</v>
@@ -801,7 +802,7 @@
         <v>0.59106779518027996</v>
       </c>
       <c r="D24" s="1">
-        <v>0.61763146138075298</v>
+        <v>0.59618454914494401</v>
       </c>
       <c r="E24" s="1">
         <v>0.63989176800436998</v>
@@ -818,7 +819,7 @@
         <v>-0.34647395380764201</v>
       </c>
       <c r="D25" s="1">
-        <v>-0.35531039728497699</v>
+        <v>-0.34778624346376302</v>
       </c>
       <c r="E25" s="1">
         <v>-0.36789941912313601</v>
@@ -835,7 +836,7 @@
         <v>-1.6560998914878799</v>
       </c>
       <c r="D26" s="1">
-        <v>-1.68563464981323</v>
+        <v>-1.6674967043217299</v>
       </c>
       <c r="E26" s="1">
         <v>-1.6954526735044799</v>
@@ -852,7 +853,7 @@
         <v>-4.9469390948251899</v>
       </c>
       <c r="D27" s="1">
-        <v>-4.9434618104305104</v>
+        <v>-4.9457380197394398</v>
       </c>
       <c r="E27" s="1">
         <v>-4.9326424725189097</v>
@@ -869,7 +870,7 @@
         <v>1.46271469378938</v>
       </c>
       <c r="D28" s="1">
-        <v>1.4544864977344101</v>
+        <v>1.46528770912785</v>
       </c>
       <c r="E28" s="1">
         <v>1.45148850846135</v>
@@ -886,7 +887,7 @@
         <v>-0.21204062194745299</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.22169092556110101</v>
+        <v>-0.21332810890808801</v>
       </c>
       <c r="E29" s="1">
         <v>-0.22656578324040799</v>
@@ -903,7 +904,7 @@
         <v>-1.4998536779526901</v>
       </c>
       <c r="D30" s="1">
-        <v>-1.5182467986833801</v>
+        <v>-1.50645225191343</v>
       </c>
       <c r="E30" s="1">
         <v>-1.5514145317867201</v>
@@ -920,7 +921,7 @@
         <v>0.44562369059185802</v>
       </c>
       <c r="D31" s="1">
-        <v>0.45674213257506502</v>
+        <v>0.44710589002815598</v>
       </c>
       <c r="E31" s="1">
         <v>0.450275958620306</v>
@@ -937,7 +938,7 @@
         <v>2.8464537185966199</v>
       </c>
       <c r="D32" s="1">
-        <v>2.83672868232637</v>
+        <v>2.8474588151275499</v>
       </c>
       <c r="E32" s="1">
         <v>2.8327579399456102</v>
@@ -954,7 +955,7 @@
         <v>-0.57752126087367395</v>
       </c>
       <c r="D33" s="1">
-        <v>-0.60073165660016703</v>
+        <v>-0.59594260396961796</v>
       </c>
       <c r="E33" s="1">
         <v>-0.64085838968084896</v>
@@ -971,7 +972,7 @@
         <v>1.2691547323080701</v>
       </c>
       <c r="D34" s="1">
-        <v>1.28624611847922</v>
+        <v>1.2765322391945999</v>
       </c>
       <c r="E34" s="1">
         <v>1.2985497336846901</v>
@@ -988,7 +989,7 @@
         <v>0.39351667644647098</v>
       </c>
       <c r="D35" s="1">
-        <v>0.37478684163554898</v>
+        <v>0.385472593958326</v>
       </c>
       <c r="E35" s="1">
         <v>0.38603926442842401</v>
@@ -1005,7 +1006,7 @@
         <v>-0.207410402398928</v>
       </c>
       <c r="D36" s="1">
-        <v>-0.21378215328427999</v>
+        <v>-0.21432268208424199</v>
       </c>
       <c r="E36" s="1">
         <v>-0.21925110233374201</v>
@@ -1022,7 +1023,7 @@
         <v>-0.32190278295694502</v>
       </c>
       <c r="D37" s="1">
-        <v>-0.36012329913979002</v>
+        <v>-0.35019194821989102</v>
       </c>
       <c r="E37" s="1">
         <v>-0.41371302186307102</v>
@@ -1039,7 +1040,7 @@
         <v>-0.859128191011307</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.867908749178816</v>
+        <v>-0.85771684232441603</v>
       </c>
       <c r="E38" s="1">
         <v>-0.846196163759799</v>
@@ -1056,7 +1057,7 @@
         <v>-0.49982894709046199</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.50052884892042304</v>
+        <v>-0.503405733143648</v>
       </c>
       <c r="E39" s="1">
         <v>-0.48042248782434899</v>
@@ -1073,7 +1074,7 @@
         <v>1.38888421064989</v>
       </c>
       <c r="D40" s="1">
-        <v>1.4342181309650099</v>
+        <v>1.3971289150506501</v>
       </c>
       <c r="E40" s="1">
         <v>1.4663197472385101</v>
@@ -1090,7 +1091,7 @@
         <v>-0.377907739993739</v>
       </c>
       <c r="D41" s="1">
-        <v>-0.38690052385699097</v>
+        <v>-0.38252431986157798</v>
       </c>
       <c r="E41" s="1">
         <v>-0.41175117138801498</v>
@@ -1107,7 +1108,7 @@
         <v>0.72201142659617501</v>
       </c>
       <c r="D42" s="1">
-        <v>0.72325539478596101</v>
+        <v>0.70947536860145999</v>
       </c>
       <c r="E42" s="1">
         <v>0.73039594990808099</v>
@@ -1124,7 +1125,7 @@
         <v>0.40973215321013201</v>
       </c>
       <c r="D43" s="1">
-        <v>0.40870680210228399</v>
+        <v>0.40891255149280797</v>
       </c>
       <c r="E43" s="1">
         <v>0.42277627506509602</v>
@@ -1141,7 +1142,7 @@
         <v>1.34514093082296</v>
       </c>
       <c r="D44" s="1">
-        <v>1.3810050334649699</v>
+        <v>1.37136817426242</v>
       </c>
       <c r="E44" s="1">
         <v>1.42222987611929</v>
@@ -1158,7 +1159,7 @@
         <v>0.89281499030164402</v>
       </c>
       <c r="D45" s="1">
-        <v>0.91254690355783596</v>
+        <v>0.90014491514712003</v>
       </c>
       <c r="E45" s="1">
         <v>0.92145235188494201</v>
@@ -1175,7 +1176,7 @@
         <v>-0.56915175444417498</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.58479726887434103</v>
+        <v>-0.57323304797427099</v>
       </c>
       <c r="E46" s="1">
         <v>-0.59795274370820894</v>
@@ -1192,7 +1193,7 @@
         <v>-0.205674206011358</v>
       </c>
       <c r="D47" s="1">
-        <v>-0.211932134250156</v>
+        <v>-0.2154773226817</v>
       </c>
       <c r="E47" s="1">
         <v>-0.234989484892585</v>
@@ -1209,7 +1210,7 @@
         <v>0.105826035681237</v>
       </c>
       <c r="D48" s="1">
-        <v>0.12854190875993199</v>
+        <v>0.113297834512673</v>
       </c>
       <c r="E48" s="1">
         <v>0.15035680477623201</v>
@@ -1226,7 +1227,7 @@
         <v>0.17505793640116499</v>
       </c>
       <c r="D49" s="1">
-        <v>0.16556065869022199</v>
+        <v>0.17152793300571101</v>
       </c>
       <c r="E49" s="1">
         <v>0.17130052077885</v>
@@ -1243,7 +1244,7 @@
         <v>-0.34914910456006398</v>
       </c>
       <c r="D50" s="1">
-        <v>-0.35599033677452602</v>
+        <v>-0.35260009728061198</v>
       </c>
       <c r="E50" s="1">
         <v>-0.35173615493633298</v>
@@ -1260,7 +1261,7 @@
         <v>-5.8703283482085797E-2</v>
       </c>
       <c r="D51" s="1">
-        <v>-5.7407745321657398E-2</v>
+        <v>-5.6098870476850901E-2</v>
       </c>
       <c r="E51" s="1">
         <v>-5.3465184828186699E-2</v>
@@ -1277,7 +1278,7 @@
         <v>2.25022851038486E-2</v>
       </c>
       <c r="D52" s="1">
-        <v>4.4670489292188503E-2</v>
+        <v>2.9617880776240699E-2</v>
       </c>
       <c r="E52" s="1">
         <v>6.9313658730271593E-2</v>
@@ -1294,7 +1295,7 @@
         <v>-1.6976176814247499</v>
       </c>
       <c r="D53" s="1">
-        <v>-1.7032031794327001</v>
+        <v>-1.6985862570916199</v>
       </c>
       <c r="E53" s="1">
         <v>-1.71027666189698</v>
@@ -1311,7 +1312,7 @@
         <v>0.138629191683489</v>
       </c>
       <c r="D54" s="1">
-        <v>0.13280252422712899</v>
+        <v>0.12891945065982299</v>
       </c>
       <c r="E54" s="1">
         <v>0.11788986925879601</v>
@@ -1328,7 +1329,7 @@
         <v>1.3915231205060501</v>
       </c>
       <c r="D55" s="1">
-        <v>1.40519005346683</v>
+        <v>1.3883662684459801</v>
       </c>
       <c r="E55" s="1">
         <v>1.4174521089401899</v>
@@ -1345,7 +1346,7 @@
         <v>-1.1978198817500201</v>
       </c>
       <c r="D56" s="1">
-        <v>-1.2283107980264101</v>
+        <v>-1.21349955255516</v>
       </c>
       <c r="E56" s="1">
         <v>-1.2509754459375699</v>
@@ -1362,7 +1363,7 @@
         <v>-0.206061730375902</v>
       </c>
       <c r="D57" s="1">
-        <v>-0.23619755263877801</v>
+        <v>-0.22683860938332101</v>
       </c>
       <c r="E57" s="1">
         <v>-0.26618212655753898</v>
@@ -1379,7 +1380,7 @@
         <v>0.59524092491966296</v>
       </c>
       <c r="D58" s="1">
-        <v>0.61558343982160402</v>
+        <v>0.60668772175305097</v>
       </c>
       <c r="E58" s="1">
         <v>0.63223603570554598</v>
@@ -1396,7 +1397,7 @@
         <v>8.7424195733015894E-2</v>
       </c>
       <c r="D59" s="1">
-        <v>7.0095302512793001E-2</v>
+        <v>7.6409899550133706E-2</v>
       </c>
       <c r="E59" s="1">
         <v>5.1090412488495301E-2</v>
@@ -1413,7 +1414,7 @@
         <v>-0.33891326520384102</v>
       </c>
       <c r="D60" s="1">
-        <v>-0.340393579771465</v>
+        <v>-0.342178819855956</v>
       </c>
       <c r="E60" s="1">
         <v>-0.36551854030567499</v>
@@ -1430,7 +1431,7 @@
         <v>-0.650303375613699</v>
       </c>
       <c r="D61" s="1">
-        <v>-0.65706487297739302</v>
+        <v>-0.64778103696888201</v>
       </c>
       <c r="E61" s="1">
         <v>-0.682955704318843</v>
@@ -1447,7 +1448,7 @@
         <v>0.66907080118227402</v>
       </c>
       <c r="D62" s="1">
-        <v>0.68245257977743501</v>
+        <v>0.67810547491180795</v>
       </c>
       <c r="E62" s="1">
         <v>0.69055295640302805</v>
@@ -1464,7 +1465,7 @@
         <v>0.38844422624698599</v>
       </c>
       <c r="D63" s="1">
-        <v>0.39053356207671902</v>
+        <v>0.37475758289272498</v>
       </c>
       <c r="E63" s="1">
         <v>0.39482682341934999</v>
@@ -1481,7 +1482,7 @@
         <v>0.43688983123735597</v>
       </c>
       <c r="D64" s="1">
-        <v>0.42927795530928198</v>
+        <v>0.43907193563354102</v>
       </c>
       <c r="E64" s="1">
         <v>0.417218451435516</v>
@@ -1498,7 +1499,7 @@
         <v>-0.19797079508190199</v>
       </c>
       <c r="D65" s="1">
-        <v>-0.230943173728898</v>
+        <v>-0.20387915131289799</v>
       </c>
       <c r="E65" s="1">
         <v>-0.22531096668864101</v>
@@ -1515,7 +1516,7 @@
         <v>7.2398055482682799E-2</v>
       </c>
       <c r="D66" s="1">
-        <v>7.32165352903211E-2</v>
+        <v>6.6556638095507298E-2</v>
       </c>
       <c r="E66" s="1">
         <v>7.8168072942927297E-2</v>
@@ -1532,7 +1533,7 @@
         <v>-0.119018767741066</v>
       </c>
       <c r="D67" s="1">
-        <v>-0.107651578244852</v>
+        <v>-0.12983159716547099</v>
       </c>
       <c r="E67" s="1">
         <v>-8.3159383507544204E-2</v>
@@ -1549,7 +1550,7 @@
         <v>-1.30467575893058</v>
       </c>
       <c r="D68" s="1">
-        <v>-1.30008732166965</v>
+        <v>-1.29840533236581</v>
       </c>
       <c r="E68" s="1">
         <v>-1.3191763780166701</v>
@@ -1566,7 +1567,7 @@
         <v>0.33750392928866702</v>
       </c>
       <c r="D69" s="1">
-        <v>0.340403247890252</v>
+        <v>0.33967271538716298</v>
       </c>
       <c r="E69" s="1">
         <v>0.33474348362994799</v>
@@ -1583,7 +1584,7 @@
         <v>1.1687865291392301</v>
       </c>
       <c r="D70" s="1">
-        <v>1.2040369803150399</v>
+        <v>1.1855585547335901</v>
       </c>
       <c r="E70" s="1">
         <v>1.2078678733274799</v>
@@ -1600,7 +1601,7 @@
         <v>-1.87192944452431</v>
       </c>
       <c r="D71" s="1">
-        <v>-1.9470452185693099</v>
+        <v>-1.8999353560396901</v>
       </c>
       <c r="E71" s="1">
         <v>-2.0127892967752499</v>
@@ -1617,7 +1618,7 @@
         <v>-0.816638201516522</v>
       </c>
       <c r="D72" s="1">
-        <v>-0.81797823602752395</v>
+        <v>-0.812660907267028</v>
       </c>
       <c r="E72" s="1">
         <v>-0.83637772417228096</v>
@@ -1634,7 +1635,7 @@
         <v>-1.0274025551389101</v>
       </c>
       <c r="D73" s="1">
-        <v>-1.0065626843299</v>
+        <v>-1.01679886622639</v>
       </c>
       <c r="E73" s="1">
         <v>-0.98590601037173398</v>
@@ -1651,7 +1652,7 @@
         <v>-0.252037357651059</v>
       </c>
       <c r="D74" s="1">
-        <v>-0.25551408963533601</v>
+        <v>-0.23332917858757199</v>
       </c>
       <c r="E74" s="1">
         <v>-0.25110297446444602</v>
@@ -1668,7 +1669,7 @@
         <v>-0.571106618865171</v>
       </c>
       <c r="D75" s="1">
-        <v>-0.55488106404120796</v>
+        <v>-0.56630048020796098</v>
       </c>
       <c r="E75" s="1">
         <v>-0.510670409889319</v>
@@ -1685,7 +1686,7 @@
         <v>0.59761750790588997</v>
       </c>
       <c r="D76" s="1">
-        <v>0.598051070819557</v>
+        <v>0.59751252871217897</v>
       </c>
       <c r="E76" s="1">
         <v>0.604269366403276</v>
@@ -1702,7 +1703,7 @@
         <v>1.15504636288068</v>
       </c>
       <c r="D77" s="1">
-        <v>1.1879581165744</v>
+        <v>1.16046839695788</v>
       </c>
       <c r="E77" s="1">
         <v>1.1916377281850601</v>
@@ -1719,7 +1720,7 @@
         <v>-0.28763940817295403</v>
       </c>
       <c r="D78" s="1">
-        <v>-0.305044296925295</v>
+        <v>-0.29046208725231598</v>
       </c>
       <c r="E78" s="1">
         <v>-0.32220979712933201</v>
@@ -1736,7 +1737,7 @@
         <v>-1.0357317733623801</v>
       </c>
       <c r="D79" s="1">
-        <v>-1.0626537339081299</v>
+        <v>-1.05293337587992</v>
       </c>
       <c r="E79" s="1">
         <v>-1.10210752865186</v>
@@ -1753,7 +1754,7 @@
         <v>0.111766576536684</v>
       </c>
       <c r="D80" s="1">
-        <v>0.122453255054287</v>
+        <v>0.114033229130566</v>
       </c>
       <c r="E80" s="1">
         <v>0.14179304224220801</v>
@@ -1770,7 +1771,7 @@
         <v>0.76582916854084804</v>
       </c>
       <c r="D81" s="1">
-        <v>0.78679387426074798</v>
+        <v>0.76649978304143795</v>
       </c>
       <c r="E81" s="1">
         <v>0.79881281981081598</v>
@@ -1787,7 +1788,7 @@
         <v>0.90506328723971097</v>
       </c>
       <c r="D82" s="1">
-        <v>0.92667554662934004</v>
+        <v>0.91234406799030099</v>
       </c>
       <c r="E82" s="1">
         <v>0.95640398591377995</v>
@@ -1804,7 +1805,7 @@
         <v>0.116635616443114</v>
       </c>
       <c r="D83" s="1">
-        <v>0.115278969487546</v>
+        <v>0.108820860838233</v>
       </c>
       <c r="E83" s="1">
         <v>0.13168127065712801</v>
@@ -1821,7 +1822,7 @@
         <v>0.51532512705539602</v>
       </c>
       <c r="D84" s="1">
-        <v>0.50438982288793999</v>
+        <v>0.49856795270844301</v>
       </c>
       <c r="E84" s="1">
         <v>0.50807697889617198</v>
@@ -1838,7 +1839,7 @@
         <v>1.00699275199657</v>
       </c>
       <c r="D85" s="1">
-        <v>1.0320619366999499</v>
+        <v>0.99981226576109805</v>
       </c>
       <c r="E85" s="1">
         <v>1.06227408849024</v>
@@ -1855,7 +1856,7 @@
         <v>0.93064517852401996</v>
       </c>
       <c r="D86" s="1">
-        <v>0.94372154237101002</v>
+        <v>0.92895151209154203</v>
       </c>
       <c r="E86" s="1">
         <v>0.96554053395356698</v>
@@ -1872,7 +1873,7 @@
         <v>-0.770133078239151</v>
       </c>
       <c r="D87" s="1">
-        <v>-0.80143132646878401</v>
+        <v>-0.79633892489525904</v>
       </c>
       <c r="E87" s="1">
         <v>-0.81968299996360505</v>
@@ -1889,7 +1890,7 @@
         <v>0.22808013871125599</v>
       </c>
       <c r="D88" s="1">
-        <v>0.25846935467390197</v>
+        <v>0.24694257108686299</v>
       </c>
       <c r="E88" s="1">
         <v>0.30033701416619701</v>
@@ -1906,7 +1907,7 @@
         <v>-0.59112603472918102</v>
       </c>
       <c r="D89" s="1">
-        <v>-0.61478357082367197</v>
+        <v>-0.590422706295472</v>
       </c>
       <c r="E89" s="1">
         <v>-0.64398972750797201</v>
@@ -1923,7 +1924,7 @@
         <v>-9.0856583836054494E-2</v>
       </c>
       <c r="D90" s="1">
-        <v>-8.4707436118772003E-2</v>
+        <v>-8.7731339409097206E-2</v>
       </c>
       <c r="E90" s="1">
         <v>-9.8238514511408304E-2</v>
@@ -1940,7 +1941,7 @@
         <v>1.26563211781531</v>
       </c>
       <c r="D91" s="1">
-        <v>1.2796449855271801</v>
+        <v>1.2551938212996201</v>
       </c>
       <c r="E91" s="1">
         <v>1.31516272916646</v>
@@ -1957,7 +1958,7 @@
         <v>-0.252268704847322</v>
       </c>
       <c r="D92" s="1">
-        <v>-0.27056503791233699</v>
+        <v>-0.270912064995871</v>
       </c>
       <c r="E92" s="1">
         <v>-0.27201545439397601</v>
@@ -1974,7 +1975,7 @@
         <v>-0.51750371284573005</v>
       </c>
       <c r="D93" s="1">
-        <v>-0.51058915626540302</v>
+        <v>-0.514455686930817</v>
       </c>
       <c r="E93" s="1">
         <v>-0.51622273333396596</v>
@@ -1991,7 +1992,7 @@
         <v>0.44737429898616898</v>
       </c>
       <c r="D94" s="1">
-        <v>0.46642954346782201</v>
+        <v>0.45683752238101699</v>
       </c>
       <c r="E94" s="1">
         <v>0.46988409274975801</v>
@@ -2008,7 +2009,7 @@
         <v>2.7510876486111099E-2</v>
       </c>
       <c r="D95" s="1">
-        <v>2.8983197278899399E-2</v>
+        <v>3.65108020992208E-2</v>
       </c>
       <c r="E95" s="1">
         <v>6.7891400592494502E-2</v>
@@ -2025,7 +2026,7 @@
         <v>0.41944925186813398</v>
       </c>
       <c r="D96" s="1">
-        <v>0.39241870788035998</v>
+        <v>0.39197147131500298</v>
       </c>
       <c r="E96" s="1">
         <v>0.41351857633573602</v>
@@ -2042,7 +2043,7 @@
         <v>-0.22606970694099199</v>
       </c>
       <c r="D97" s="1">
-        <v>-0.236725099181543</v>
+        <v>-0.22006932383817901</v>
       </c>
       <c r="E97" s="1">
         <v>-0.245653642632543</v>
@@ -2059,7 +2060,7 @@
         <v>-1.3768759603509699</v>
       </c>
       <c r="D98" s="1">
-        <v>-1.4211597430240099</v>
+        <v>-1.3985346168644801</v>
       </c>
       <c r="E98" s="1">
         <v>-1.4456072596129601</v>
@@ -2076,7 +2077,7 @@
         <v>0.50330772406649604</v>
       </c>
       <c r="D99" s="1">
-        <v>0.49300341892386301</v>
+        <v>0.497068053542493</v>
       </c>
       <c r="E99" s="1">
         <v>0.46911318663085799</v>
@@ -2093,7 +2094,7 @@
         <v>0.71576003594830095</v>
       </c>
       <c r="D100" s="1">
-        <v>0.70773603294282195</v>
+        <v>0.70527559384472005</v>
       </c>
       <c r="E100" s="1">
         <v>0.69620983502383704</v>
@@ -2110,7 +2111,7 @@
         <v>1.5055601611025899</v>
       </c>
       <c r="D101" s="1">
-        <v>1.53236059682419</v>
+        <v>1.51327561613446</v>
       </c>
       <c r="E101" s="1">
         <v>1.5628404253441299</v>
@@ -2127,7 +2128,7 @@
         <v>-8.3143815495985901E-2</v>
       </c>
       <c r="D102" s="1">
-        <v>-8.6699389889596898E-2</v>
+        <v>-8.3288076494939495E-2</v>
       </c>
       <c r="E102" s="1">
         <v>-8.5617329350142005E-2</v>
@@ -2144,7 +2145,7 @@
         <v>0.89613861845952802</v>
       </c>
       <c r="D103" s="1">
-        <v>0.902915735387115</v>
+        <v>0.89950350869962103</v>
       </c>
       <c r="E103" s="1">
         <v>0.90568626008563202</v>
@@ -2161,7 +2162,7 @@
         <v>0.43815206212236602</v>
       </c>
       <c r="D104" s="1">
-        <v>0.46486193295044198</v>
+        <v>0.43888229448425697</v>
       </c>
       <c r="E104" s="1">
         <v>0.47290358771421898</v>
@@ -2178,7 +2179,7 @@
         <v>-0.89698566609249997</v>
       </c>
       <c r="D105" s="1">
-        <v>-0.92181833956595305</v>
+        <v>-0.91395643575199104</v>
       </c>
       <c r="E105" s="1">
         <v>-0.92943753365988702</v>
@@ -2195,7 +2196,7 @@
         <v>-7.9334416153952397E-2</v>
       </c>
       <c r="D106" s="1">
-        <v>-9.67060541994402E-2</v>
+        <v>-8.8685297607145094E-2</v>
       </c>
       <c r="E106" s="1">
         <v>-0.11866196382275999</v>
@@ -2212,7 +2213,7 @@
         <v>-4.52997389289665E-2</v>
       </c>
       <c r="D107" s="1">
-        <v>-5.4804689121001102E-2</v>
+        <v>-4.7312055357242498E-2</v>
       </c>
       <c r="E107" s="1">
         <v>-6.8803682996539703E-2</v>
@@ -2229,7 +2230,7 @@
         <v>0.30699458963648901</v>
       </c>
       <c r="D108" s="1">
-        <v>0.34181497652142401</v>
+        <v>0.33029351481034702</v>
       </c>
       <c r="E108" s="1">
         <v>0.36883461572148502</v>
@@ -2246,7 +2247,7 @@
         <v>-1.5162620488507701</v>
       </c>
       <c r="D109" s="1">
-        <v>-1.57149858581155</v>
+        <v>-1.54806094861792</v>
       </c>
       <c r="E109" s="1">
         <v>-1.6212676295697801</v>
@@ -2263,7 +2264,7 @@
         <v>0.74419078451757903</v>
       </c>
       <c r="D110" s="1">
-        <v>0.76617653378513195</v>
+        <v>0.74471362836055299</v>
       </c>
       <c r="E110" s="1">
         <v>0.78276771307436499</v>
@@ -2280,7 +2281,7 @@
         <v>-1.7220307512537401</v>
       </c>
       <c r="D111" s="1">
-        <v>-1.7531763434859999</v>
+        <v>-1.74115240811729</v>
       </c>
       <c r="E111" s="1">
         <v>-1.7793528081754599</v>
@@ -2297,7 +2298,7 @@
         <v>0.31277277617095001</v>
       </c>
       <c r="D112" s="1">
-        <v>0.358737606353767</v>
+        <v>0.343943222691452</v>
       </c>
       <c r="E112" s="1">
         <v>0.36026743604909001</v>
@@ -2314,7 +2315,7 @@
         <v>0.13340161472485701</v>
       </c>
       <c r="D113" s="1">
-        <v>0.11231063512417599</v>
+        <v>0.118955603938442</v>
       </c>
       <c r="E113" s="1">
         <v>9.8994453875374797E-2</v>
@@ -2331,7 +2332,7 @@
         <v>-0.34482428682715199</v>
       </c>
       <c r="D114" s="1">
-        <v>-0.30749501152522002</v>
+        <v>-0.32212097796342398</v>
       </c>
       <c r="E114" s="1">
         <v>-0.28403921003858001</v>
@@ -2348,7 +2349,7 @@
         <v>-0.420310531897507</v>
       </c>
       <c r="D115" s="1">
-        <v>-0.41816538284399302</v>
+        <v>-0.41665465920836697</v>
       </c>
       <c r="E115" s="1">
         <v>-0.40459265602987499</v>
@@ -2365,7 +2366,7 @@
         <v>-0.24922196896450199</v>
       </c>
       <c r="D116" s="1">
-        <v>-0.23972214777808601</v>
+        <v>-0.24524552772972999</v>
       </c>
       <c r="E116" s="1">
         <v>-0.227964597307311</v>
@@ -2382,7 +2383,7 @@
         <v>-0.38874645412032199</v>
       </c>
       <c r="D117" s="1">
-        <v>-0.41996223818462802</v>
+        <v>-0.40482946703476702</v>
       </c>
       <c r="E117" s="1">
         <v>-0.43902250669381598</v>
@@ -2399,7 +2400,7 @@
         <v>-0.39627627862897602</v>
       </c>
       <c r="D118" s="1">
-        <v>-0.40443585398406201</v>
+        <v>-0.39823307800154201</v>
       </c>
       <c r="E118" s="1">
         <v>-0.395438689251491</v>
@@ -2416,7 +2417,7 @@
         <v>1.81886031998967</v>
       </c>
       <c r="D119" s="1">
-        <v>1.8614343179302</v>
+        <v>1.8459880710269201</v>
       </c>
       <c r="E119" s="1">
         <v>1.8746848355649599</v>
@@ -2433,7 +2434,7 @@
         <v>-0.434824529411867</v>
       </c>
       <c r="D120" s="1">
-        <v>-0.46288823668414902</v>
+        <v>-0.43515346639702601</v>
       </c>
       <c r="E120" s="1">
         <v>-0.48870557337894599</v>
@@ -2450,7 +2451,7 @@
         <v>-0.41894860726493299</v>
       </c>
       <c r="D121" s="1">
-        <v>-0.38237157567580599</v>
+        <v>-0.40538356728264502</v>
       </c>
       <c r="E121" s="1">
         <v>-0.33414159350505301</v>
@@ -2467,7 +2468,7 @@
         <v>0.32744825388082499</v>
       </c>
       <c r="D122" s="1">
-        <v>0.33348293527697598</v>
+        <v>0.33963145900154101</v>
       </c>
       <c r="E122" s="1">
         <v>0.34844820241652202</v>
@@ -2484,7 +2485,7 @@
         <v>-0.81865478627747101</v>
       </c>
       <c r="D123" s="1">
-        <v>-0.78739606711900201</v>
+        <v>-0.80766327910402103</v>
       </c>
       <c r="E123" s="1">
         <v>-0.77026035403691095</v>
@@ -2501,7 +2502,7 @@
         <v>2.20448859155606E-2</v>
       </c>
       <c r="D124" s="1">
-        <v>4.6657417392281103E-2</v>
+        <v>2.9902966006201698E-2</v>
       </c>
       <c r="E124" s="1">
         <v>5.0282090022624001E-2</v>
@@ -2518,7 +2519,7 @@
         <v>1.29858970645844</v>
       </c>
       <c r="D125" s="1">
-        <v>1.32687745985745</v>
+        <v>1.3030271951965899</v>
       </c>
       <c r="E125" s="1">
         <v>1.32634557189991</v>
@@ -2535,7 +2536,7 @@
         <v>0.566286269564237</v>
       </c>
       <c r="D126" s="1">
-        <v>0.55568095694049202</v>
+        <v>0.565973813099103</v>
       </c>
       <c r="E126" s="1">
         <v>0.56800773790719405</v>
@@ -2552,7 +2553,7 @@
         <v>-0.56344820937218998</v>
       </c>
       <c r="D127" s="1">
-        <v>-0.565623401799762</v>
+        <v>-0.56959642822291701</v>
       </c>
       <c r="E127" s="1">
         <v>-0.56838591337193101</v>
@@ -2569,7 +2570,7 @@
         <v>0.70538157857174599</v>
       </c>
       <c r="D128" s="1">
-        <v>0.70534478576278703</v>
+        <v>0.71561242261749103</v>
       </c>
       <c r="E128" s="1">
         <v>0.71833279988188603</v>
@@ -2586,7 +2587,7 @@
         <v>1.2679465872017099</v>
       </c>
       <c r="D129" s="1">
-        <v>1.2819989868650901</v>
+        <v>1.27502797885257</v>
       </c>
       <c r="E129" s="1">
         <v>1.2821687295831501</v>
@@ -2603,7 +2604,7 @@
         <v>-0.42479659413610399</v>
       </c>
       <c r="D130" s="1">
-        <v>-0.44325383986655298</v>
+        <v>-0.43662250233922101</v>
       </c>
       <c r="E130" s="1">
         <v>-0.45200951680235801</v>
@@ -2620,7 +2621,7 @@
         <v>-0.27724886478729599</v>
       </c>
       <c r="D131" s="1">
-        <v>-0.28015957318749302</v>
+        <v>-0.28225557686817698</v>
       </c>
       <c r="E131" s="1">
         <v>-0.28361597360761298</v>
@@ -2637,7 +2638,7 @@
         <v>0.71035400639830804</v>
       </c>
       <c r="D132" s="1">
-        <v>0.72878902902448695</v>
+        <v>0.71590529224583899</v>
       </c>
       <c r="E132" s="1">
         <v>0.72278618321333998</v>
@@ -2654,7 +2655,7 @@
         <v>-1.6446493474267802E-2</v>
       </c>
       <c r="D133" s="1">
-        <v>-1.34791772763691E-2</v>
+        <v>-2.5865061595719201E-2</v>
       </c>
       <c r="E133" s="1">
         <v>-4.5496792541758002E-3</v>
@@ -2671,7 +2672,7 @@
         <v>1.05426131153821</v>
       </c>
       <c r="D134" s="1">
-        <v>1.1095908145929401</v>
+        <v>1.0680995266625599</v>
       </c>
       <c r="E134" s="1">
         <v>1.1699191317051401</v>
@@ -2688,7 +2689,7 @@
         <v>0.32259664106386099</v>
       </c>
       <c r="D135" s="1">
-        <v>0.36105302041201998</v>
+        <v>0.327455630098207</v>
       </c>
       <c r="E135" s="1">
         <v>0.38039517478353502</v>
@@ -2705,7 +2706,7 @@
         <v>0.41821046096051701</v>
       </c>
       <c r="D136" s="1">
-        <v>0.39156464337652702</v>
+        <v>0.41365958694733901</v>
       </c>
       <c r="E136" s="1">
         <v>0.37204252823577</v>
@@ -2722,7 +2723,7 @@
         <v>-0.117276102754719</v>
       </c>
       <c r="D137" s="1">
-        <v>-0.132603177504796</v>
+        <v>-0.128880360742711</v>
       </c>
       <c r="E137" s="1">
         <v>-0.15790632367472501</v>
@@ -2739,7 +2740,7 @@
         <v>0.51034854118434803</v>
       </c>
       <c r="D138" s="1">
-        <v>0.49787407065884798</v>
+        <v>0.509764753842467</v>
       </c>
       <c r="E138" s="1">
         <v>0.50877851905386795</v>
@@ -2756,7 +2757,7 @@
         <v>0.55935400007593195</v>
       </c>
       <c r="D139" s="1">
-        <v>0.56932816329887204</v>
+        <v>0.56579297224674197</v>
       </c>
       <c r="E139" s="1">
         <v>0.57938913177098395</v>
@@ -2773,7 +2774,7 @@
         <v>-0.30492940658456202</v>
       </c>
       <c r="D140" s="1">
-        <v>-0.289283396799142</v>
+        <v>-0.30311247462968199</v>
       </c>
       <c r="E140" s="1">
         <v>-0.28992794707775399</v>
@@ -2790,7 +2791,7 @@
         <v>0.28085363221115001</v>
       </c>
       <c r="D141" s="1">
-        <v>0.28039025161229902</v>
+        <v>0.28206629694888102</v>
       </c>
       <c r="E141" s="1">
         <v>0.28722417015275697</v>
@@ -2807,7 +2808,7 @@
         <v>0.516843574176855</v>
       </c>
       <c r="D142" s="1">
-        <v>0.50547343263886602</v>
+        <v>0.51600412145253804</v>
       </c>
       <c r="E142" s="1">
         <v>0.50235170299482201</v>
@@ -2824,7 +2825,7 @@
         <v>-1.42013232572471</v>
       </c>
       <c r="D143" s="1">
-        <v>-1.4274351369406599</v>
+        <v>-1.4156809604065499</v>
       </c>
       <c r="E143" s="1">
         <v>-1.4337301203138999</v>
@@ -2841,7 +2842,7 @@
         <v>0.78923133955012204</v>
       </c>
       <c r="D144" s="1">
-        <v>0.79546944060297298</v>
+        <v>0.79525614543725798</v>
       </c>
       <c r="E144" s="1">
         <v>0.80545443098623404</v>
@@ -2858,7 +2859,7 @@
         <v>9.12177213524141E-2</v>
       </c>
       <c r="D145" s="1">
-        <v>7.2500731276757699E-2</v>
+        <v>8.8646214007079005E-2</v>
       </c>
       <c r="E145" s="1">
         <v>7.3939947074715698E-2</v>
@@ -2875,7 +2876,7 @@
         <v>-0.405880055336301</v>
       </c>
       <c r="D146" s="1">
-        <v>-0.428990138540011</v>
+        <v>-0.42172614935070102</v>
       </c>
       <c r="E146" s="1">
         <v>-0.426837016824543</v>
@@ -2892,7 +2893,7 @@
         <v>0.91898203096787201</v>
       </c>
       <c r="D147" s="1">
-        <v>0.96240274769916601</v>
+        <v>0.94679424858149497</v>
       </c>
       <c r="E147" s="1">
         <v>0.99351155995448304</v>
@@ -2909,7 +2910,7 @@
         <v>-0.36411908788805902</v>
       </c>
       <c r="D148" s="1">
-        <v>-0.37146740346071699</v>
+        <v>-0.37732598419586699</v>
       </c>
       <c r="E148" s="1">
         <v>-0.39319175236914999</v>
@@ -2926,7 +2927,7 @@
         <v>-0.27742823905238401</v>
       </c>
       <c r="D149" s="1">
-        <v>-0.26683441836699501</v>
+        <v>-0.26922906906347999</v>
       </c>
       <c r="E149" s="1">
         <v>-0.25400627106936402</v>
@@ -2943,7 +2944,7 @@
         <v>-2.07327457483207</v>
       </c>
       <c r="D150" s="1">
-        <v>-2.06361937125719</v>
+        <v>-2.0680422963326399</v>
       </c>
       <c r="E150" s="1">
         <v>-2.0906162975281499</v>
@@ -2960,7 +2961,7 @@
         <v>0.73251620357873704</v>
       </c>
       <c r="D151" s="1">
-        <v>0.72863348916995896</v>
+        <v>0.73183398635788099</v>
       </c>
       <c r="E151" s="1">
         <v>0.73781828916682501</v>
@@ -2977,7 +2978,7 @@
         <v>-0.96481745366128602</v>
       </c>
       <c r="D152" s="1">
-        <v>-0.97198077080556</v>
+        <v>-0.96791861433537096</v>
       </c>
       <c r="E152" s="1">
         <v>-0.97908478164024004</v>
@@ -2994,7 +2995,7 @@
         <v>-0.29557446162082002</v>
       </c>
       <c r="D153" s="1">
-        <v>-0.30967481816222198</v>
+        <v>-0.304414790504344</v>
       </c>
       <c r="E153" s="1">
         <v>-0.27426884414762198</v>
@@ -3011,7 +3012,7 @@
         <v>7.4792168135743103E-2</v>
       </c>
       <c r="D154" s="1">
-        <v>8.0969307356227399E-2</v>
+        <v>7.5199223088897496E-2</v>
       </c>
       <c r="E154" s="1">
         <v>9.3949790285644402E-2</v>
@@ -3028,7 +3029,7 @@
         <v>9.1874938621270497E-2</v>
       </c>
       <c r="D155" s="1">
-        <v>0.118794158624172</v>
+        <v>0.108307335936323</v>
       </c>
       <c r="E155" s="1">
         <v>0.13344179449593899</v>
@@ -3045,7 +3046,7 @@
         <v>0.98361093492658402</v>
       </c>
       <c r="D156" s="1">
-        <v>0.99740762485906698</v>
+        <v>0.98076982406614699</v>
       </c>
       <c r="E156" s="1">
         <v>0.97923021140805599</v>
@@ -3062,7 +3063,7 @@
         <v>0.13773045696911701</v>
       </c>
       <c r="D157" s="1">
-        <v>0.15044915814812199</v>
+        <v>0.14807708947534901</v>
       </c>
       <c r="E157" s="1">
         <v>0.16779706344037601</v>
@@ -3079,7 +3080,7 @@
         <v>0.60424732896592603</v>
       </c>
       <c r="D158" s="1">
-        <v>0.61876835076986703</v>
+        <v>0.60820045132914002</v>
       </c>
       <c r="E158" s="1">
         <v>0.59898653348016095</v>
@@ -3096,7 +3097,7 @@
         <v>-0.472887354364943</v>
       </c>
       <c r="D159" s="1">
-        <v>-0.46636984572756102</v>
+        <v>-0.46660515480202802</v>
       </c>
       <c r="E159" s="1">
         <v>-0.45457235649765199</v>
@@ -3113,7 +3114,7 @@
         <v>0.87635871682067801</v>
       </c>
       <c r="D160" s="1">
-        <v>0.86782825865338098</v>
+        <v>0.86979641674309405</v>
       </c>
       <c r="E160" s="1">
         <v>0.87427398610378004</v>
@@ -3130,7 +3131,7 @@
         <v>0.85994248525963801</v>
       </c>
       <c r="D161" s="1">
-        <v>0.88275472036315605</v>
+        <v>0.86541314324927199</v>
       </c>
       <c r="E161" s="1">
         <v>0.89440976333345101</v>
@@ -3147,7 +3148,7 @@
         <v>1.03432938321255</v>
       </c>
       <c r="D162" s="1">
-        <v>1.0758450056187401</v>
+        <v>1.0493183220153699</v>
       </c>
       <c r="E162" s="1">
         <v>1.1174350893902201</v>
@@ -3164,7 +3165,7 @@
         <v>-3.9271514949284998E-2</v>
       </c>
       <c r="D163" s="1">
-        <v>-4.6543993185794899E-2</v>
+        <v>-3.8852150164282097E-2</v>
       </c>
       <c r="E163" s="1">
         <v>-4.6370361587654799E-2</v>
@@ -3181,7 +3182,7 @@
         <v>-0.33050855710308102</v>
       </c>
       <c r="D164" s="1">
-        <v>-0.33913704292674401</v>
+        <v>-0.33149940952509899</v>
       </c>
       <c r="E164" s="1">
         <v>-0.35417271494460101</v>
@@ -3198,7 +3199,7 @@
         <v>-0.85499447564879205</v>
       </c>
       <c r="D165" s="1">
-        <v>-0.84911598985244197</v>
+        <v>-0.86048853510800105</v>
       </c>
       <c r="E165" s="1">
         <v>-0.85381992662212702</v>
@@ -3215,7 +3216,7 @@
         <v>0.54965964831662795</v>
       </c>
       <c r="D166" s="1">
-        <v>0.54424058128538499</v>
+        <v>0.55027845399520103</v>
       </c>
       <c r="E166" s="1">
         <v>0.55144436274417497</v>
@@ -3232,7 +3233,7 @@
         <v>-0.21438801442782701</v>
       </c>
       <c r="D167" s="1">
-        <v>-0.21041949796672299</v>
+        <v>-0.22086897126247401</v>
       </c>
       <c r="E167" s="1">
         <v>-0.19465055314287499</v>
@@ -3249,7 +3250,7 @@
         <v>-0.62557365316453895</v>
       </c>
       <c r="D168" s="1">
-        <v>-0.62852784195831801</v>
+        <v>-0.62268189642529004</v>
       </c>
       <c r="E168" s="1">
         <v>-0.62585238109432495</v>
@@ -3266,7 +3267,7 @@
         <v>-0.59849240342284105</v>
       </c>
       <c r="D169" s="1">
-        <v>-0.56579656998997396</v>
+        <v>-0.59107986186752803</v>
       </c>
       <c r="E169" s="1">
         <v>-0.52436650986135103</v>
@@ -3283,7 +3284,7 @@
         <v>-1.0367756169375899</v>
       </c>
       <c r="D170" s="1">
-        <v>-0.99287751052198003</v>
+        <v>-1.03078512063752</v>
       </c>
       <c r="E170" s="1">
         <v>-0.945534848389609</v>
@@ -3300,7 +3301,7 @@
         <v>0.202489493430209</v>
       </c>
       <c r="D171" s="1">
-        <v>0.19193664243825101</v>
+        <v>0.19060657128316999</v>
       </c>
       <c r="E171" s="1">
         <v>0.15879649563102899</v>
@@ -3317,7 +3318,7 @@
         <v>-0.247553223969987</v>
       </c>
       <c r="D172" s="1">
-        <v>-0.24630829913551799</v>
+        <v>-0.25744547615595798</v>
       </c>
       <c r="E172" s="1">
         <v>-0.25831097794505398</v>
@@ -3334,7 +3335,7 @@
         <v>-2.3880213875567002E-2</v>
       </c>
       <c r="D173" s="1">
-        <v>-6.2310606293429799E-2</v>
+        <v>-4.7169800809451802E-2</v>
       </c>
       <c r="E173" s="1">
         <v>-0.11881308130349</v>
@@ -3351,7 +3352,7 @@
         <v>1.32507150336139</v>
       </c>
       <c r="D174" s="1">
-        <v>1.3301032259274399</v>
+        <v>1.3275601600565901</v>
       </c>
       <c r="E174" s="1">
         <v>1.33170413196784</v>
@@ -3368,7 +3369,7 @@
         <v>-0.40086072721329802</v>
       </c>
       <c r="D175" s="1">
-        <v>-0.390683903798558</v>
+        <v>-0.40036804140902899</v>
       </c>
       <c r="E175" s="1">
         <v>-0.41401546978970899</v>
@@ -3385,7 +3386,7 @@
         <v>-0.61315255046969297</v>
       </c>
       <c r="D176" s="1">
-        <v>-0.60633465422468702</v>
+        <v>-0.61144253666080095</v>
       </c>
       <c r="E176" s="1">
         <v>-0.61334776094880805</v>
@@ -3402,7 +3403,7 @@
         <v>0.90950432868606401</v>
       </c>
       <c r="D177" s="1">
-        <v>0.91824006684012005</v>
+        <v>0.91457618614764602</v>
       </c>
       <c r="E177" s="1">
         <v>0.93409746663202498</v>
@@ -3419,7 +3420,7 @@
         <v>-0.195315006989111</v>
       </c>
       <c r="D178" s="1">
-        <v>-0.17461098581871001</v>
+        <v>-0.18850188867727299</v>
       </c>
       <c r="E178" s="1">
         <v>-0.15288307092891101</v>
@@ -3436,7 +3437,7 @@
         <v>1.33265769778253</v>
       </c>
       <c r="D179" s="1">
-        <v>1.3451006876640801</v>
+        <v>1.34666981366076</v>
       </c>
       <c r="E179" s="1">
         <v>1.36803621114247</v>
@@ -3453,7 +3454,7 @@
         <v>4.1370249682840102E-2</v>
       </c>
       <c r="D180" s="1">
-        <v>2.1868870103810899E-2</v>
+        <v>3.18849582504587E-2</v>
       </c>
       <c r="E180" s="1">
         <v>8.9437606002433293E-3</v>
@@ -3470,7 +3471,7 @@
         <v>-4.8467950204070097E-2</v>
       </c>
       <c r="D181" s="1">
-        <v>-5.1874805205591602E-2</v>
+        <v>-5.0972795867503702E-2</v>
       </c>
       <c r="E181" s="1">
         <v>-5.5405562606306497E-2</v>
@@ -3487,7 +3488,7 @@
         <v>0.59010447780595598</v>
       </c>
       <c r="D182" s="1">
-        <v>0.63113087378166799</v>
+        <v>0.60188334143855504</v>
       </c>
       <c r="E182" s="1">
         <v>0.65168385707785503</v>
@@ -3504,7 +3505,7 @@
         <v>-0.256370048262478</v>
       </c>
       <c r="D183" s="1">
-        <v>-0.251645991531463</v>
+        <v>-0.25181448672289097</v>
       </c>
       <c r="E183" s="1">
         <v>-0.26793634231136698</v>
@@ -3521,7 +3522,7 @@
         <v>0.39470754949348702</v>
       </c>
       <c r="D184" s="1">
-        <v>0.38880104006077798</v>
+        <v>0.38873366499693801</v>
       </c>
       <c r="E184" s="1">
         <v>0.380064104446591</v>
@@ -3538,7 +3539,7 @@
         <v>-1.2733527570288501</v>
       </c>
       <c r="D185" s="1">
-        <v>-1.3074516571922601</v>
+        <v>-1.2850361346602499</v>
       </c>
       <c r="E185" s="1">
         <v>-1.3127157838455199</v>
@@ -3555,7 +3556,7 @@
         <v>-0.50814538214551197</v>
       </c>
       <c r="D186" s="1">
-        <v>-0.50554356694896996</v>
+        <v>-0.50581436557520898</v>
       </c>
       <c r="E186" s="1">
         <v>-0.49965851469608102</v>
@@ -3572,7 +3573,7 @@
         <v>-1.38608739628495</v>
       </c>
       <c r="D187" s="1">
-        <v>-1.4205181920699099</v>
+        <v>-1.3974883939184599</v>
       </c>
       <c r="E187" s="1">
         <v>-1.44666110242089</v>
@@ -3589,7 +3590,7 @@
         <v>-1.8322555859078</v>
       </c>
       <c r="D188" s="1">
-        <v>-1.8168004843121901</v>
+        <v>-1.8256386369498301</v>
       </c>
       <c r="E188" s="1">
         <v>-1.80162405994747</v>
@@ -3606,7 +3607,7 @@
         <v>-0.62713066332915901</v>
       </c>
       <c r="D189" s="1">
-        <v>-0.62757799208241205</v>
+        <v>-0.62700594102301499</v>
       </c>
       <c r="E189" s="1">
         <v>-0.64897542241305095</v>
@@ -3623,7 +3624,7 @@
         <v>0.17648844935764299</v>
       </c>
       <c r="D190" s="1">
-        <v>0.181962896909931</v>
+        <v>0.182850157942375</v>
       </c>
       <c r="E190" s="1">
         <v>0.207712564297348</v>
@@ -3640,7 +3641,7 @@
         <v>-6.25901642256086</v>
       </c>
       <c r="D191" s="1">
-        <v>-6.2591014207889</v>
+        <v>-6.2652610378990898</v>
       </c>
       <c r="E191" s="1">
         <v>-6.2406631951658502</v>
@@ -3657,7 +3658,7 @@
         <v>2.5390360994328902</v>
       </c>
       <c r="D192" s="1">
-        <v>2.5657481019735702</v>
+        <v>2.55231036108243</v>
       </c>
       <c r="E192" s="1">
         <v>2.6308043956257001</v>
@@ -3674,7 +3675,7 @@
         <v>-1.5657771695360101</v>
       </c>
       <c r="D193" s="1">
-        <v>-1.6127925519567801</v>
+        <v>-1.58971424622312</v>
       </c>
       <c r="E193" s="1">
         <v>-1.6346964579954399</v>
@@ -3691,7 +3692,7 @@
         <v>0.83667566490796796</v>
       </c>
       <c r="D194" s="1">
-        <v>0.87775768349558903</v>
+        <v>0.85485010342921097</v>
       </c>
       <c r="E194" s="1">
         <v>0.893015161120297</v>
@@ -3708,7 +3709,7 @@
         <v>-6.0016404602503001E-2</v>
       </c>
       <c r="D195" s="1">
-        <v>-5.3456683928421102E-2</v>
+        <v>-5.1862589877791097E-2</v>
       </c>
       <c r="E195" s="1">
         <v>-3.7676516754946397E-2</v>
@@ -3725,7 +3726,7 @@
         <v>-0.219826651581532</v>
       </c>
       <c r="D196" s="1">
-        <v>-0.21645572972230101</v>
+        <v>-0.20960154698799699</v>
       </c>
       <c r="E196" s="1">
         <v>-0.22502117728540699</v>
@@ -3742,7 +3743,7 @@
         <v>-0.32385705139776</v>
       </c>
       <c r="D197" s="1">
-        <v>-0.31579340797451799</v>
+        <v>-0.320572474758273</v>
       </c>
       <c r="E197" s="1">
         <v>-0.30915203310101202</v>
@@ -3759,7 +3760,7 @@
         <v>0.52249583549637402</v>
       </c>
       <c r="D198" s="1">
-        <v>0.51933748392261703</v>
+        <v>0.53005376784297298</v>
       </c>
       <c r="E198" s="1">
         <v>0.52606772717886097</v>
@@ -3776,7 +3777,7 @@
         <v>-1.9495107465489701</v>
       </c>
       <c r="D199" s="1">
-        <v>-1.9767410257182101</v>
+        <v>-1.96003318976484</v>
       </c>
       <c r="E199" s="1">
         <v>-1.98872439270219</v>
@@ -3793,7 +3794,7 @@
         <v>-0.127543312190704</v>
       </c>
       <c r="D200" s="1">
-        <v>-0.131536248625089</v>
+        <v>-0.12730156655191199</v>
       </c>
       <c r="E200" s="1">
         <v>-0.11326990386328301</v>
@@ -3810,7 +3811,7 @@
         <v>-2.2934365695726999</v>
       </c>
       <c r="D201" s="1">
-        <v>-2.2849623120381302</v>
+        <v>-2.2937921369496799</v>
       </c>
       <c r="E201" s="1">
         <v>-2.2647949799934102</v>
@@ -3827,7 +3828,7 @@
         <v>-0.64351562028549103</v>
       </c>
       <c r="D202" s="1">
-        <v>-0.64278251952222099</v>
+        <v>-0.64614556474632701</v>
       </c>
       <c r="E202" s="1">
         <v>-0.65748414885241202</v>
@@ -3844,7 +3845,7 @@
         <v>0.27257403056951102</v>
       </c>
       <c r="D203" s="1">
-        <v>0.29766649871799</v>
+        <v>0.28072986786902199</v>
       </c>
       <c r="E203" s="1">
         <v>0.324143179351013</v>
@@ -3861,7 +3862,7 @@
         <v>0.188214006572128</v>
       </c>
       <c r="D204" s="1">
-        <v>0.193804020478932</v>
+        <v>0.188211687037981</v>
       </c>
       <c r="E204" s="1">
         <v>0.20741840969249301</v>
@@ -3878,7 +3879,7 @@
         <v>3.0129376371884899</v>
       </c>
       <c r="D205" s="1">
-        <v>3.04365110253991</v>
+        <v>3.0354576665135</v>
       </c>
       <c r="E205" s="1">
         <v>3.0727987624885902</v>
@@ -3895,7 +3896,7 @@
         <v>0.48122515084499901</v>
       </c>
       <c r="D206" s="1">
-        <v>0.44485306605380198</v>
+        <v>0.47746040313742399</v>
       </c>
       <c r="E206" s="1">
         <v>0.42060937466186599</v>
@@ -3912,7 +3913,7 @@
         <v>0.67168081065330398</v>
       </c>
       <c r="D207" s="1">
-        <v>0.66057094285180495</v>
+        <v>0.66663965838279104</v>
       </c>
       <c r="E207" s="1">
         <v>0.654071611051111</v>
@@ -3929,7 +3930,7 @@
         <v>-0.21579171264299099</v>
       </c>
       <c r="D208" s="1">
-        <v>-0.223956246762125</v>
+        <v>-0.21746318448430901</v>
       </c>
       <c r="E208" s="1">
         <v>-0.28049756362617501</v>
@@ -3946,7 +3947,7 @@
         <v>-0.77568452524704201</v>
       </c>
       <c r="D209" s="1">
-        <v>-0.79236217802879805</v>
+        <v>-0.79689811616605599</v>
       </c>
       <c r="E209" s="1">
         <v>-0.80699403626409905</v>
@@ -3963,7 +3964,7 @@
         <v>0.84350659930355198</v>
       </c>
       <c r="D210" s="1">
-        <v>0.820007380513322</v>
+        <v>0.838472565426713</v>
       </c>
       <c r="E210" s="1">
         <v>0.81096689558875801</v>
@@ -3980,7 +3981,7 @@
         <v>0.29769411691311598</v>
       </c>
       <c r="D211" s="1">
-        <v>0.28939531068754898</v>
+        <v>0.28741897411497103</v>
       </c>
       <c r="E211" s="1">
         <v>0.28512242488450201</v>
@@ -3997,7 +3998,7 @@
         <v>-1.20541559934892</v>
       </c>
       <c r="D212" s="1">
-        <v>-1.23159468031777</v>
+        <v>-1.2108434891018001</v>
       </c>
       <c r="E212" s="1">
         <v>-1.2613766144268499</v>
@@ -4014,7 +4015,7 @@
         <v>2.6644378374367499E-2</v>
       </c>
       <c r="D213" s="1">
-        <v>4.5816852544150001E-2</v>
+        <v>3.4620132856901797E-2</v>
       </c>
       <c r="E213" s="1">
         <v>4.5232859468686701E-2</v>
@@ -4031,7 +4032,7 @@
         <v>-0.64003078711413897</v>
       </c>
       <c r="D214" s="1">
-        <v>-0.66310192018325498</v>
+        <v>-0.63915652685778901</v>
       </c>
       <c r="E214" s="1">
         <v>-0.695163439805636</v>
@@ -4048,7 +4049,7 @@
         <v>8.6834044571344499E-2</v>
       </c>
       <c r="D215" s="1">
-        <v>7.0432509457524897E-2</v>
+        <v>7.0282134469787205E-2</v>
       </c>
       <c r="E215" s="1">
         <v>4.1995799286906998E-2</v>
@@ -4065,7 +4066,7 @@
         <v>0.43999295395801302</v>
       </c>
       <c r="D216" s="1">
-        <v>0.43151958665513201</v>
+        <v>0.43573644281536</v>
       </c>
       <c r="E216" s="1">
         <v>0.38838398780267902</v>
@@ -4082,7 +4083,7 @@
         <v>-0.368383691988038</v>
       </c>
       <c r="D217" s="1">
-        <v>-0.40605060334794302</v>
+        <v>-0.37555574877786702</v>
       </c>
       <c r="E217" s="1">
         <v>-0.45485127316865498</v>
@@ -4099,7 +4100,7 @@
         <v>0.24522380782773001</v>
       </c>
       <c r="D218" s="1">
-        <v>0.22508077384250499</v>
+        <v>0.236427026358002</v>
       </c>
       <c r="E218" s="1">
         <v>0.22939709813341899</v>
@@ -4116,7 +4117,7 @@
         <v>-0.97512630860440197</v>
       </c>
       <c r="D219" s="1">
-        <v>-0.99045456908315199</v>
+        <v>-0.97964441703961702</v>
       </c>
       <c r="E219" s="1">
         <v>-0.99945852252112199</v>
@@ -4133,7 +4134,7 @@
         <v>-4.4614538781592598E-2</v>
       </c>
       <c r="D220" s="1">
-        <v>-4.6884380965580001E-2</v>
+        <v>-4.0866802966294101E-2</v>
       </c>
       <c r="E220" s="1">
         <v>-6.7750078575993702E-2</v>
@@ -4150,7 +4151,7 @@
         <v>-0.31657817578398101</v>
       </c>
       <c r="D221" s="1">
-        <v>-0.31474529156432501</v>
+        <v>-0.30538337740376398</v>
       </c>
       <c r="E221" s="1">
         <v>-0.29723739451814601</v>
@@ -4167,7 +4168,7 @@
         <v>-0.432019936450522</v>
       </c>
       <c r="D222" s="1">
-        <v>-0.41802190703150499</v>
+        <v>-0.42660496462629299</v>
       </c>
       <c r="E222" s="1">
         <v>-0.419684155521305</v>
@@ -4184,7 +4185,7 @@
         <v>1.0210052720702401</v>
       </c>
       <c r="D223" s="1">
-        <v>1.0146841287922199</v>
+        <v>1.02084394214603</v>
       </c>
       <c r="E223" s="1">
         <v>0.98409787840051999</v>
@@ -4201,7 +4202,7 @@
         <v>5.01546441413575E-2</v>
       </c>
       <c r="D224" s="1">
-        <v>2.9138220336635198E-2</v>
+        <v>4.8465422093029897E-2</v>
       </c>
       <c r="E224" s="1">
         <v>4.75520481582914E-2</v>
@@ -4218,7 +4219,7 @@
         <v>1.13048739441056</v>
       </c>
       <c r="D225" s="1">
-        <v>1.13320384324612</v>
+        <v>1.1296732612535501</v>
       </c>
       <c r="E225" s="1">
         <v>1.1424195288749399</v>
@@ -4235,7 +4236,7 @@
         <v>-2.4800330878908799E-2</v>
       </c>
       <c r="D226" s="1">
-        <v>-4.7327840525289197E-2</v>
+        <v>-3.2322929216475997E-2</v>
       </c>
       <c r="E226" s="1">
         <v>-5.1307589248504697E-2</v>
@@ -4252,7 +4253,7 @@
         <v>-1.90729933869302E-2</v>
       </c>
       <c r="D227" s="1">
-        <v>-3.17896174163508E-2</v>
+        <v>-1.9921875660777001E-2</v>
       </c>
       <c r="E227" s="1">
         <v>-5.1139054866326E-2</v>
@@ -4269,7 +4270,7 @@
         <v>2.6365416067511598</v>
       </c>
       <c r="D228" s="1">
-        <v>2.6506364241417901</v>
+        <v>2.63038867082747</v>
       </c>
       <c r="E228" s="1">
         <v>2.6619395596607101</v>
@@ -4286,7 +4287,7 @@
         <v>-0.59121262216586901</v>
       </c>
       <c r="D229" s="1">
-        <v>-0.60635596557326399</v>
+        <v>-0.59646810677123696</v>
       </c>
       <c r="E229" s="1">
         <v>-0.60825066462667698</v>
@@ -4303,7 +4304,7 @@
         <v>-1.7260016380677099</v>
       </c>
       <c r="D230" s="1">
-        <v>-1.76665166710986</v>
+        <v>-1.7375807477055101</v>
       </c>
       <c r="E230" s="1">
         <v>-1.7936736006817</v>
@@ -4320,7 +4321,7 @@
         <v>-2.2981858653948901</v>
       </c>
       <c r="D231" s="1">
-        <v>-2.3045486022870398</v>
+        <v>-2.3044268370490402</v>
       </c>
       <c r="E231" s="1">
         <v>-2.3031321717076301</v>
@@ -4337,7 +4338,7 @@
         <v>0.75115847513594602</v>
       </c>
       <c r="D232" s="1">
-        <v>0.72527056734913398</v>
+        <v>0.73767755030784699</v>
       </c>
       <c r="E232" s="1">
         <v>0.69087560091618705</v>
@@ -4354,7 +4355,7 @@
         <v>-1.1709786960598201</v>
       </c>
       <c r="D233" s="1">
-        <v>-1.1747836929664099</v>
+        <v>-1.1723352628538199</v>
       </c>
       <c r="E233" s="1">
         <v>-1.16692904176668</v>
@@ -4371,7 +4372,7 @@
         <v>0.64196637571800597</v>
       </c>
       <c r="D234" s="1">
-        <v>0.63258795984215699</v>
+        <v>0.63911412918838795</v>
       </c>
       <c r="E234" s="1">
         <v>0.61522623125060405</v>
@@ -4388,7 +4389,7 @@
         <v>1.12805977889051</v>
       </c>
       <c r="D235" s="1">
-        <v>1.13650412636158</v>
+        <v>1.1260537257994601</v>
       </c>
       <c r="E235" s="1">
         <v>1.14956382292367</v>
@@ -4405,7 +4406,7 @@
         <v>0.45393293762217102</v>
       </c>
       <c r="D236" s="1">
-        <v>0.45971065515548698</v>
+        <v>0.458333298564359</v>
       </c>
       <c r="E236" s="1">
         <v>0.46876159963584202</v>
@@ -4422,7 +4423,7 @@
         <v>-0.90963620028978298</v>
       </c>
       <c r="D237" s="1">
-        <v>-0.93068815227702095</v>
+        <v>-0.92077843359395295</v>
       </c>
       <c r="E237" s="1">
         <v>-0.90393133758722499</v>
@@ -4439,7 +4440,7 @@
         <v>0.15497934224936599</v>
       </c>
       <c r="D238" s="1">
-        <v>0.17036083243009401</v>
+        <v>0.164862379394936</v>
       </c>
       <c r="E238" s="1">
         <v>0.19222295823303701</v>
@@ -4456,7 +4457,7 @@
         <v>-0.68708818662254201</v>
       </c>
       <c r="D239" s="1">
-        <v>-0.67173504061159495</v>
+        <v>-0.68248532996242295</v>
       </c>
       <c r="E239" s="1">
         <v>-0.67202082385070805</v>
@@ -4473,7 +4474,7 @@
         <v>0.70850260288245803</v>
       </c>
       <c r="D240" s="1">
-        <v>0.74370641437523599</v>
+        <v>0.72073510071284197</v>
       </c>
       <c r="E240" s="1">
         <v>0.78225387992323403</v>
@@ -4490,7 +4491,7 @@
         <v>-1.12081792989871</v>
       </c>
       <c r="D241" s="1">
-        <v>-1.12279663820126</v>
+        <v>-1.11875119715659</v>
       </c>
       <c r="E241" s="1">
         <v>-1.13647975689916</v>
@@ -4507,7 +4508,7 @@
         <v>1.5798592222203599E-2</v>
       </c>
       <c r="D242" s="1">
-        <v>7.8767089581083492E-3</v>
+        <v>1.38618142651843E-2</v>
       </c>
       <c r="E242" s="1">
         <v>3.1866363602138403E-2</v>
@@ -4524,7 +4525,7 @@
         <v>-0.35349066264502299</v>
       </c>
       <c r="D243" s="1">
-        <v>-0.385090061579764</v>
+        <v>-0.36872289541654901</v>
       </c>
       <c r="E243" s="1">
         <v>-0.37856477295614799</v>
@@ -4541,7 +4542,7 @@
         <v>-0.101478573953759</v>
       </c>
       <c r="D244" s="1">
-        <v>-0.135164902467688</v>
+        <v>-0.12468847231143999</v>
       </c>
       <c r="E244" s="1">
         <v>-0.13581197540409001</v>
@@ -4558,7 +4559,7 @@
         <v>-1.1761779317094101</v>
       </c>
       <c r="D245" s="1">
-        <v>-1.1613689294620799</v>
+        <v>-1.17084220558838</v>
       </c>
       <c r="E245" s="1">
         <v>-1.1728116299047999</v>
@@ -4575,7 +4576,7 @@
         <v>-0.50800070961337396</v>
       </c>
       <c r="D246" s="1">
-        <v>-0.49764197803305199</v>
+        <v>-0.49904643024892698</v>
       </c>
       <c r="E246" s="1">
         <v>-0.489871126028254</v>
@@ -4592,7 +4593,7 @@
         <v>1.8033021296424201</v>
       </c>
       <c r="D247" s="1">
-        <v>1.8386703504034501</v>
+        <v>1.82046794631058</v>
       </c>
       <c r="E247" s="1">
         <v>1.84452857185657</v>
@@ -4609,7 +4610,7 @@
         <v>0.94890129651975397</v>
       </c>
       <c r="D248" s="1">
-        <v>0.97375224856918596</v>
+        <v>0.96277620682429699</v>
       </c>
       <c r="E248" s="1">
         <v>1.0024622747438701</v>
@@ -4626,7 +4627,7 @@
         <v>-1.84992459308098</v>
       </c>
       <c r="D249" s="1">
-        <v>-1.9212060680173699</v>
+        <v>-1.88475397731829</v>
       </c>
       <c r="E249" s="1">
         <v>-1.9783193461525901</v>
@@ -4643,7 +4644,7 @@
         <v>-0.66236123494227706</v>
       </c>
       <c r="D250" s="1">
-        <v>-0.68355696653702802</v>
+        <v>-0.67434722819381299</v>
       </c>
       <c r="E250" s="1">
         <v>-0.70520323369126103</v>
@@ -4660,7 +4661,7 @@
         <v>-1.20172727385584</v>
       </c>
       <c r="D251" s="1">
-        <v>-1.2339300595367999</v>
+        <v>-1.2218269905497801</v>
       </c>
       <c r="E251" s="1">
         <v>-1.2550259061409901</v>
@@ -4677,7 +4678,7 @@
         <v>2.2812343663074999</v>
       </c>
       <c r="D252" s="1">
-        <v>2.3196633662244901</v>
+        <v>2.2985352116196198</v>
       </c>
       <c r="E252" s="1">
         <v>2.34748462025515</v>
@@ -4694,7 +4695,7 @@
         <v>-0.30931778887567901</v>
       </c>
       <c r="D253" s="1">
-        <v>-0.32057963184090799</v>
+        <v>-0.31530259709420699</v>
       </c>
       <c r="E253" s="1">
         <v>-0.33655196433585099</v>
@@ -4711,7 +4712,7 @@
         <v>1.89911052306926</v>
       </c>
       <c r="D254" s="1">
-        <v>1.94297555558817</v>
+        <v>1.92437808090945</v>
       </c>
       <c r="E254" s="1">
         <v>1.9587449626159801</v>
@@ -4728,7 +4729,7 @@
         <v>-0.19238655503372701</v>
       </c>
       <c r="D255" s="1">
-        <v>-0.20263191414524201</v>
+        <v>-0.202249500769769</v>
       </c>
       <c r="E255" s="1">
         <v>-0.21775893247533301</v>
@@ -4745,7 +4746,7 @@
         <v>0.448981139417019</v>
       </c>
       <c r="D256" s="1">
-        <v>0.46566419916199903</v>
+        <v>0.46471396539155801</v>
       </c>
       <c r="E256" s="1">
         <v>0.49090808707275901</v>
@@ -4762,7 +4763,7 @@
         <v>-0.53903038555467997</v>
       </c>
       <c r="D257" s="1">
-        <v>-0.55802197668252795</v>
+        <v>-0.54876100576746101</v>
       </c>
       <c r="E257" s="1">
         <v>-0.57746243540080899</v>
@@ -4779,7 +4780,7 @@
         <v>1.0472875107012301</v>
       </c>
       <c r="D258" s="1">
-        <v>1.05788693364711</v>
+        <v>1.05467211426969</v>
       </c>
       <c r="E258" s="1">
         <v>1.07108308589106</v>
@@ -4796,7 +4797,7 @@
         <v>-0.480938062865784</v>
       </c>
       <c r="D259" s="1">
-        <v>-0.51284143602834997</v>
+        <v>-0.49664808151518203</v>
       </c>
       <c r="E259" s="1">
         <v>-0.52971183585668402</v>
@@ -4813,7 +4814,7 @@
         <v>0.279286256102245</v>
       </c>
       <c r="D260" s="1">
-        <v>0.29064010341701801</v>
+        <v>0.27585973156895899</v>
       </c>
       <c r="E260" s="1">
         <v>0.306101423643031</v>
@@ -4830,7 +4831,7 @@
         <v>0.47952590785757798</v>
       </c>
       <c r="D261" s="1">
-        <v>0.47507954881213998</v>
+        <v>0.48291288381244202</v>
       </c>
       <c r="E261" s="1">
         <v>0.454399215469937</v>
@@ -4847,7 +4848,7 @@
         <v>0.557833791494318</v>
       </c>
       <c r="D262" s="1">
-        <v>0.57250466894442797</v>
+        <v>0.567575674132761</v>
       </c>
       <c r="E262" s="1">
         <v>0.57167464044940897</v>
@@ -4864,7 +4865,7 @@
         <v>9.1820656367593304E-2</v>
       </c>
       <c r="D263" s="1">
-        <v>9.7127329101781096E-2</v>
+        <v>9.6366619279995097E-2</v>
       </c>
       <c r="E263" s="1">
         <v>0.110348181336337</v>
@@ -4881,7 +4882,7 @@
         <v>-0.52333694039769996</v>
       </c>
       <c r="D264" s="1">
-        <v>-0.55846975032810198</v>
+        <v>-0.54008523277702303</v>
       </c>
       <c r="E264" s="1">
         <v>-0.59774789546942997</v>
@@ -4898,7 +4899,7 @@
         <v>0.30911424260498799</v>
       </c>
       <c r="D265" s="1">
-        <v>0.30218345092672599</v>
+        <v>0.305933966155226</v>
       </c>
       <c r="E265" s="1">
         <v>0.29724899852241199</v>
@@ -4915,7 +4916,7 @@
         <v>0.96947497396556404</v>
       </c>
       <c r="D266" s="1">
-        <v>1.00113754824583</v>
+        <v>0.98593694986448399</v>
       </c>
       <c r="E266" s="1">
         <v>1.0262748291318</v>
@@ -4932,7 +4933,7 @@
         <v>0.44298269534405099</v>
       </c>
       <c r="D267" s="1">
-        <v>0.439137343676616</v>
+        <v>0.44878701515943997</v>
       </c>
       <c r="E267" s="1">
         <v>0.43715255901163502</v>
@@ -4949,7 +4950,7 @@
         <v>-0.85794142974292698</v>
       </c>
       <c r="D268" s="1">
-        <v>-0.88627667190083204</v>
+        <v>-0.872611194924789</v>
       </c>
       <c r="E268" s="1">
         <v>-0.91180695422366098</v>
@@ -4966,7 +4967,7 @@
         <v>-1.45721502910609E-2</v>
       </c>
       <c r="D269" s="1">
-        <v>-3.1904403616551197E-2</v>
+        <v>-2.2015646521259001E-2</v>
       </c>
       <c r="E269" s="1">
         <v>-4.5448227631306598E-2</v>
@@ -4983,7 +4984,7 @@
         <v>0.78173888486582299</v>
       </c>
       <c r="D270" s="1">
-        <v>0.77688797398393405</v>
+        <v>0.787709482273107</v>
       </c>
       <c r="E270" s="1">
         <v>0.78019029672389195</v>
@@ -5000,7 +5001,7 @@
         <v>0.93627689365586897</v>
       </c>
       <c r="D271" s="1">
-        <v>0.92859563298650405</v>
+        <v>0.93675697843588102</v>
       </c>
       <c r="E271" s="1">
         <v>0.94366457853393004</v>
@@ -5017,7 +5018,7 @@
         <v>-0.117453632204412</v>
       </c>
       <c r="D272" s="1">
-        <v>-0.130332237500109</v>
+        <v>-0.12962266405228901</v>
       </c>
       <c r="E272" s="1">
         <v>-0.149766951639595</v>
@@ -5034,7 +5035,7 @@
         <v>-5.7957219199141201E-2</v>
       </c>
       <c r="D273" s="1">
-        <v>-8.1451702986118105E-2</v>
+        <v>-6.6185560405966903E-2</v>
       </c>
       <c r="E273" s="1">
         <v>-7.4574012701379394E-2</v>
@@ -5051,7 +5052,7 @@
         <v>-0.245657589395577</v>
       </c>
       <c r="D274" s="1">
-        <v>-0.23964991682596801</v>
+        <v>-0.24561027589908799</v>
       </c>
       <c r="E274" s="1">
         <v>-0.23340182819994101</v>
@@ -5068,7 +5069,7 @@
         <v>0.81576469288416797</v>
       </c>
       <c r="D275" s="1">
-        <v>0.79849461879243</v>
+        <v>0.81416818160172699</v>
       </c>
       <c r="E275" s="1">
         <v>0.79559952008475898</v>
@@ -5085,7 +5086,7 @@
         <v>3.6288904714747799E-2</v>
       </c>
       <c r="D276" s="1">
-        <v>5.5585194846161099E-3</v>
+        <v>2.6263246146913801E-2</v>
       </c>
       <c r="E276" s="1">
         <v>-2.3378184980314999E-2</v>
@@ -5102,7 +5103,7 @@
         <v>1.2353756190235501</v>
       </c>
       <c r="D277" s="1">
-        <v>1.2604134694065501</v>
+        <v>1.2436450298828901</v>
       </c>
       <c r="E277" s="1">
         <v>1.2629588369628499</v>
@@ -5119,7 +5120,7 @@
         <v>0.46961587305805702</v>
       </c>
       <c r="D278" s="1">
-        <v>0.48776727440915002</v>
+        <v>0.47413700447130802</v>
       </c>
       <c r="E278" s="1">
         <v>0.49771212794463898</v>
@@ -5136,7 +5137,7 @@
         <v>5.64233299199835E-2</v>
       </c>
       <c r="D279" s="1">
-        <v>7.33536861639323E-2</v>
+        <v>6.4949461809171299E-2</v>
       </c>
       <c r="E279" s="1">
         <v>7.4985072536460501E-2</v>
@@ -5153,7 +5154,7 @@
         <v>0.66201586334698803</v>
       </c>
       <c r="D280" s="1">
-        <v>0.65492032787420396</v>
+        <v>0.65907901271711899</v>
       </c>
       <c r="E280" s="1">
         <v>0.65654633985248001</v>
@@ -5170,7 +5171,7 @@
         <v>3.7513793943398203E-2</v>
       </c>
       <c r="D281" s="1">
-        <v>6.3550705718643796E-2</v>
+        <v>4.6687325461045003E-2</v>
       </c>
       <c r="E281" s="1">
         <v>6.6919243993083299E-2</v>
@@ -5187,7 +5188,7 @@
         <v>3.3360931970440001E-3</v>
       </c>
       <c r="D282" s="1">
-        <v>7.9993295941870296E-4</v>
+        <v>4.7248806685016602E-3</v>
       </c>
       <c r="E282" s="1">
         <v>5.8899419063704501E-3</v>
@@ -5204,7 +5205,7 @@
         <v>-0.427648980965809</v>
       </c>
       <c r="D283" s="1">
-        <v>-0.48783796569251803</v>
+        <v>-0.44649989919703298</v>
       </c>
       <c r="E283" s="1">
         <v>-0.51544027038433404</v>
@@ -5221,7 +5222,7 @@
         <v>-0.451905599242513</v>
       </c>
       <c r="D284" s="1">
-        <v>-0.455905655968527</v>
+        <v>-0.45815593467865301</v>
       </c>
       <c r="E284" s="1">
         <v>-0.46364352052205299</v>
@@ -5238,7 +5239,7 @@
         <v>0.51991452420961604</v>
       </c>
       <c r="D285" s="1">
-        <v>0.53173418706085795</v>
+        <v>0.52508947465377598</v>
       </c>
       <c r="E285" s="1">
         <v>0.53578973920759498</v>
@@ -5255,7 +5256,7 @@
         <v>-0.41886843705900001</v>
       </c>
       <c r="D286" s="1">
-        <v>-0.41391073625416802</v>
+        <v>-0.40882148431937998</v>
       </c>
       <c r="E286" s="1">
         <v>-0.39145760228361898</v>
@@ -5272,7 +5273,7 @@
         <v>-0.74585577215124998</v>
       </c>
       <c r="D287" s="1">
-        <v>-0.79189674631088003</v>
+        <v>-0.77040353930624395</v>
       </c>
       <c r="E287" s="1">
         <v>-0.81918174429521495</v>
@@ -5289,7 +5290,7 @@
         <v>5.8067194939308703E-2</v>
       </c>
       <c r="D288" s="1">
-        <v>6.1501845501098898E-2</v>
+        <v>6.0047297266365998E-2</v>
       </c>
       <c r="E288" s="1">
         <v>4.53736370510689E-2</v>
@@ -5306,7 +5307,7 @@
         <v>0.96779655314506097</v>
       </c>
       <c r="D289" s="1">
-        <v>0.98964948765920702</v>
+        <v>0.95787876734985999</v>
       </c>
       <c r="E289" s="1">
         <v>0.98945219103846604</v>
@@ -5323,7 +5324,7 @@
         <v>0.29968803109561898</v>
       </c>
       <c r="D290" s="1">
-        <v>0.29611034850451701</v>
+        <v>0.28994988528836901</v>
       </c>
       <c r="E290" s="1">
         <v>0.30226018456430997</v>
@@ -5340,7 +5341,7 @@
         <v>-0.26878361989710697</v>
       </c>
       <c r="D291" s="1">
-        <v>-0.299461211058072</v>
+        <v>-0.28253135742067198</v>
       </c>
       <c r="E291" s="1">
         <v>-0.31452013412547503</v>
@@ -5357,7 +5358,7 @@
         <v>0.92066954951970303</v>
       </c>
       <c r="D292" s="1">
-        <v>0.93165474990586405</v>
+        <v>0.92568538524578003</v>
       </c>
       <c r="E292" s="1">
         <v>0.947040086779812</v>
@@ -5374,7 +5375,7 @@
         <v>0.74375411917555201</v>
       </c>
       <c r="D293" s="1">
-        <v>0.75825448208667601</v>
+        <v>0.75168767113094104</v>
       </c>
       <c r="E293" s="1">
         <v>0.76838357496800602</v>
@@ -5391,7 +5392,7 @@
         <v>2.04656735309836E-3</v>
       </c>
       <c r="D294" s="1">
-        <v>2.2165009853690701E-2</v>
+        <v>1.9073563999276701E-2</v>
       </c>
       <c r="E294" s="1">
         <v>3.3850465061565402E-2</v>
@@ -5408,7 +5409,7 @@
         <v>0.37237862557927598</v>
       </c>
       <c r="D295" s="1">
-        <v>0.36832817744306401</v>
+        <v>0.36897056976242498</v>
       </c>
       <c r="E295" s="1">
         <v>0.36363821998086898</v>
@@ -5425,7 +5426,7 @@
         <v>0.56771086841639795</v>
       </c>
       <c r="D296" s="1">
-        <v>0.58825453625374202</v>
+        <v>0.573218928372357</v>
       </c>
       <c r="E296" s="1">
         <v>0.60448333188651104</v>
@@ -5442,7 +5443,7 @@
         <v>0.329551412843262</v>
       </c>
       <c r="D297" s="1">
-        <v>0.35447686176874699</v>
+        <v>0.337854311683641</v>
       </c>
       <c r="E297" s="1">
         <v>0.35656674458524801</v>
@@ -5459,7 +5460,7 @@
         <v>-1.5507573346938199</v>
       </c>
       <c r="D298" s="1">
-        <v>-1.5763382289175301</v>
+        <v>-1.5588640654858801</v>
       </c>
       <c r="E298" s="1">
         <v>-1.5840340595907301</v>
@@ -5476,7 +5477,7 @@
         <v>0.77315444784967002</v>
       </c>
       <c r="D299" s="1">
-        <v>0.78681947254857498</v>
+        <v>0.77615371868930105</v>
       </c>
       <c r="E299" s="1">
         <v>0.80315279660911698</v>
@@ -5493,7 +5494,7 @@
         <v>-0.178924321945685</v>
       </c>
       <c r="D300" s="1">
-        <v>-0.19095152376701799</v>
+        <v>-0.180071429163074</v>
       </c>
       <c r="E300" s="1">
         <v>-0.203125158440989</v>
@@ -5510,7 +5511,7 @@
         <v>-3.6608439294952298E-2</v>
       </c>
       <c r="D301" s="1">
-        <v>-3.75237368225576E-2</v>
+        <v>-3.6164230001911497E-2</v>
       </c>
       <c r="E301" s="1">
         <v>-4.1893126230253298E-2</v>
@@ -5527,7 +5528,7 @@
         <v>1.03544781948063</v>
       </c>
       <c r="D302" s="1">
-        <v>1.0691104719454501</v>
+        <v>1.0549879854856099</v>
       </c>
       <c r="E302" s="1">
         <v>1.08556745951613</v>
@@ -5544,7 +5545,7 @@
         <v>5.4956822978997198E-2</v>
       </c>
       <c r="D303" s="1">
-        <v>8.2728307054688602E-2</v>
+        <v>6.3307724934993606E-2</v>
       </c>
       <c r="E303" s="1">
         <v>7.7781468941495804E-2</v>
@@ -5561,7 +5562,7 @@
         <v>0.44545846781918202</v>
       </c>
       <c r="D304" s="1">
-        <v>0.44941508417551901</v>
+        <v>0.44502179946479697</v>
       </c>
       <c r="E304" s="1">
         <v>0.457654812367084</v>
@@ -5578,7 +5579,7 @@
         <v>0.10485473262216199</v>
       </c>
       <c r="D305" s="1">
-        <v>8.9339603828445593E-2</v>
+        <v>9.6845215197715398E-2</v>
       </c>
       <c r="E305" s="1">
         <v>8.4106226595085001E-2</v>
@@ -5595,7 +5596,7 @@
         <v>0.91929358406516004</v>
       </c>
       <c r="D306" s="1">
-        <v>0.94751906448590695</v>
+        <v>0.92922276107280499</v>
       </c>
       <c r="E306" s="1">
         <v>0.94910512105689104</v>
@@ -5612,7 +5613,7 @@
         <v>0.48734921013612797</v>
       </c>
       <c r="D307" s="1">
-        <v>0.49851075253220301</v>
+        <v>0.49322505693962698</v>
       </c>
       <c r="E307" s="1">
         <v>0.50598817216689296</v>
@@ -5629,7 +5630,7 @@
         <v>0.155661811794644</v>
       </c>
       <c r="D308" s="1">
-        <v>0.14108456475301101</v>
+        <v>0.15864654163755099</v>
       </c>
       <c r="E308" s="1">
         <v>0.12988896447742801</v>
@@ -5646,7 +5647,7 @@
         <v>-0.55169300042071601</v>
       </c>
       <c r="D309" s="1">
-        <v>-0.55290697475938899</v>
+        <v>-0.561417720456448</v>
       </c>
       <c r="E309" s="1">
         <v>-0.54866283808798599</v>
@@ -5663,7 +5664,7 @@
         <v>8.2035534243209193E-3</v>
       </c>
       <c r="D310" s="1">
-        <v>2.19457233421614E-2</v>
+        <v>2.1751804817935198E-2</v>
       </c>
       <c r="E310" s="1">
         <v>4.4274212930538299E-2</v>
@@ -5680,7 +5681,7 @@
         <v>0.63155776357713</v>
       </c>
       <c r="D311" s="1">
-        <v>0.63379375480795097</v>
+        <v>0.63621135080049196</v>
       </c>
       <c r="E311" s="1">
         <v>0.66705949854246605</v>
@@ -5697,7 +5698,7 @@
         <v>0.50971848947957998</v>
       </c>
       <c r="D312" s="1">
-        <v>0.52617807970389596</v>
+        <v>0.508692504253482</v>
       </c>
       <c r="E312" s="1">
         <v>0.50537060247006405</v>
@@ -5714,7 +5715,7 @@
         <v>0.63512203420495195</v>
       </c>
       <c r="D313" s="1">
-        <v>0.64221304944812596</v>
+        <v>0.64389769364217897</v>
       </c>
       <c r="E313" s="1">
         <v>0.63680298172703298</v>
@@ -5731,7 +5732,7 @@
         <v>-0.249048401815925</v>
       </c>
       <c r="D314" s="1">
-        <v>-0.20804242528703401</v>
+        <v>-0.23180163510474999</v>
       </c>
       <c r="E314" s="1">
         <v>-0.18138439858153099</v>
@@ -5748,7 +5749,7 @@
         <v>2.5152056370609799E-2</v>
       </c>
       <c r="D315" s="1">
-        <v>1.07982504533881E-2</v>
+        <v>2.2444666227535801E-2</v>
       </c>
       <c r="E315" s="1">
         <v>4.3500177375207201E-3</v>
@@ -5765,7 +5766,7 @@
         <v>0.16746218735335</v>
       </c>
       <c r="D316" s="1">
-        <v>0.146948837511887</v>
+        <v>0.160599003180215</v>
       </c>
       <c r="E316" s="1">
         <v>0.148342483328642</v>
@@ -5782,7 +5783,7 @@
         <v>0.40680772176586399</v>
       </c>
       <c r="D317" s="1">
-        <v>0.42787679863393302</v>
+        <v>0.42076176974072499</v>
       </c>
       <c r="E317" s="1">
         <v>0.45476120586548802</v>
@@ -5799,7 +5800,7 @@
         <v>2.2331445693454001E-2</v>
       </c>
       <c r="D318" s="1">
-        <v>3.1785224704053101E-2</v>
+        <v>2.0439548919554799E-2</v>
       </c>
       <c r="E318" s="1">
         <v>1.9114577910538499E-2</v>
@@ -5816,7 +5817,7 @@
         <v>0.120883819615519</v>
       </c>
       <c r="D319" s="1">
-        <v>0.13598882437166199</v>
+        <v>0.12756715431219401</v>
       </c>
       <c r="E319" s="1">
         <v>0.14348801642662601</v>
@@ -5833,7 +5834,7 @@
         <v>-0.79462919353599104</v>
       </c>
       <c r="D320" s="1">
-        <v>-0.78789921446824196</v>
+        <v>-0.78836869002408605</v>
       </c>
       <c r="E320" s="1">
         <v>-0.78722944008399498</v>
@@ -5850,7 +5851,7 @@
         <v>-6.9858666377223697E-2</v>
       </c>
       <c r="D321" s="1">
-        <v>-3.9512774908222401E-2</v>
+        <v>-5.5426917058286902E-2</v>
       </c>
       <c r="E321" s="1">
         <v>-1.9638536681720501E-2</v>
@@ -5867,7 +5868,7 @@
         <v>0.223549296968821</v>
       </c>
       <c r="D322" s="1">
-        <v>0.20363491775530401</v>
+        <v>0.21717263879666401</v>
       </c>
       <c r="E322" s="1">
         <v>0.18363057537302899</v>
@@ -5884,7 +5885,7 @@
         <v>0.32975525332236599</v>
       </c>
       <c r="D323" s="1">
-        <v>0.305602803881944</v>
+        <v>0.32845794444425702</v>
       </c>
       <c r="E323" s="1">
         <v>0.29501039375963101</v>
@@ -5901,7 +5902,7 @@
         <v>0.86726656797819601</v>
       </c>
       <c r="D324" s="1">
-        <v>0.88416324278374903</v>
+        <v>0.87787820959226803</v>
       </c>
       <c r="E324" s="1">
         <v>0.88899137454273702</v>
@@ -5918,7 +5919,7 @@
         <v>-1.8044080244979399</v>
       </c>
       <c r="D325" s="1">
-        <v>-1.7995684134088099</v>
+        <v>-1.8047976094166001</v>
       </c>
       <c r="E325" s="1">
         <v>-1.79106521026613</v>
@@ -5935,7 +5936,7 @@
         <v>0.84865119922149401</v>
       </c>
       <c r="D326" s="1">
-        <v>0.84880598212374603</v>
+        <v>0.848893291270303</v>
       </c>
       <c r="E326" s="1">
         <v>0.83692969753254298</v>
@@ -5952,7 +5953,7 @@
         <v>-0.59588109766887698</v>
       </c>
       <c r="D327" s="1">
-        <v>-0.62567254841213804</v>
+        <v>-0.61536488158015101</v>
       </c>
       <c r="E327" s="1">
         <v>-0.62575826764305897</v>
@@ -5969,7 +5970,7 @@
         <v>-1.7532661942696901</v>
       </c>
       <c r="D328" s="1">
-        <v>-1.76020139507912</v>
+        <v>-1.75179939143788</v>
       </c>
       <c r="E328" s="1">
         <v>-1.76302777959551</v>
@@ -5986,7 +5987,7 @@
         <v>-0.17847269716856001</v>
       </c>
       <c r="D329" s="1">
-        <v>-0.162783393141293</v>
+        <v>-0.17843867350290901</v>
       </c>
       <c r="E329" s="1">
         <v>-0.15048129251914699</v>
@@ -6003,7 +6004,7 @@
         <v>-1.43128119815078</v>
       </c>
       <c r="D330" s="1">
-        <v>-1.42788760605822</v>
+        <v>-1.4309285455703</v>
       </c>
       <c r="E330" s="1">
         <v>-1.4102587762630701</v>
@@ -6020,7 +6021,7 @@
         <v>-0.42794382258105901</v>
       </c>
       <c r="D331" s="1">
-        <v>-0.470184231939553</v>
+        <v>-0.441233712576655</v>
       </c>
       <c r="E331" s="1">
         <v>-0.50309492697576697</v>
@@ -6037,7 +6038,7 @@
         <v>0.402456766049621</v>
       </c>
       <c r="D332" s="1">
-        <v>0.377259873593836</v>
+        <v>0.38824912841338999</v>
       </c>
       <c r="E332" s="1">
         <v>0.354611755056501</v>
@@ -6054,7 +6055,7 @@
         <v>-0.82783271888340204</v>
       </c>
       <c r="D333" s="1">
-        <v>-0.82324178524976299</v>
+        <v>-0.82942045333338799</v>
       </c>
       <c r="E333" s="1">
         <v>-0.80785497301281395</v>
@@ -6071,7 +6072,7 @@
         <v>-0.86401801565011704</v>
       </c>
       <c r="D334" s="1">
-        <v>-0.85960771872712605</v>
+        <v>-0.86771254043428303</v>
       </c>
       <c r="E334" s="1">
         <v>-0.87178972384447895</v>
@@ -6088,7 +6089,7 @@
         <v>0.15904090958131101</v>
       </c>
       <c r="D335" s="1">
-        <v>0.16759635215323501</v>
+        <v>0.16711325933881199</v>
       </c>
       <c r="E335" s="1">
         <v>0.177863894201957</v>
@@ -6105,7 +6106,7 @@
         <v>0.60400765094289599</v>
       </c>
       <c r="D336" s="1">
-        <v>0.56652302264593302</v>
+        <v>0.58760107454281296</v>
       </c>
       <c r="E336" s="1">
         <v>0.53682840401762699</v>
@@ -6122,7 +6123,7 @@
         <v>-7.7342508611651206E-2</v>
       </c>
       <c r="D337" s="1">
-        <v>-8.6625064091856496E-2</v>
+        <v>-7.6291974568908794E-2</v>
       </c>
       <c r="E337" s="1">
         <v>-7.4317500584397497E-2</v>
@@ -6139,7 +6140,7 @@
         <v>-1.4475924539985801</v>
       </c>
       <c r="D338" s="1">
-        <v>-1.4811325925285901</v>
+        <v>-1.4654518367826701</v>
       </c>
       <c r="E338" s="1">
         <v>-1.5014184837189399</v>
@@ -6156,7 +6157,7 @@
         <v>0.19355402887487899</v>
       </c>
       <c r="D339" s="1">
-        <v>0.19106385023657499</v>
+        <v>0.18452257240029199</v>
       </c>
       <c r="E339" s="1">
         <v>0.20521516447815399</v>
@@ -6173,7 +6174,7 @@
         <v>2.3025661455142801E-2</v>
       </c>
       <c r="D340" s="1">
-        <v>-5.9632120798098999E-3</v>
+        <v>6.3981137546112498E-3</v>
       </c>
       <c r="E340" s="1">
         <v>-6.0235053577732201E-3</v>
@@ -6190,7 +6191,7 @@
         <v>-0.246769918665527</v>
       </c>
       <c r="D341" s="1">
-        <v>-0.24461988517807901</v>
+        <v>-0.24406756775073399</v>
       </c>
       <c r="E341" s="1">
         <v>-0.25452979924781999</v>
@@ -6207,7 +6208,7 @@
         <v>-8.56980885632697E-2</v>
       </c>
       <c r="D342" s="1">
-        <v>-8.5229060726586495E-2</v>
+        <v>-8.8843974576041401E-2</v>
       </c>
       <c r="E342" s="1">
         <v>-0.104277698826274</v>
@@ -6224,7 +6225,7 @@
         <v>0.79530676118229504</v>
       </c>
       <c r="D343" s="1">
-        <v>0.79521556605071797</v>
+        <v>0.79845094958378104</v>
       </c>
       <c r="E343" s="1">
         <v>0.80740919239035303</v>
@@ -6241,7 +6242,7 @@
         <v>1.1797639445711301</v>
       </c>
       <c r="D344" s="1">
-        <v>1.2205959706243401</v>
+        <v>1.2012017625553499</v>
       </c>
       <c r="E344" s="1">
         <v>1.22981569696444</v>
@@ -6258,7 +6259,7 @@
         <v>9.8689863713343498E-2</v>
       </c>
       <c r="D345" s="1">
-        <v>0.122958871483846</v>
+        <v>0.110639728628611</v>
       </c>
       <c r="E345" s="1">
         <v>0.14857187161926699</v>
@@ -6275,7 +6276,7 @@
         <v>-0.70629789418991595</v>
       </c>
       <c r="D346" s="1">
-        <v>-0.73069969086488995</v>
+        <v>-0.71679231474212002</v>
       </c>
       <c r="E346" s="1">
         <v>-0.74757118744076501</v>
@@ -6292,7 +6293,7 @@
         <v>0.32089925766142402</v>
       </c>
       <c r="D347" s="1">
-        <v>0.33482183934380899</v>
+        <v>0.322671368110865</v>
       </c>
       <c r="E347" s="1">
         <v>0.34077089142378603</v>
@@ -6309,7 +6310,7 @@
         <v>-0.506638912311276</v>
       </c>
       <c r="D348" s="1">
-        <v>-0.51059175395587997</v>
+        <v>-0.506473421828741</v>
       </c>
       <c r="E348" s="1">
         <v>-0.50165049796679695</v>
@@ -6326,7 +6327,7 @@
         <v>1.5641137059858701</v>
       </c>
       <c r="D349" s="1">
-        <v>1.5864679199431899</v>
+        <v>1.5675996486610899</v>
       </c>
       <c r="E349" s="1">
         <v>1.58371651279245</v>
@@ -6343,7 +6344,7 @@
         <v>0.39736981045956199</v>
       </c>
       <c r="D350" s="1">
-        <v>0.41264664592968903</v>
+        <v>0.39531429154452602</v>
       </c>
       <c r="E350" s="1">
         <v>0.41608598978564498</v>
@@ -6360,7 +6361,7 @@
         <v>8.2931633551839801E-2</v>
       </c>
       <c r="D351" s="1">
-        <v>7.03955785903468E-2</v>
+        <v>7.3356229307863799E-2</v>
       </c>
       <c r="E351" s="1">
         <v>7.4193209433001395E-2</v>
@@ -6377,7 +6378,7 @@
         <v>-0.53886599888249298</v>
       </c>
       <c r="D352" s="1">
-        <v>-0.56409436753631803</v>
+        <v>-0.55190672860684198</v>
       </c>
       <c r="E352" s="1">
         <v>-0.568873911497639</v>
@@ -6394,7 +6395,7 @@
         <v>-0.36871014143123998</v>
       </c>
       <c r="D353" s="1">
-        <v>-0.39056908594143003</v>
+        <v>-0.38002075975919403</v>
       </c>
       <c r="E353" s="1">
         <v>-0.40066871560738498</v>
@@ -6411,7 +6412,7 @@
         <v>5.0343634098681998E-2</v>
       </c>
       <c r="D354" s="1">
-        <v>2.8217390638409098E-2</v>
+        <v>4.4057000437188701E-2</v>
       </c>
       <c r="E354" s="1">
         <v>1.7732044841228399E-3</v>
@@ -6428,7 +6429,7 @@
         <v>0.414958300444418</v>
       </c>
       <c r="D355" s="1">
-        <v>0.43603927583885999</v>
+        <v>0.42878527892243001</v>
       </c>
       <c r="E355" s="1">
         <v>0.44358050257186799</v>
@@ -6445,7 +6446,7 @@
         <v>2.0589505296983801</v>
       </c>
       <c r="D356" s="1">
-        <v>2.0912123495956201</v>
+        <v>2.0708695902173</v>
       </c>
       <c r="E356" s="1">
         <v>2.1127263964307499</v>
@@ -6462,7 +6463,7 @@
         <v>0.19575650941586001</v>
       </c>
       <c r="D357" s="1">
-        <v>0.17114453687473</v>
+        <v>0.18419195814704201</v>
       </c>
       <c r="E357" s="1">
         <v>0.16287870601381799</v>
@@ -6479,7 +6480,7 @@
         <v>0.204541057848173</v>
       </c>
       <c r="D358" s="1">
-        <v>0.220126584687899</v>
+        <v>0.215018728607693</v>
       </c>
       <c r="E358" s="1">
         <v>0.23346433720528301</v>
@@ -6496,7 +6497,7 @@
         <v>0.42325700990791398</v>
       </c>
       <c r="D359" s="1">
-        <v>0.41946687474004402</v>
+        <v>0.418904945674686</v>
       </c>
       <c r="E359" s="1">
         <v>0.417407076788263</v>
@@ -6513,7 +6514,7 @@
         <v>-0.68931470541056405</v>
       </c>
       <c r="D360" s="1">
-        <v>-0.69434939844045795</v>
+        <v>-0.69410218386618905</v>
       </c>
       <c r="E360" s="1">
         <v>-0.70231882353425801</v>
@@ -6530,7 +6531,7 @@
         <v>-0.42743984992907902</v>
       </c>
       <c r="D361" s="1">
-        <v>-0.44960472640963001</v>
+        <v>-0.43403389900594602</v>
       </c>
       <c r="E361" s="1">
         <v>-0.46948034342610601</v>
@@ -6547,7 +6548,7 @@
         <v>1.2265662037828</v>
       </c>
       <c r="D362" s="1">
-        <v>1.2509405430810301</v>
+        <v>1.2324456076054799</v>
       </c>
       <c r="E362" s="1">
         <v>1.2744720005065699</v>
@@ -6564,7 +6565,7 @@
         <v>-0.42465181498264598</v>
       </c>
       <c r="D363" s="1">
-        <v>-0.43674237972594698</v>
+        <v>-0.43017314406175899</v>
       </c>
       <c r="E363" s="1">
         <v>-0.44126340496886901</v>
@@ -6581,7 +6582,7 @@
         <v>1.7230464606059099</v>
       </c>
       <c r="D364" s="1">
-        <v>1.7634747888729301</v>
+        <v>1.74592329677033</v>
       </c>
       <c r="E364" s="1">
         <v>1.7761208869716401</v>
@@ -6598,7 +6599,7 @@
         <v>-0.12658083285850599</v>
       </c>
       <c r="D365" s="1">
-        <v>-0.14621071001752101</v>
+        <v>-0.13754016966350599</v>
       </c>
       <c r="E365" s="1">
         <v>-0.15567930628030699</v>
@@ -6615,7 +6616,7 @@
         <v>-1.0221587564943</v>
       </c>
       <c r="D366" s="1">
-        <v>-1.0589226981623301</v>
+        <v>-1.0442863158451201</v>
       </c>
       <c r="E366" s="1">
         <v>-1.0786839285026899</v>
@@ -6632,7 +6633,7 @@
         <v>0.47233334761590201</v>
       </c>
       <c r="D367" s="1">
-        <v>0.46568038105051601</v>
+        <v>0.47152833930573701</v>
       </c>
       <c r="E367" s="1">
         <v>0.47296684432582697</v>
@@ -6649,7 +6650,7 @@
         <v>9.8592041192892901E-2</v>
       </c>
       <c r="D368" s="1">
-        <v>8.4850093956735595E-2</v>
+        <v>9.3342632887009794E-2</v>
       </c>
       <c r="E368" s="1">
         <v>8.3938127644976698E-2</v>
@@ -6666,7 +6667,7 @@
         <v>-0.17846254022448699</v>
       </c>
       <c r="D369" s="1">
-        <v>-0.173074062266766</v>
+        <v>-0.176244257383953</v>
       </c>
       <c r="E369" s="1">
         <v>-0.17546419335777499</v>
@@ -6683,7 +6684,7 @@
         <v>-0.34962405033313898</v>
       </c>
       <c r="D370" s="1">
-        <v>-0.38679135307767698</v>
+        <v>-0.36252999891737198</v>
       </c>
       <c r="E370" s="1">
         <v>-0.39139966297092099</v>
@@ -6700,7 +6701,7 @@
         <v>0.97564587017755899</v>
       </c>
       <c r="D371" s="1">
-        <v>0.99451468207575899</v>
+        <v>0.981433668802978</v>
       </c>
       <c r="E371" s="1">
         <v>0.99585885145078801</v>
@@ -6717,7 +6718,7 @@
         <v>0.59062022282883098</v>
       </c>
       <c r="D372" s="1">
-        <v>0.604844175367235</v>
+        <v>0.60284985845738104</v>
       </c>
       <c r="E372" s="1">
         <v>0.61726029103033098</v>
@@ -6734,7 +6735,7 @@
         <v>-0.16997352085959899</v>
       </c>
       <c r="D373" s="1">
-        <v>-0.17729282013884601</v>
+        <v>-0.16772389911018101</v>
       </c>
       <c r="E373" s="1">
         <v>-0.187212028532907</v>
@@ -6751,7 +6752,7 @@
         <v>0.60653586850728103</v>
       </c>
       <c r="D374" s="1">
-        <v>0.60766602306545503</v>
+        <v>0.59924683404506396</v>
       </c>
       <c r="E374" s="1">
         <v>0.61661621661063404</v>
@@ -6768,7 +6769,7 @@
         <v>0.19597073706784901</v>
       </c>
       <c r="D375" s="1">
-        <v>0.19786549166249101</v>
+        <v>0.190709640086759</v>
       </c>
       <c r="E375" s="1">
         <v>0.19828480187761299</v>
@@ -6785,7 +6786,7 @@
         <v>-0.550027415398747</v>
       </c>
       <c r="D376" s="1">
-        <v>-0.57847948034123997</v>
+        <v>-0.554572051478464</v>
       </c>
       <c r="E376" s="1">
         <v>-0.58501833436743</v>
@@ -6802,7 +6803,7 @@
         <v>-0.22483400210715601</v>
       </c>
       <c r="D377" s="1">
-        <v>-0.21756315613868801</v>
+        <v>-0.219440893840467</v>
       </c>
       <c r="E377" s="1">
         <v>-0.212721329831147</v>
@@ -6819,7 +6820,7 @@
         <v>0.75479566137534804</v>
       </c>
       <c r="D378" s="1">
-        <v>0.75258568273356696</v>
+        <v>0.75586433949148102</v>
       </c>
       <c r="E378" s="1">
         <v>0.75763327369563405</v>
@@ -6836,7 +6837,7 @@
         <v>0.742104447796334</v>
       </c>
       <c r="D379" s="1">
-        <v>0.74373874983303001</v>
+        <v>0.75176960673842697</v>
       </c>
       <c r="E379" s="1">
         <v>0.75776871125270695</v>
@@ -6853,7 +6854,7 @@
         <v>6.4740899668663102E-2</v>
       </c>
       <c r="D380" s="1">
-        <v>8.53688134726234E-2</v>
+        <v>7.0768472381173897E-2</v>
       </c>
       <c r="E380" s="1">
         <v>9.0366520343313494E-2</v>
@@ -6870,7 +6871,7 @@
         <v>-7.5450599379622396E-2</v>
       </c>
       <c r="D381" s="1">
-        <v>-7.4697856243105695E-2</v>
+        <v>-7.9046195261269797E-2</v>
       </c>
       <c r="E381" s="1">
         <v>-9.2095432920647202E-2</v>
@@ -6887,7 +6888,7 @@
         <v>0.45918522248777499</v>
       </c>
       <c r="D382" s="1">
-        <v>0.47404394619135298</v>
+        <v>0.46751538481083399</v>
       </c>
       <c r="E382" s="1">
         <v>0.45897273840921499</v>
@@ -6904,7 +6905,7 @@
         <v>-0.483818535961555</v>
       </c>
       <c r="D383" s="1">
-        <v>-0.528281023143785</v>
+        <v>-0.50164294574856705</v>
       </c>
       <c r="E383" s="1">
         <v>-0.54932700567819104</v>
@@ -6921,7 +6922,7 @@
         <v>-1.55351695263975E-2</v>
       </c>
       <c r="D384" s="1">
-        <v>-7.6143320670465902E-3</v>
+        <v>-8.4136351692521306E-3</v>
       </c>
       <c r="E384" s="1">
         <v>-1.32995563193242E-2</v>
@@ -6938,7 +6939,7 @@
         <v>-0.44876811592298399</v>
       </c>
       <c r="D385" s="1">
-        <v>-0.408081650731492</v>
+        <v>-0.42389710622396398</v>
       </c>
       <c r="E385" s="1">
         <v>-0.38973801938997399</v>
@@ -6955,7 +6956,7 @@
         <v>1.2166424627391599E-3</v>
       </c>
       <c r="D386" s="1">
-        <v>-8.3854008465452708E-3</v>
+        <v>8.7990177981345993E-3</v>
       </c>
       <c r="E386" s="1">
         <v>-3.0101606253522199E-2</v>
@@ -6972,7 +6973,7 @@
         <v>-0.789285145208665</v>
       </c>
       <c r="D387" s="1">
-        <v>-0.805713998700195</v>
+        <v>-0.80271362619347597</v>
       </c>
       <c r="E387" s="1">
         <v>-0.829074467628101</v>
@@ -6989,7 +6990,7 @@
         <v>-1.7157537662365601</v>
       </c>
       <c r="D388" s="1">
-        <v>-1.72064073367786</v>
+        <v>-1.7247945997708001</v>
       </c>
       <c r="E388" s="1">
         <v>-1.7494031979528599</v>
@@ -7006,7 +7007,7 @@
         <v>-1.1581594652040199</v>
       </c>
       <c r="D389" s="1">
-        <v>-1.1635366310845201</v>
+        <v>-1.1606382925422101</v>
       </c>
       <c r="E389" s="1">
         <v>-1.1666726076509799</v>
@@ -7023,7 +7024,7 @@
         <v>-0.230563525517956</v>
       </c>
       <c r="D390" s="1">
-        <v>-0.22255213618479699</v>
+        <v>-0.22649447431765901</v>
       </c>
       <c r="E390" s="1">
         <v>-0.214955451711415</v>
@@ -7040,7 +7041,7 @@
         <v>-6.9100540548466802E-2</v>
       </c>
       <c r="D391" s="1">
-        <v>-8.6621231046636799E-2</v>
+        <v>-7.39613449981084E-2</v>
       </c>
       <c r="E391" s="1">
         <v>-7.98877320689583E-2</v>
@@ -7057,7 +7058,7 @@
         <v>1.06246053073159</v>
       </c>
       <c r="D392" s="1">
-        <v>1.04632775250929</v>
+        <v>1.0601331339875499</v>
       </c>
       <c r="E392" s="1">
         <v>1.02317996509605</v>
@@ -7074,7 +7075,7 @@
         <v>-0.105643144967728</v>
       </c>
       <c r="D393" s="1">
-        <v>-0.110637760864517</v>
+        <v>-0.107741103116125</v>
       </c>
       <c r="E393" s="1">
         <v>-0.102676039884359</v>
@@ -7091,7 +7092,7 @@
         <v>-0.999485928180182</v>
       </c>
       <c r="D394" s="1">
-        <v>-1.0255739869768801</v>
+        <v>-1.0188478470743101</v>
       </c>
       <c r="E394" s="1">
         <v>-1.03736150680826</v>
@@ -7108,7 +7109,7 @@
         <v>0.70381294434921504</v>
       </c>
       <c r="D395" s="1">
-        <v>0.72349749367020999</v>
+        <v>0.71997240718505995</v>
       </c>
       <c r="E395" s="1">
         <v>0.74109160311478395</v>
@@ -7125,7 +7126,7 @@
         <v>-0.98113876087478602</v>
       </c>
       <c r="D396" s="1">
-        <v>-0.97511569411701804</v>
+        <v>-0.98083858053012296</v>
       </c>
       <c r="E396" s="1">
         <v>-0.96326933295593598</v>
@@ -7142,7 +7143,7 @@
         <v>0.91392848915981195</v>
       </c>
       <c r="D397" s="1">
-        <v>0.93370494606236898</v>
+        <v>0.91932660543897005</v>
       </c>
       <c r="E397" s="1">
         <v>0.94939407829429101</v>
@@ -7159,7 +7160,7 @@
         <v>0.64106114984589901</v>
       </c>
       <c r="D398" s="1">
-        <v>0.64465993893277296</v>
+        <v>0.65598334844344197</v>
       </c>
       <c r="E398" s="1">
         <v>0.65958473633949799</v>
@@ -7176,7 +7177,7 @@
         <v>0.36096247480107002</v>
       </c>
       <c r="D399" s="1">
-        <v>0.38022373414872501</v>
+        <v>0.37024870019019601</v>
       </c>
       <c r="E399" s="1">
         <v>0.395555153602415</v>
@@ -7193,7 +7194,7 @@
         <v>2.8745587216066999E-3</v>
       </c>
       <c r="D400" s="1">
-        <v>-2.5251755937951301E-2</v>
+        <v>-4.8912322702109696E-3</v>
       </c>
       <c r="E400" s="1">
         <v>-3.6324767911811197E-2</v>
@@ -7210,7 +7211,7 @@
         <v>3.7062833832967497E-2</v>
       </c>
       <c r="D401" s="1">
-        <v>4.2064508788502597E-2</v>
+        <v>3.5576982566241498E-2</v>
       </c>
       <c r="E401" s="1">
         <v>3.9691380652677702E-2</v>
@@ -7227,7 +7228,7 @@
         <v>0.12216996467926799</v>
       </c>
       <c r="D402" s="1">
-        <v>0.125111904663982</v>
+        <v>0.128029859734653</v>
       </c>
       <c r="E402" s="1">
         <v>0.14354735925511899</v>
@@ -7244,7 +7245,7 @@
         <v>-1.6725552498896501</v>
       </c>
       <c r="D403" s="1">
-        <v>-1.6920286559062401</v>
+        <v>-1.6918040525751501</v>
       </c>
       <c r="E403" s="1">
         <v>-1.6957696484409901</v>
@@ -7261,7 +7262,7 @@
         <v>0.32483162744069199</v>
       </c>
       <c r="D404" s="1">
-        <v>0.33716976891636902</v>
+        <v>0.339305699793785</v>
       </c>
       <c r="E404" s="1">
         <v>0.33447998767147302</v>
@@ -7278,7 +7279,7 @@
         <v>0.47899683422174999</v>
       </c>
       <c r="D405" s="1">
-        <v>0.50750601010184204</v>
+        <v>0.49494782505565799</v>
       </c>
       <c r="E405" s="1">
         <v>0.51536484309432795</v>
@@ -7295,7 +7296,7 @@
         <v>0.29604310926647498</v>
       </c>
       <c r="D406" s="1">
-        <v>0.28751756477134899</v>
+        <v>0.29037001877733098</v>
       </c>
       <c r="E406" s="1">
         <v>0.29195895171326502</v>
@@ -7312,7 +7313,7 @@
         <v>1.56487788142554</v>
       </c>
       <c r="D407" s="1">
-        <v>1.62905902338331</v>
+        <v>1.5908881337759</v>
       </c>
       <c r="E407" s="1">
         <v>1.65469294771905</v>
@@ -7329,7 +7330,7 @@
         <v>0.11403506995309599</v>
       </c>
       <c r="D408" s="1">
-        <v>5.4135816632256799E-2</v>
+        <v>8.8323934215742195E-2</v>
       </c>
       <c r="E408" s="1">
         <v>3.24914723632828E-2</v>
@@ -7346,7 +7347,7 @@
         <v>-0.76180914247278797</v>
       </c>
       <c r="D409" s="1">
-        <v>-0.77849633057411805</v>
+        <v>-0.76044597502354905</v>
       </c>
       <c r="E409" s="1">
         <v>-0.81766365682601405</v>
@@ -7363,7 +7364,7 @@
         <v>0.96915750955346003</v>
       </c>
       <c r="D410" s="1">
-        <v>0.98346486609864503</v>
+        <v>0.97177566232394397</v>
       </c>
       <c r="E410" s="1">
         <v>0.99492426012818402</v>
@@ -7380,7 +7381,7 @@
         <v>1.0179280281924401</v>
       </c>
       <c r="D411" s="1">
-        <v>1.05040655333441</v>
+        <v>1.02881136931451</v>
       </c>
       <c r="E411" s="1">
         <v>1.0991206902428401</v>
@@ -7397,7 +7398,7 @@
         <v>0.25028412072363598</v>
       </c>
       <c r="D412" s="1">
-        <v>0.25755454320229598</v>
+        <v>0.25997306615071702</v>
       </c>
       <c r="E412" s="1">
         <v>0.26723920306059001</v>
@@ -7414,7 +7415,7 @@
         <v>0.228041269508959</v>
       </c>
       <c r="D413" s="1">
-        <v>0.25569725337434701</v>
+        <v>0.23829583991336301</v>
       </c>
       <c r="E413" s="1">
         <v>0.27455971471782298</v>
@@ -7431,7 +7432,7 @@
         <v>-0.46449577468108599</v>
       </c>
       <c r="D414" s="1">
-        <v>-0.469448068314404</v>
+        <v>-0.46756331167536602</v>
       </c>
       <c r="E414" s="1">
         <v>-0.46972134954956202</v>
@@ -7448,7 +7449,7 @@
         <v>0.341806896337634</v>
       </c>
       <c r="D415" s="1">
-        <v>0.343786221125363</v>
+        <v>0.35116607297526697</v>
       </c>
       <c r="E415" s="1">
         <v>0.36780647406613698</v>
@@ -7465,7 +7466,7 @@
         <v>0.34201988170528602</v>
       </c>
       <c r="D416" s="1">
-        <v>0.32928217040631103</v>
+        <v>0.33848329038374497</v>
       </c>
       <c r="E416" s="1">
         <v>0.31678189918114202</v>
@@ -7482,7 +7483,7 @@
         <v>0.73297696191254103</v>
       </c>
       <c r="D417" s="1">
-        <v>0.78009141855991704</v>
+        <v>0.756638203495407</v>
       </c>
       <c r="E417" s="1">
         <v>0.82293772184240399</v>
@@ -7499,7 +7500,7 @@
         <v>-0.22376221963675699</v>
       </c>
       <c r="D418" s="1">
-        <v>-0.23901515010646299</v>
+        <v>-0.22770589197313301</v>
       </c>
       <c r="E418" s="1">
         <v>-0.23465121947979001</v>
@@ -7516,7 +7517,7 @@
         <v>0.50367831608406599</v>
       </c>
       <c r="D419" s="1">
-        <v>0.50280910309091698</v>
+        <v>0.50069739559449</v>
       </c>
       <c r="E419" s="1">
         <v>0.50151415066523397</v>
@@ -7533,7 +7534,7 @@
         <v>-0.157269368405272</v>
       </c>
       <c r="D420" s="1">
-        <v>-0.151897087354221</v>
+        <v>-0.14989954270331901</v>
       </c>
       <c r="E420" s="1">
         <v>-0.14896177759428</v>
@@ -7550,7 +7551,7 @@
         <v>0.31291951393415901</v>
       </c>
       <c r="D421" s="1">
-        <v>0.32203342078771402</v>
+        <v>0.31142190381489199</v>
       </c>
       <c r="E421" s="1">
         <v>0.30416789884961298</v>
@@ -7567,7 +7568,7 @@
         <v>-0.11790375562852599</v>
       </c>
       <c r="D422" s="1">
-        <v>-0.12774414199457901</v>
+        <v>-0.128827131357794</v>
       </c>
       <c r="E422" s="1">
         <v>-0.12872842987656299</v>
@@ -7584,7 +7585,7 @@
         <v>4.1738335736899498E-3</v>
       </c>
       <c r="D423" s="1">
-        <v>1.4553894401929101E-2</v>
+        <v>6.2456051213284E-3</v>
       </c>
       <c r="E423" s="1">
         <v>2.3845810310918401E-2</v>
@@ -7601,7 +7602,7 @@
         <v>-0.399452819164755</v>
       </c>
       <c r="D424" s="1">
-        <v>-0.41753071666798403</v>
+        <v>-0.41317393404032898</v>
       </c>
       <c r="E424" s="1">
         <v>-0.42401041197129602</v>
@@ -7618,7 +7619,7 @@
         <v>7.2492564133496903E-3</v>
       </c>
       <c r="D425" s="1">
-        <v>2.6043018102727002E-2</v>
+        <v>1.51165117413339E-2</v>
       </c>
       <c r="E425" s="1">
         <v>3.2628089867189798E-2</v>
@@ -7635,7 +7636,7 @@
         <v>-0.32089849569873702</v>
       </c>
       <c r="D426" s="1">
-        <v>-0.28733061152709199</v>
+        <v>-0.30221808108089199</v>
       </c>
       <c r="E426" s="1">
         <v>-0.25187770160900802</v>
@@ -7652,7 +7653,7 @@
         <v>1.37550052780655</v>
       </c>
       <c r="D427" s="1">
-        <v>1.4116165530104601</v>
+        <v>1.39566880088308</v>
       </c>
       <c r="E427" s="1">
         <v>1.44005910343185</v>
@@ -7669,7 +7670,7 @@
         <v>-0.21814905611704499</v>
       </c>
       <c r="D428" s="1">
-        <v>-0.24538747136266001</v>
+        <v>-0.23067300069951199</v>
       </c>
       <c r="E428" s="1">
         <v>-0.27010040034535299</v>
@@ -7686,7 +7687,7 @@
         <v>-0.70186213941901698</v>
       </c>
       <c r="D429" s="1">
-        <v>-0.72700374732666595</v>
+        <v>-0.71545500245618499</v>
       </c>
       <c r="E429" s="1">
         <v>-0.744940634128337</v>
@@ -7703,7 +7704,7 @@
         <v>0.20601638395271499</v>
       </c>
       <c r="D430" s="1">
-        <v>0.21625444546466199</v>
+        <v>0.21221262476609901</v>
       </c>
       <c r="E430" s="1">
         <v>0.23925509157925701</v>
@@ -7720,7 +7721,7 @@
         <v>0.37234980189398798</v>
       </c>
       <c r="D431" s="1">
-        <v>0.37458555956298401</v>
+        <v>0.38180582627909199</v>
       </c>
       <c r="E431" s="1">
         <v>0.380291759228925</v>
@@ -7737,7 +7738,7 @@
         <v>0.80132016644266701</v>
       </c>
       <c r="D432" s="1">
-        <v>0.84254555228838701</v>
+        <v>0.81877402088351903</v>
       </c>
       <c r="E432" s="1">
         <v>0.87871550765468198</v>
@@ -7754,7 +7755,7 @@
         <v>-1.22675828785987</v>
       </c>
       <c r="D433" s="1">
-        <v>-1.2686446724379301</v>
+        <v>-1.24766515588059</v>
       </c>
       <c r="E433" s="1">
         <v>-1.27808928516181</v>
@@ -7771,7 +7772,7 @@
         <v>1.67469125566971</v>
       </c>
       <c r="D434" s="1">
-        <v>1.6893820017966701</v>
+        <v>1.6787741276799499</v>
       </c>
       <c r="E434" s="1">
         <v>1.7330495964341901</v>
@@ -7788,7 +7789,7 @@
         <v>0.41461176832788799</v>
       </c>
       <c r="D435" s="1">
-        <v>0.42400326597978399</v>
+        <v>0.41335834770624302</v>
       </c>
       <c r="E435" s="1">
         <v>0.42059408306845097</v>
@@ -7805,7 +7806,7 @@
         <v>0.46667386197572702</v>
       </c>
       <c r="D436" s="1">
-        <v>0.47593055256811601</v>
+        <v>0.47004100093672901</v>
       </c>
       <c r="E436" s="1">
         <v>0.488655186075176</v>
@@ -7822,7 +7823,7 @@
         <v>0.18369471311406399</v>
       </c>
       <c r="D437" s="1">
-        <v>0.17461325395996799</v>
+        <v>0.182749346150794</v>
       </c>
       <c r="E437" s="1">
         <v>0.16704994232537501</v>
@@ -7839,7 +7840,7 @@
         <v>-6.3280526538679202E-2</v>
       </c>
       <c r="D438" s="1">
-        <v>-7.1845910158202006E-2</v>
+        <v>-5.6482567894637403E-2</v>
       </c>
       <c r="E438" s="1">
         <v>-7.7305945631765793E-2</v>
@@ -7856,7 +7857,7 @@
         <v>3.4306351121620999E-3</v>
       </c>
       <c r="D439" s="1">
-        <v>-3.3342098044728798E-2</v>
+        <v>-1.37853249255247E-2</v>
       </c>
       <c r="E439" s="1">
         <v>-6.0479633495655001E-2</v>
@@ -7873,7 +7874,7 @@
         <v>0.80435195801932202</v>
       </c>
       <c r="D440" s="1">
-        <v>0.83554109191943404</v>
+        <v>0.81367905357011305</v>
       </c>
       <c r="E440" s="1">
         <v>0.85950773653234502</v>
@@ -7890,7 +7891,7 @@
         <v>-0.29000773190957102</v>
       </c>
       <c r="D441" s="1">
-        <v>-0.28275999015438802</v>
+        <v>-0.28966267732276002</v>
       </c>
       <c r="E441" s="1">
         <v>-0.28756408001189798</v>
@@ -7907,7 +7908,7 @@
         <v>0.71475130524669295</v>
       </c>
       <c r="D442" s="1">
-        <v>0.71211477468480999</v>
+        <v>0.70931500383181301</v>
       </c>
       <c r="E442" s="1">
         <v>0.71888445182862504</v>
@@ -7924,7 +7925,7 @@
         <v>-0.186273488812782</v>
       </c>
       <c r="D443" s="1">
-        <v>-0.183670640126259</v>
+        <v>-0.19120915066913599</v>
       </c>
       <c r="E443" s="1">
         <v>-0.184936002987659</v>
@@ -7941,7 +7942,7 @@
         <v>0.15744939037646999</v>
       </c>
       <c r="D444" s="1">
-        <v>0.163496327648745</v>
+        <v>0.16084380902415399</v>
       </c>
       <c r="E444" s="1">
         <v>0.17276896332112701</v>
@@ -7958,7 +7959,7 @@
         <v>0.21852736737612999</v>
       </c>
       <c r="D445" s="1">
-        <v>0.24743025990484299</v>
+        <v>0.235028114836657</v>
       </c>
       <c r="E445" s="1">
         <v>0.27352065335030401</v>
@@ -7975,7 +7976,7 @@
         <v>0.40440706584948</v>
       </c>
       <c r="D446" s="1">
-        <v>0.39866092182730101</v>
+        <v>0.39695720551319102</v>
       </c>
       <c r="E446" s="1">
         <v>0.39043640379153899</v>
@@ -7992,7 +7993,7 @@
         <v>-0.181835184851105</v>
       </c>
       <c r="D447" s="1">
-        <v>-0.173965101213399</v>
+        <v>-0.179067039636884</v>
       </c>
       <c r="E447" s="1">
         <v>-0.168342434361963</v>
@@ -8009,7 +8010,7 @@
         <v>0.39721576720422103</v>
       </c>
       <c r="D448" s="1">
-        <v>0.41105234265335899</v>
+        <v>0.40028047954551599</v>
       </c>
       <c r="E448" s="1">
         <v>0.41876678860508998</v>
@@ -8026,7 +8027,7 @@
         <v>1.4736384524881101</v>
       </c>
       <c r="D449" s="1">
-        <v>1.5053036467384799</v>
+        <v>1.4903264488166901</v>
       </c>
       <c r="E449" s="1">
         <v>1.5377254740164199</v>
@@ -8043,7 +8044,7 @@
         <v>0.82249570628823399</v>
       </c>
       <c r="D450" s="1">
-        <v>0.84065046773618801</v>
+        <v>0.83912196649792503</v>
       </c>
       <c r="E450" s="1">
         <v>0.84761246396072099</v>
@@ -8060,7 +8061,7 @@
         <v>7.8091533099346105E-2</v>
       </c>
       <c r="D451" s="1">
-        <v>0.10002284570028599</v>
+        <v>8.4595232660242201E-2</v>
       </c>
       <c r="E451" s="1">
         <v>0.115583215087406</v>
@@ -8077,7 +8078,7 @@
         <v>-0.40115967198959201</v>
       </c>
       <c r="D452" s="1">
-        <v>-0.38014170867781699</v>
+        <v>-0.396232065800108</v>
       </c>
       <c r="E452" s="1">
         <v>-0.37909228696861202</v>
@@ -8094,7 +8095,7 @@
         <v>-0.26285188383373098</v>
       </c>
       <c r="D453" s="1">
-        <v>-0.29131804597781202</v>
+        <v>-0.27086894574902298</v>
       </c>
       <c r="E453" s="1">
         <v>-0.3006546424064</v>
@@ -8111,7 +8112,7 @@
         <v>-1.28907145840065</v>
       </c>
       <c r="D454" s="1">
-        <v>-1.2707910394415001</v>
+        <v>-1.2873563684570299</v>
       </c>
       <c r="E454" s="1">
         <v>-1.2601853055780901</v>
@@ -8128,7 +8129,7 @@
         <v>0.81828792605311595</v>
       </c>
       <c r="D455" s="1">
-        <v>0.83099136361244197</v>
+        <v>0.82833805438028596</v>
       </c>
       <c r="E455" s="1">
         <v>0.84836566129775703</v>
@@ -8145,7 +8146,7 @@
         <v>-0.50434521660976395</v>
       </c>
       <c r="D456" s="1">
-        <v>-0.52422569058324697</v>
+        <v>-0.50579251982670803</v>
       </c>
       <c r="E456" s="1">
         <v>-0.53465540411416501</v>
@@ -8162,7 +8163,7 @@
         <v>-0.15982796585336501</v>
       </c>
       <c r="D457" s="1">
-        <v>-0.14472484190075099</v>
+        <v>-0.155992308713709</v>
       </c>
       <c r="E457" s="1">
         <v>-0.122078482182137</v>
@@ -8179,7 +8180,7 @@
         <v>0.68429826209672195</v>
       </c>
       <c r="D458" s="1">
-        <v>0.68739404431139595</v>
+        <v>0.68521962444334805</v>
       </c>
       <c r="E458" s="1">
         <v>0.70354884965161402</v>
@@ -8196,7 +8197,7 @@
         <v>0.68500006501103305</v>
       </c>
       <c r="D459" s="1">
-        <v>0.69656522287368405</v>
+        <v>0.69064332086125402</v>
       </c>
       <c r="E459" s="1">
         <v>0.70594164049181896</v>
@@ -8213,7 +8214,7 @@
         <v>0.52902840762274295</v>
       </c>
       <c r="D460" s="1">
-        <v>0.54327835393492097</v>
+        <v>0.53448713582121199</v>
       </c>
       <c r="E460" s="1">
         <v>0.55783190742530997</v>
@@ -8230,7 +8231,7 @@
         <v>-0.227166376390529</v>
       </c>
       <c r="D461" s="1">
-        <v>-0.21007973781722</v>
+        <v>-0.22524214607398299</v>
       </c>
       <c r="E461" s="1">
         <v>-0.21642388220256001</v>
@@ -8247,7 +8248,7 @@
         <v>-0.67120563371641195</v>
       </c>
       <c r="D462" s="1">
-        <v>-0.70640152436326298</v>
+        <v>-0.694441619667305</v>
       </c>
       <c r="E462" s="1">
         <v>-0.72027615652479005</v>
@@ -8264,7 +8265,7 @@
         <v>6.2520513082321497E-2</v>
       </c>
       <c r="D463" s="1">
-        <v>6.9904417429799998E-2</v>
+        <v>5.9126191368008299E-2</v>
       </c>
       <c r="E463" s="1">
         <v>7.1747082286247904E-2</v>
@@ -8281,7 +8282,7 @@
         <v>-7.8583775042744802E-2</v>
       </c>
       <c r="D464" s="1">
-        <v>-0.109607578833258</v>
+        <v>-8.98352638839824E-2</v>
       </c>
       <c r="E464" s="1">
         <v>-0.116120143222002</v>
@@ -8298,7 +8299,7 @@
         <v>0.12069447340401</v>
       </c>
       <c r="D465" s="1">
-        <v>9.3706837825630898E-2</v>
+        <v>0.116303605115456</v>
       </c>
       <c r="E465" s="1">
         <v>8.9935389023966E-2</v>
@@ -8315,7 +8316,7 @@
         <v>0.62918535948559196</v>
       </c>
       <c r="D466" s="1">
-        <v>0.64963239941739004</v>
+        <v>0.639297800744837</v>
       </c>
       <c r="E466" s="1">
         <v>0.65675888606191202</v>
@@ -8332,7 +8333,7 @@
         <v>-0.28700711463787698</v>
       </c>
       <c r="D467" s="1">
-        <v>-0.28166107497576498</v>
+        <v>-0.29044519053338402</v>
       </c>
       <c r="E467" s="1">
         <v>-0.29156415967204902</v>
@@ -8349,7 +8350,7 @@
         <v>-1.13500455785768</v>
       </c>
       <c r="D468" s="1">
-        <v>-1.1473201636661501</v>
+        <v>-1.14310015542659</v>
       </c>
       <c r="E468" s="1">
         <v>-1.1594338713804699</v>
@@ -8366,7 +8367,7 @@
         <v>0.170176873946319</v>
       </c>
       <c r="D469" s="1">
-        <v>0.19312085395002801</v>
+        <v>0.178369552208479</v>
       </c>
       <c r="E469" s="1">
         <v>0.211976906641579</v>
@@ -8383,7 +8384,7 @@
         <v>0.229970202491321</v>
       </c>
       <c r="D470" s="1">
-        <v>0.23279588611017701</v>
+        <v>0.232417797087765</v>
       </c>
       <c r="E470" s="1">
         <v>0.23191557889410699</v>
@@ -8400,7 +8401,7 @@
         <v>-0.196711906291997</v>
       </c>
       <c r="D471" s="1">
-        <v>-0.20081461660849101</v>
+        <v>-0.19934031842251801</v>
       </c>
       <c r="E471" s="1">
         <v>-0.20378368577056399</v>
@@ -8417,7 +8418,7 @@
         <v>0.74354146416046896</v>
       </c>
       <c r="D472" s="1">
-        <v>0.76176620260495198</v>
+        <v>0.75148804385117896</v>
       </c>
       <c r="E472" s="1">
         <v>0.78556506165378304</v>
@@ -8434,7 +8435,7 @@
         <v>0.132357011236516</v>
       </c>
       <c r="D473" s="1">
-        <v>0.134855828871246</v>
+        <v>0.12939420544551899</v>
       </c>
       <c r="E473" s="1">
         <v>0.14097306209372401</v>
@@ -8451,7 +8452,7 @@
         <v>0.46614754176552903</v>
       </c>
       <c r="D474" s="1">
-        <v>0.486914370170346</v>
+        <v>0.48152927563028403</v>
       </c>
       <c r="E474" s="1">
         <v>0.50067785230071904</v>
@@ -8468,7 +8469,7 @@
         <v>-0.31906473400982899</v>
       </c>
       <c r="D475" s="1">
-        <v>-0.33204778560723303</v>
+        <v>-0.32875920125084701</v>
       </c>
       <c r="E475" s="1">
         <v>-0.34660044480183599</v>
@@ -8485,7 +8486,7 @@
         <v>0.670952853908932</v>
       </c>
       <c r="D476" s="1">
-        <v>0.691360502136391</v>
+        <v>0.683338432070701</v>
       </c>
       <c r="E476" s="1">
         <v>0.70746298625723902</v>
@@ -8502,7 +8503,7 @@
         <v>1.2737228635373199</v>
       </c>
       <c r="D477" s="1">
-        <v>1.33081385632009</v>
+        <v>1.29404362350522</v>
       </c>
       <c r="E477" s="1">
         <v>1.38402303866401</v>
@@ -8519,7 +8520,7 @@
         <v>0.85686463964758197</v>
       </c>
       <c r="D478" s="1">
-        <v>0.89699460662556596</v>
+        <v>0.87197286434732602</v>
       </c>
       <c r="E478" s="1">
         <v>0.932010830626403</v>
@@ -8536,7 +8537,7 @@
         <v>4.3880525943017397E-2</v>
       </c>
       <c r="D479" s="1">
-        <v>1.36512469354112E-2</v>
+        <v>2.9067942796466299E-2</v>
       </c>
       <c r="E479" s="1">
         <v>-5.6040146382256503E-3</v>
@@ -8553,7 +8554,7 @@
         <v>1.3922144987056799</v>
       </c>
       <c r="D480" s="1">
-        <v>1.4168525639568199</v>
+        <v>1.4052457585115701</v>
       </c>
       <c r="E480" s="1">
         <v>1.454405010046</v>
@@ -8570,7 +8571,7 @@
         <v>0.207350765664782</v>
       </c>
       <c r="D481" s="1">
-        <v>0.21295941549846301</v>
+        <v>0.21049231678748301</v>
       </c>
       <c r="E481" s="1">
         <v>0.202487656934427</v>
@@ -8587,7 +8588,7 @@
         <v>-0.72185828964534304</v>
       </c>
       <c r="D482" s="1">
-        <v>-0.74916226483970405</v>
+        <v>-0.73528009446865905</v>
       </c>
       <c r="E482" s="1">
         <v>-0.76306631978169404</v>
@@ -8604,7 +8605,7 @@
         <v>-0.53053528949863005</v>
       </c>
       <c r="D483" s="1">
-        <v>-0.53584821469184096</v>
+        <v>-0.52739635024289899</v>
       </c>
       <c r="E483" s="1">
         <v>-0.54366723626262803</v>
@@ -8621,7 +8622,7 @@
         <v>0.58865620840467803</v>
       </c>
       <c r="D484" s="1">
-        <v>0.61079994279850403</v>
+        <v>0.60209843766709903</v>
       </c>
       <c r="E484" s="1">
         <v>0.62590467798333105</v>
@@ -8638,7 +8639,7 @@
         <v>-0.43164177261338299</v>
       </c>
       <c r="D485" s="1">
-        <v>-0.44210898020024803</v>
+        <v>-0.43934203697908297</v>
       </c>
       <c r="E485" s="1">
         <v>-0.45321910312471397</v>
@@ -8655,7 +8656,7 @@
         <v>0.249790552241998</v>
       </c>
       <c r="D486" s="1">
-        <v>0.243568556370028</v>
+        <v>0.25006397683075698</v>
       </c>
       <c r="E486" s="1">
         <v>0.23345639444459701</v>
@@ -8672,7 +8673,7 @@
         <v>-7.0386293603735203E-2</v>
       </c>
       <c r="D487" s="1">
-        <v>-8.1228458177448296E-2</v>
+        <v>-7.4972882185939602E-2</v>
       </c>
       <c r="E487" s="1">
         <v>-8.2285247160613501E-2</v>
@@ -8689,7 +8690,7 @@
         <v>0.78920293021403198</v>
       </c>
       <c r="D488" s="1">
-        <v>0.81573420523610196</v>
+        <v>0.79818700482538196</v>
       </c>
       <c r="E488" s="1">
         <v>0.83250836395222405</v>
@@ -8706,7 +8707,7 @@
         <v>-0.38479880959482798</v>
       </c>
       <c r="D489" s="1">
-        <v>-0.40820049074766301</v>
+        <v>-0.39744862055700703</v>
       </c>
       <c r="E489" s="1">
         <v>-0.42785342274556198</v>
@@ -8723,7 +8724,7 @@
         <v>-0.50681185533463502</v>
       </c>
       <c r="D490" s="1">
-        <v>-0.53439887936088903</v>
+        <v>-0.52318510409996399</v>
       </c>
       <c r="E490" s="1">
         <v>-0.56373900176039404</v>
@@ -8740,7 +8741,7 @@
         <v>0.89789252123831598</v>
       </c>
       <c r="D491" s="1">
-        <v>0.89776778421885395</v>
+        <v>0.90184284256497704</v>
       </c>
       <c r="E491" s="1">
         <v>0.90504137342208901</v>
@@ -8757,7 +8758,7 @@
         <v>0.119660659693426</v>
       </c>
       <c r="D492" s="1">
-        <v>0.14975688292578301</v>
+        <v>0.13084683611683201</v>
       </c>
       <c r="E492" s="1">
         <v>0.173927620210514</v>
@@ -8774,7 +8775,7 @@
         <v>-1.34347798741972</v>
       </c>
       <c r="D493" s="1">
-        <v>-1.35745820458452</v>
+        <v>-1.3463860634985501</v>
       </c>
       <c r="E493" s="1">
         <v>-1.3670909573335199</v>
@@ -8791,7 +8792,7 @@
         <v>-0.62280606531163696</v>
       </c>
       <c r="D494" s="1">
-        <v>-0.62516028988001704</v>
+        <v>-0.624773157635791</v>
       </c>
       <c r="E494" s="1">
         <v>-0.62502491575445196</v>
@@ -8808,7 +8809,7 @@
         <v>-0.51965726215467001</v>
       </c>
       <c r="D495" s="1">
-        <v>-0.50597593617867098</v>
+        <v>-0.51542645666513598</v>
       </c>
       <c r="E495" s="1">
         <v>-0.501200055480019</v>
@@ -8825,7 +8826,7 @@
         <v>1.3534903182340501</v>
       </c>
       <c r="D496" s="1">
-        <v>1.37343555594556</v>
+        <v>1.3636635827978201</v>
       </c>
       <c r="E496" s="1">
         <v>1.38781935961547</v>
@@ -8842,7 +8843,7 @@
         <v>0.45701064479704501</v>
       </c>
       <c r="D497" s="1">
-        <v>0.460500505320177</v>
+        <v>0.45832413878308298</v>
       </c>
       <c r="E497" s="1">
         <v>0.455986170884431</v>
@@ -8859,7 +8860,7 @@
         <v>0.74876569384370795</v>
       </c>
       <c r="D498" s="1">
-        <v>0.74029267028160195</v>
+        <v>0.74529584657893899</v>
       </c>
       <c r="E498" s="1">
         <v>0.71834394019221004</v>
@@ -8876,7 +8877,7 @@
         <v>0.56130076736779899</v>
       </c>
       <c r="D499" s="1">
-        <v>0.56524055299685005</v>
+        <v>0.56612118128431699</v>
       </c>
       <c r="E499" s="1">
         <v>0.57910950160676899</v>
@@ -8893,7 +8894,7 @@
         <v>-0.766952049744552</v>
       </c>
       <c r="D500" s="1">
-        <v>-0.79315959106717404</v>
+        <v>-0.777936647312096</v>
       </c>
       <c r="E500" s="1">
         <v>-0.80599825787993895</v>
@@ -8910,7 +8911,7 @@
         <v>-0.249253459481348</v>
       </c>
       <c r="D501" s="1">
-        <v>-0.28088018909606</v>
+        <v>-0.25530981073572501</v>
       </c>
       <c r="E501" s="1">
         <v>-0.29670190103937999</v>
@@ -8927,7 +8928,7 @@
         <v>0.207731464605832</v>
       </c>
       <c r="D502" s="1">
-        <v>0.21402209782607301</v>
+        <v>0.21455970619755399</v>
       </c>
       <c r="E502" s="1">
         <v>0.19899690974218501</v>
@@ -8944,7 +8945,7 @@
         <v>0.208403815023882</v>
       </c>
       <c r="D503" s="1">
-        <v>0.21411690191133501</v>
+        <v>0.21093726324652501</v>
       </c>
       <c r="E503" s="1">
         <v>0.21332263519969299</v>
@@ -8961,7 +8962,7 @@
         <v>-5.7791207248134198</v>
       </c>
       <c r="D504" s="1">
-        <v>-5.7527591451177704</v>
+        <v>-5.7565438022054796</v>
       </c>
       <c r="E504" s="1">
         <v>-5.7241451078766197</v>
@@ -8978,7 +8979,7 @@
         <v>0.65308701816655701</v>
       </c>
       <c r="D505" s="1">
-        <v>0.66185200094281105</v>
+        <v>0.66116827922219101</v>
       </c>
       <c r="E505" s="1">
         <v>0.67968384977208995</v>
@@ -8995,7 +8996,7 @@
         <v>-1.1363753143984101</v>
       </c>
       <c r="D506" s="1">
-        <v>-1.1001416113528</v>
+        <v>-1.11512134414782</v>
       </c>
       <c r="E506" s="1">
         <v>-1.0654244529266499</v>
@@ -9012,7 +9013,7 @@
         <v>1.8174050801442401</v>
       </c>
       <c r="D507" s="1">
-        <v>1.8265748308749301</v>
+        <v>1.8119868628579301</v>
       </c>
       <c r="E507" s="1">
         <v>1.84279221780923</v>
@@ -9029,7 +9030,7 @@
         <v>0.17107125505335399</v>
       </c>
       <c r="D508" s="1">
-        <v>0.18682001143556101</v>
+        <v>0.175345596739546</v>
       </c>
       <c r="E508" s="1">
         <v>0.17643057921059599</v>
@@ -9046,7 +9047,7 @@
         <v>1.54503789276496</v>
       </c>
       <c r="D509" s="1">
-        <v>1.54257671667575</v>
+        <v>1.5460136508573901</v>
       </c>
       <c r="E509" s="1">
         <v>1.5553308397354899</v>
@@ -9063,7 +9064,7 @@
         <v>-1.16638814017477</v>
       </c>
       <c r="D510" s="1">
-        <v>-1.1505422865852999</v>
+        <v>-1.1591593480781801</v>
       </c>
       <c r="E510" s="1">
         <v>-1.15747578837714</v>
@@ -9080,7 +9081,7 @@
         <v>-0.31357445131540201</v>
       </c>
       <c r="D511" s="1">
-        <v>-0.30848453431115502</v>
+        <v>-0.30223682470776903</v>
       </c>
       <c r="E511" s="1">
         <v>-0.29622287020011001</v>
@@ -9097,7 +9098,7 @@
         <v>0.77973355869063798</v>
       </c>
       <c r="D512" s="1">
-        <v>0.76454294935079403</v>
+        <v>0.76993818366963096</v>
       </c>
       <c r="E512" s="1">
         <v>0.76581056826891802</v>
@@ -9114,7 +9115,7 @@
         <v>0.96636696230054198</v>
       </c>
       <c r="D513" s="1">
-        <v>0.97115554344808597</v>
+        <v>0.96250115147255999</v>
       </c>
       <c r="E513" s="1">
         <v>0.97878758346292305</v>
@@ -9131,7 +9132,7 @@
         <v>0.16757861607298499</v>
       </c>
       <c r="D514" s="1">
-        <v>0.18001583941559501</v>
+        <v>0.173292653658392</v>
       </c>
       <c r="E514" s="1">
         <v>0.179563385343848</v>
@@ -9148,7 +9149,7 @@
         <v>0.18419145580916799</v>
       </c>
       <c r="D515" s="1">
-        <v>0.160269614908955</v>
+        <v>0.17306637046229401</v>
       </c>
       <c r="E515" s="1">
         <v>0.159828810718951</v>
@@ -9165,7 +9166,7 @@
         <v>-0.45634991069941699</v>
       </c>
       <c r="D516" s="1">
-        <v>-0.45698789221950797</v>
+        <v>-0.45566517577237498</v>
       </c>
       <c r="E516" s="1">
         <v>-0.467937065577745</v>
@@ -9182,7 +9183,7 @@
         <v>-1.03505075591738</v>
       </c>
       <c r="D517" s="1">
-        <v>-1.07524947227981</v>
+        <v>-1.04745815955681</v>
       </c>
       <c r="E517" s="1">
         <v>-1.1197616929680201</v>
@@ -9199,7 +9200,7 @@
         <v>0.96664394241254803</v>
       </c>
       <c r="D518" s="1">
-        <v>0.96447967179235605</v>
+        <v>0.96867276182432405</v>
       </c>
       <c r="E518" s="1">
         <v>0.965298671549361</v>
@@ -9216,7 +9217,7 @@
         <v>-0.31043722192364498</v>
       </c>
       <c r="D519" s="1">
-        <v>-0.31610397900926901</v>
+        <v>-0.31616749796920401</v>
       </c>
       <c r="E519" s="1">
         <v>-0.32392753847928202</v>
@@ -9233,7 +9234,7 @@
         <v>-0.34628570386589402</v>
       </c>
       <c r="D520" s="1">
-        <v>-0.33613578690931101</v>
+        <v>-0.34308171268836501</v>
       </c>
       <c r="E520" s="1">
         <v>-0.34224352773068101</v>
@@ -9250,7 +9251,7 @@
         <v>-1.3333597935427799</v>
       </c>
       <c r="D521" s="1">
-        <v>-1.3515538429502401</v>
+        <v>-1.3445451082153299</v>
       </c>
       <c r="E521" s="1">
         <v>-1.36008624612339</v>
@@ -9267,7 +9268,7 @@
         <v>7.8782195370899602E-2</v>
       </c>
       <c r="D522" s="1">
-        <v>7.8976739552527195E-2</v>
+        <v>8.0367264135846994E-2</v>
       </c>
       <c r="E522" s="1">
         <v>9.8592046558162602E-2</v>
@@ -9284,7 +9285,7 @@
         <v>-0.97193373765812396</v>
       </c>
       <c r="D523" s="1">
-        <v>-1.0071862474608699</v>
+        <v>-0.98276504207041204</v>
       </c>
       <c r="E523" s="1">
         <v>-1.0268794506982999</v>
@@ -9301,7 +9302,7 @@
         <v>-1.21148327778353</v>
       </c>
       <c r="D524" s="1">
-        <v>-1.17373411619593</v>
+        <v>-1.18862612520989</v>
       </c>
       <c r="E524" s="1">
         <v>-1.1522893405016099</v>
@@ -9318,7 +9319,7 @@
         <v>-1.1294936077523801</v>
       </c>
       <c r="D525" s="1">
-        <v>-1.1580753067743501</v>
+        <v>-1.1298020417761401</v>
       </c>
       <c r="E525" s="1">
         <v>-1.1933533681372199</v>
@@ -9335,7 +9336,7 @@
         <v>1.4401560431148199</v>
       </c>
       <c r="D526" s="1">
-        <v>1.45540198819497</v>
+        <v>1.4483809162593999</v>
       </c>
       <c r="E526" s="1">
         <v>1.47577880593547</v>
@@ -9352,7 +9353,7 @@
         <v>0.63408065502261701</v>
       </c>
       <c r="D527" s="1">
-        <v>0.67110779136267196</v>
+        <v>0.644047952942852</v>
       </c>
       <c r="E527" s="1">
         <v>0.6993742735056</v>
@@ -9369,7 +9370,7 @@
         <v>1.07750502314011</v>
       </c>
       <c r="D528" s="1">
-        <v>1.0809624599306999</v>
+        <v>1.08184003646422</v>
       </c>
       <c r="E528" s="1">
         <v>1.0797900957267901</v>
@@ -9386,7 +9387,7 @@
         <v>-1.7727678766922099</v>
       </c>
       <c r="D529" s="1">
-        <v>-1.81516463197852</v>
+        <v>-1.78658681928983</v>
       </c>
       <c r="E529" s="1">
         <v>-1.8515144373930701</v>
@@ -9403,7 +9404,7 @@
         <v>-3.0326096838733898</v>
       </c>
       <c r="D530" s="1">
-        <v>-3.0319004645352901</v>
+        <v>-3.0339653527354602</v>
       </c>
       <c r="E530" s="1">
         <v>-3.0347846275270198</v>
@@ -9420,7 +9421,7 @@
         <v>0.26206516909183802</v>
       </c>
       <c r="D531" s="1">
-        <v>0.28256915253619802</v>
+        <v>0.27294975068328797</v>
       </c>
       <c r="E531" s="1">
         <v>0.27909352643233998</v>
@@ -9437,7 +9438,7 @@
         <v>-1.02151112728544</v>
       </c>
       <c r="D532" s="1">
-        <v>-1.0164349909879</v>
+        <v>-1.02169182351819</v>
       </c>
       <c r="E532" s="1">
         <v>-1.01914553197858</v>
@@ -9454,7 +9455,7 @@
         <v>-4.2570749279223401</v>
       </c>
       <c r="D533" s="1">
-        <v>-4.2052909260409299</v>
+        <v>-4.2427283880978601</v>
       </c>
       <c r="E533" s="1">
         <v>-4.19325854023948</v>
@@ -9471,7 +9472,7 @@
         <v>-2.6427448878881501</v>
       </c>
       <c r="D534" s="1">
-        <v>-2.5351892342421101</v>
+        <v>-2.5943570847494302</v>
       </c>
       <c r="E534" s="1">
         <v>-2.4791820010379002</v>
@@ -9488,7 +9489,7 @@
         <v>-4.1182900612627797</v>
       </c>
       <c r="D535" s="1">
-        <v>-4.1341492407707996</v>
+        <v>-4.1325797807203903</v>
       </c>
       <c r="E535" s="1">
         <v>-4.1743167895239397</v>
@@ -9505,7 +9506,7 @@
         <v>-2.8069614870895001</v>
       </c>
       <c r="D536" s="1">
-        <v>-2.7566598618990299</v>
+        <v>-2.7910533668615498</v>
       </c>
       <c r="E536" s="1">
         <v>-2.75768856162269</v>
@@ -9522,7 +9523,7 @@
         <v>-2.3791206667223501</v>
       </c>
       <c r="D537" s="1">
-        <v>-2.3908435581590801</v>
+        <v>-2.3862510393892098</v>
       </c>
       <c r="E537" s="1">
         <v>-2.44064603586243</v>
@@ -9539,7 +9540,7 @@
         <v>-5.4328758514073803</v>
       </c>
       <c r="D538" s="1">
-        <v>-5.3535242445376401</v>
+        <v>-5.4002136481384602</v>
       </c>
       <c r="E538" s="1">
         <v>-5.3243273188096598</v>
@@ -9556,7 +9557,7 @@
         <v>6.4001620164854103</v>
       </c>
       <c r="D539" s="1">
-        <v>6.4405261310997002</v>
+        <v>6.4136648831186802</v>
       </c>
       <c r="E539" s="1">
         <v>6.4938257262120098</v>
@@ -9573,7 +9574,7 @@
         <v>-3.8346560231053299</v>
       </c>
       <c r="D540" s="1">
-        <v>-3.8732756120512102</v>
+        <v>-3.8509319040493599</v>
       </c>
       <c r="E540" s="1">
         <v>-3.9192300027747802</v>
@@ -9590,7 +9591,7 @@
         <v>4.5285976433797801</v>
       </c>
       <c r="D541" s="1">
-        <v>4.55287799629187</v>
+        <v>4.5555330953049804</v>
       </c>
       <c r="E541" s="1">
         <v>4.58010123902889</v>
@@ -9607,7 +9608,7 @@
         <v>3.88050022081097</v>
       </c>
       <c r="D542" s="1">
-        <v>3.8627811543536801</v>
+        <v>3.88374500999794</v>
       </c>
       <c r="E542" s="1">
         <v>3.8716171425661798</v>
@@ -9624,7 +9625,7 @@
         <v>0.93253659099861497</v>
       </c>
       <c r="D543" s="1">
-        <v>0.90770478845684799</v>
+        <v>0.93095516674307599</v>
       </c>
       <c r="E543" s="1">
         <v>0.91107245062448505</v>
@@ -9641,7 +9642,7 @@
         <v>-0.45703583620509303</v>
       </c>
       <c r="D544" s="1">
-        <v>-0.49081776317319997</v>
+        <v>-0.46235418419068203</v>
       </c>
       <c r="E544" s="1">
         <v>-0.518647699562785</v>
@@ -9658,7 +9659,7 @@
         <v>-0.78850035144166697</v>
       </c>
       <c r="D545" s="1">
-        <v>-0.82848806446757695</v>
+        <v>-0.79954328242821404</v>
       </c>
       <c r="E545" s="1">
         <v>-0.87268542075468103</v>
@@ -9675,7 +9676,7 @@
         <v>0.83667285192453</v>
       </c>
       <c r="D546" s="1">
-        <v>0.84459049149212695</v>
+        <v>0.84894297651424999</v>
       </c>
       <c r="E546" s="1">
         <v>0.82736760815367505</v>
@@ -9692,7 +9693,7 @@
         <v>-0.50166002060171999</v>
       </c>
       <c r="D547" s="1">
-        <v>-0.54742388546702003</v>
+        <v>-0.52730823742081701</v>
       </c>
       <c r="E547" s="1">
         <v>-0.58160803641841896</v>
@@ -9709,7 +9710,7 @@
         <v>1.63880743735653</v>
       </c>
       <c r="D548" s="1">
-        <v>1.66830695663996</v>
+        <v>1.6452969482971</v>
       </c>
       <c r="E548" s="1">
         <v>1.7063803900122401</v>
@@ -9726,7 +9727,7 @@
         <v>1.7967897353239799</v>
       </c>
       <c r="D549" s="1">
-        <v>1.7917829312717199</v>
+        <v>1.7931475622858299</v>
       </c>
       <c r="E549" s="1">
         <v>1.79775441443961</v>
@@ -9743,7 +9744,7 @@
         <v>1.37277506219231</v>
       </c>
       <c r="D550" s="1">
-        <v>1.33629371853823</v>
+        <v>1.35483516455232</v>
       </c>
       <c r="E550" s="1">
         <v>1.3061635165168199</v>
@@ -9760,7 +9761,7 @@
         <v>-0.18293223393701999</v>
       </c>
       <c r="D551" s="1">
-        <v>-0.18949227830804199</v>
+        <v>-0.18793134365174399</v>
       </c>
       <c r="E551" s="1">
         <v>-0.209300621682495</v>
@@ -9777,7 +9778,7 @@
         <v>0.30801657648562902</v>
       </c>
       <c r="D552" s="1">
-        <v>0.28602760006516897</v>
+        <v>0.30139288258452701</v>
       </c>
       <c r="E552" s="1">
         <v>0.265140267341614</v>
@@ -9794,7 +9795,7 @@
         <v>-0.59977325454965102</v>
       </c>
       <c r="D553" s="1">
-        <v>-0.61423915203762003</v>
+        <v>-0.60798332819203005</v>
       </c>
       <c r="E553" s="1">
         <v>-0.61284738942158401</v>
@@ -9811,7 +9812,7 @@
         <v>2.3267683850831502</v>
       </c>
       <c r="D554" s="1">
-        <v>2.3425309057135602</v>
+        <v>2.3321523533728299</v>
       </c>
       <c r="E554" s="1">
         <v>2.3533438125486401</v>
@@ -9828,7 +9829,7 @@
         <v>1.06674011492858</v>
       </c>
       <c r="D555" s="1">
-        <v>1.03897534504237</v>
+        <v>1.0528569990319001</v>
       </c>
       <c r="E555" s="1">
         <v>1.02195165206927</v>
@@ -9845,7 +9846,7 @@
         <v>-0.73545575827975496</v>
       </c>
       <c r="D556" s="1">
-        <v>-0.75621213019911204</v>
+        <v>-0.73985880334891496</v>
       </c>
       <c r="E556" s="1">
         <v>-0.76006182755400398</v>
@@ -9862,7 +9863,7 @@
         <v>2.2857353089052399</v>
       </c>
       <c r="D557" s="1">
-        <v>2.3848753194101802</v>
+        <v>2.3292566889180799</v>
       </c>
       <c r="E557" s="1">
         <v>2.45954689732761</v>
@@ -9879,7 +9880,7 @@
         <v>-0.15950110507377799</v>
       </c>
       <c r="D558" s="1">
-        <v>-0.18749804053487901</v>
+        <v>-0.177519706859533</v>
       </c>
       <c r="E558" s="1">
         <v>-0.20927578269285399</v>
@@ -9896,7 +9897,7 @@
         <v>-2.8258300250817801</v>
       </c>
       <c r="D559" s="1">
-        <v>-2.81556927148563</v>
+        <v>-2.8225680370328501</v>
       </c>
       <c r="E559" s="1">
         <v>-2.8115099286240501</v>
@@ -9913,7 +9914,7 @@
         <v>0.13436544965361599</v>
       </c>
       <c r="D560" s="1">
-        <v>0.118575036995093</v>
+        <v>0.12710017838191401</v>
       </c>
       <c r="E560" s="1">
         <v>0.10741910616299399</v>
@@ -9930,7 +9931,7 @@
         <v>0.56383539135642502</v>
       </c>
       <c r="D561" s="1">
-        <v>0.55757314600299202</v>
+        <v>0.55562604416594896</v>
       </c>
       <c r="E561" s="1">
         <v>0.54993199787837799</v>
@@ -9947,7 +9948,7 @@
         <v>-0.226792722730804</v>
       </c>
       <c r="D562" s="1">
-        <v>-0.23777228234289</v>
+        <v>-0.23059065964853101</v>
       </c>
       <c r="E562" s="1">
         <v>-0.24680280681651701</v>
@@ -9964,7 +9965,7 @@
         <v>2.1220301038487701</v>
       </c>
       <c r="D563" s="1">
-        <v>2.1230174320728801</v>
+        <v>2.1302466612481101</v>
       </c>
       <c r="E563" s="1">
         <v>2.1119964584675799</v>
@@ -9981,7 +9982,7 @@
         <v>0.450461670760402</v>
       </c>
       <c r="D564" s="1">
-        <v>0.41578649475330798</v>
+        <v>0.440561970552585</v>
       </c>
       <c r="E564" s="1">
         <v>0.397854324314104</v>
@@ -9998,7 +9999,7 @@
         <v>1.4709418271922901</v>
       </c>
       <c r="D565" s="1">
-        <v>1.47162873549714</v>
+        <v>1.4772883699114501</v>
       </c>
       <c r="E565" s="1">
         <v>1.4832275959290999</v>
@@ -10015,7 +10016,7 @@
         <v>2.0839630198402199</v>
       </c>
       <c r="D566" s="1">
-        <v>2.0975602379208498</v>
+        <v>2.0900249927557599</v>
       </c>
       <c r="E566" s="1">
         <v>2.1195148914525399</v>
@@ -10032,7 +10033,7 @@
         <v>-2.5405574586525801</v>
       </c>
       <c r="D567" s="1">
-        <v>-2.5773194938592199</v>
+        <v>-2.5597683657962902</v>
       </c>
       <c r="E567" s="1">
         <v>-2.6043227983679</v>
@@ -10049,7 +10050,7 @@
         <v>0.478776349666998</v>
       </c>
       <c r="D568" s="1">
-        <v>0.44759958155340801</v>
+        <v>0.470656749464052</v>
       </c>
       <c r="E568" s="1">
         <v>0.43045308909255797</v>
@@ -10066,7 +10067,7 @@
         <v>-9.2939258859140398E-3</v>
       </c>
       <c r="D569" s="1">
-        <v>5.7527263058875103E-3</v>
+        <v>1.15953958185627E-2</v>
       </c>
       <c r="E569" s="1">
         <v>-2.4540568124408798E-3</v>
@@ -10083,7 +10084,7 @@
         <v>0.57133210953892599</v>
       </c>
       <c r="D570" s="1">
-        <v>0.54092758558653598</v>
+        <v>0.56176181903384903</v>
       </c>
       <c r="E570" s="1">
         <v>0.53488192570762205</v>
@@ -10100,7 +10101,7 @@
         <v>0.60969374483833405</v>
       </c>
       <c r="D571" s="1">
-        <v>0.63268787331682697</v>
+        <v>0.62052086645234505</v>
       </c>
       <c r="E571" s="1">
         <v>0.66141042505468195</v>
@@ -10117,7 +10118,7 @@
         <v>1.0565601370515201</v>
       </c>
       <c r="D572" s="1">
-        <v>1.07191292178207</v>
+        <v>1.0670339814217999</v>
       </c>
       <c r="E572" s="1">
         <v>1.0800943559899301</v>
@@ -10134,7 +10135,7 @@
         <v>-1.2917562386526</v>
       </c>
       <c r="D573" s="1">
-        <v>-1.3144246118026399</v>
+        <v>-1.29927416066723</v>
       </c>
       <c r="E573" s="1">
         <v>-1.3353249875844799</v>
@@ -10151,7 +10152,7 @@
         <v>0.56020914323261595</v>
       </c>
       <c r="D574" s="1">
-        <v>0.58205702404325799</v>
+        <v>0.57324138041269701</v>
       </c>
       <c r="E574" s="1">
         <v>0.58876216148553495</v>
@@ -10168,7 +10169,7 @@
         <v>-1.3969778676153</v>
       </c>
       <c r="D575" s="1">
-        <v>-1.36785120524337</v>
+        <v>-1.36637613630384</v>
       </c>
       <c r="E575" s="1">
         <v>-1.3475642586275001</v>
@@ -10185,7 +10186,7 @@
         <v>0.37153647081850699</v>
       </c>
       <c r="D576" s="1">
-        <v>0.38421238415750703</v>
+        <v>0.38454813415646399</v>
       </c>
       <c r="E576" s="1">
         <v>0.38857218710538599</v>
@@ -10202,7 +10203,7 @@
         <v>-0.76113428071505296</v>
       </c>
       <c r="D577" s="1">
-        <v>-0.79983266504356099</v>
+        <v>-0.76451642775378204</v>
       </c>
       <c r="E577" s="1">
         <v>-0.84874566479330804</v>
@@ -10219,7 +10220,7 @@
         <v>1.1365684536138401</v>
       </c>
       <c r="D578" s="1">
-        <v>1.11788684421978</v>
+        <v>1.13366178422366</v>
       </c>
       <c r="E578" s="1">
         <v>1.12405219182906</v>
@@ -10236,7 +10237,7 @@
         <v>0.44744287607053601</v>
       </c>
       <c r="D579" s="1">
-        <v>0.43926093303019897</v>
+        <v>0.43873186927172703</v>
       </c>
       <c r="E579" s="1">
         <v>0.43817301244804102</v>
@@ -10253,7 +10254,7 @@
         <v>0.91915433168786498</v>
       </c>
       <c r="D580" s="1">
-        <v>0.90317028369399799</v>
+        <v>0.90766217110827596</v>
       </c>
       <c r="E580" s="1">
         <v>0.88436587076450002</v>
@@ -10270,7 +10271,7 @@
         <v>-1.8523274482523</v>
       </c>
       <c r="D581" s="1">
-        <v>-1.8583446820902101</v>
+        <v>-1.8415670299995299</v>
       </c>
       <c r="E581" s="1">
         <v>-1.8704454134410899</v>
@@ -10287,7 +10288,7 @@
         <v>0.52249438622170596</v>
       </c>
       <c r="D582" s="1">
-        <v>0.49877459920108003</v>
+        <v>0.50500606842596096</v>
       </c>
       <c r="E582" s="1">
         <v>0.48558882073103599</v>
@@ -10304,7 +10305,7 @@
         <v>1.19906352797855</v>
       </c>
       <c r="D583" s="1">
-        <v>1.21325394018715</v>
+        <v>1.20867702502013</v>
       </c>
       <c r="E583" s="1">
         <v>1.21342958642393</v>
@@ -10321,7 +10322,7 @@
         <v>0.16907131896213601</v>
       </c>
       <c r="D584" s="1">
-        <v>0.15569998936391799</v>
+        <v>0.151919799384407</v>
       </c>
       <c r="E584" s="1">
         <v>0.15112287030805399</v>
@@ -10338,7 +10339,7 @@
         <v>-0.64205932792235598</v>
       </c>
       <c r="D585" s="1">
-        <v>-0.65204878705415903</v>
+        <v>-0.65035017833527098</v>
       </c>
       <c r="E585" s="1">
         <v>-0.65318558228771295</v>
@@ -10355,7 +10356,7 @@
         <v>-5.9822722526265797E-2</v>
       </c>
       <c r="D586" s="1">
-        <v>-8.6735138945569196E-2</v>
+        <v>-8.1333776728485893E-2</v>
       </c>
       <c r="E586" s="1">
         <v>-9.2243579079910196E-2</v>
@@ -10372,7 +10373,7 @@
         <v>1.29755357513499</v>
       </c>
       <c r="D587" s="1">
-        <v>1.3049813177677001</v>
+        <v>1.3057133018659599</v>
       </c>
       <c r="E587" s="1">
         <v>1.29643650563752</v>
@@ -10389,7 +10390,7 @@
         <v>0.49038512252545402</v>
       </c>
       <c r="D588" s="1">
-        <v>0.50178660109551398</v>
+        <v>0.49974344374019197</v>
       </c>
       <c r="E588" s="1">
         <v>0.52001156056318298</v>
@@ -10406,7 +10407,7 @@
         <v>1.7580532147348</v>
       </c>
       <c r="D589" s="1">
-        <v>1.7756181950780601</v>
+        <v>1.7617574320081599</v>
       </c>
       <c r="E589" s="1">
         <v>1.7735663820065</v>
@@ -10423,7 +10424,7 @@
         <v>0.65070901009388205</v>
       </c>
       <c r="D590" s="1">
-        <v>0.66159691534719101</v>
+        <v>0.657163395880621</v>
       </c>
       <c r="E590" s="1">
         <v>0.65771029625708299</v>
@@ -10440,7 +10441,7 @@
         <v>0.75658814140772102</v>
       </c>
       <c r="D591" s="1">
-        <v>0.73597746901173899</v>
+        <v>0.74119393317388604</v>
       </c>
       <c r="E591" s="1">
         <v>0.71466878833740399</v>
@@ -10457,7 +10458,7 @@
         <v>1.20891134934066</v>
       </c>
       <c r="D592" s="1">
-        <v>1.23634408731864</v>
+        <v>1.2218637398663801</v>
       </c>
       <c r="E592" s="1">
         <v>1.2716723998503701</v>
@@ -10474,7 +10475,7 @@
         <v>0.22674350136555599</v>
       </c>
       <c r="D593" s="1">
-        <v>0.23530796683640401</v>
+        <v>0.22504647866608199</v>
       </c>
       <c r="E593" s="1">
         <v>0.22800925953653001</v>
@@ -10491,7 +10492,7 @@
         <v>0.76199597818535902</v>
       </c>
       <c r="D594" s="1">
-        <v>0.79297144792641205</v>
+        <v>0.78033753993114296</v>
       </c>
       <c r="E594" s="1">
         <v>0.794608589154708</v>
@@ -10508,7 +10509,7 @@
         <v>-1.4804916735345399</v>
       </c>
       <c r="D595" s="1">
-        <v>-1.4515685254163999</v>
+        <v>-1.46057645631017</v>
       </c>
       <c r="E595" s="1">
         <v>-1.4301586047426</v>
@@ -10525,7 +10526,7 @@
         <v>-0.95241526497786699</v>
       </c>
       <c r="D596" s="1">
-        <v>-0.96464225665990599</v>
+        <v>-0.96452315307042602</v>
       </c>
       <c r="E596" s="1">
         <v>-0.98706422233268398</v>
@@ -10542,7 +10543,7 @@
         <v>-1.1675910948638299</v>
       </c>
       <c r="D597" s="1">
-        <v>-1.1793078095645599</v>
+        <v>-1.1736378049404901</v>
       </c>
       <c r="E597" s="1">
         <v>-1.2074962210144899</v>
@@ -10559,7 +10560,7 @@
         <v>1.8276849297567099</v>
       </c>
       <c r="D598" s="1">
-        <v>1.8113659455045801</v>
+        <v>1.8149256100328599</v>
       </c>
       <c r="E598" s="1">
         <v>1.8214910430059801</v>
@@ -10576,7 +10577,7 @@
         <v>0.230065093122369</v>
       </c>
       <c r="D599" s="1">
-        <v>0.224909155421745</v>
+        <v>0.224310618023217</v>
       </c>
       <c r="E599" s="1">
         <v>0.21068223801090899</v>
@@ -10593,7 +10594,7 @@
         <v>0.26990517101379302</v>
       </c>
       <c r="D600" s="1">
-        <v>0.233160712932688</v>
+        <v>0.252902100925741</v>
       </c>
       <c r="E600" s="1">
         <v>0.211003177495942</v>
@@ -10610,7 +10611,7 @@
         <v>2.47436445114123E-2</v>
       </c>
       <c r="D601" s="1">
-        <v>9.6064232509720498E-3</v>
+        <v>1.5121066183231301E-2</v>
       </c>
       <c r="E601" s="1">
         <v>1.37322374476814E-2</v>
@@ -10627,7 +10628,7 @@
         <v>0.20166246046188399</v>
       </c>
       <c r="D602" s="1">
-        <v>0.199228912625219</v>
+        <v>0.204978285827629</v>
       </c>
       <c r="E602" s="1">
         <v>0.19543272919667001</v>
@@ -10644,7 +10645,7 @@
         <v>0.45744031223692999</v>
       </c>
       <c r="D603" s="1">
-        <v>0.48830178878941199</v>
+        <v>0.47909180849014998</v>
       </c>
       <c r="E603" s="1">
         <v>0.50786628856688099</v>
@@ -10661,7 +10662,7 @@
         <v>0.51545995135733302</v>
       </c>
       <c r="D604" s="1">
-        <v>0.53152951717664398</v>
+        <v>0.51971099366214701</v>
       </c>
       <c r="E604" s="1">
         <v>0.55935353379744601</v>
@@ -10678,7 +10679,7 @@
         <v>-1.02594130621642</v>
       </c>
       <c r="D605" s="1">
-        <v>-1.0191458765508301</v>
+        <v>-1.0155725499860899</v>
       </c>
       <c r="E605" s="1">
         <v>-1.03385815420781</v>
@@ -10695,7 +10696,7 @@
         <v>0.71529470371141701</v>
       </c>
       <c r="D606" s="1">
-        <v>0.70426870209915404</v>
+        <v>0.71019743019968096</v>
       </c>
       <c r="E606" s="1">
         <v>0.71160791394098499</v>
@@ -10712,7 +10713,7 @@
         <v>0.94664884233836399</v>
       </c>
       <c r="D607" s="1">
-        <v>0.95520408351172503</v>
+        <v>0.96125023422848399</v>
       </c>
       <c r="E607" s="1">
         <v>0.92153694052886204</v>
@@ -10729,7 +10730,7 @@
         <v>1.1475142855775999</v>
       </c>
       <c r="D608" s="1">
-        <v>1.1534361166432701</v>
+        <v>1.1522136433927099</v>
       </c>
       <c r="E608" s="1">
         <v>1.1500357613918999</v>
@@ -10746,7 +10747,7 @@
         <v>0.92887887597941798</v>
       </c>
       <c r="D609" s="1">
-        <v>0.95347625927026303</v>
+        <v>0.93773357921643696</v>
       </c>
       <c r="E609" s="1">
         <v>0.977857271247346</v>
@@ -10763,7 +10764,7 @@
         <v>1.82619460151456</v>
       </c>
       <c r="D610" s="1">
-        <v>1.8377630788141599</v>
+        <v>1.82873784905439</v>
       </c>
       <c r="E610" s="1">
         <v>1.84364254671852</v>
@@ -10780,7 +10781,7 @@
         <v>-7.2485685537985706E-2</v>
       </c>
       <c r="D611" s="1">
-        <v>-5.5799357681810602E-2</v>
+        <v>-7.1880273523010102E-2</v>
       </c>
       <c r="E611" s="1">
         <v>-6.3376427605075003E-2</v>
@@ -10797,7 +10798,7 @@
         <v>0.65222546217723398</v>
       </c>
       <c r="D612" s="1">
-        <v>0.63683190141337498</v>
+        <v>0.63641201934183</v>
       </c>
       <c r="E612" s="1">
         <v>0.60965395850162096</v>
@@ -10814,7 +10815,7 @@
         <v>0.23122356485837001</v>
       </c>
       <c r="D613" s="1">
-        <v>0.23760044989731699</v>
+        <v>0.237886426334083</v>
       </c>
       <c r="E613" s="1">
         <v>0.234531651350878</v>
@@ -10831,7 +10832,7 @@
         <v>-0.94058344721598897</v>
       </c>
       <c r="D614" s="1">
-        <v>-0.92121014634555698</v>
+        <v>-0.93001489562093198</v>
       </c>
       <c r="E614" s="1">
         <v>-0.90825998006694697</v>
@@ -10848,7 +10849,7 @@
         <v>1.2800165709142299</v>
       </c>
       <c r="D615" s="1">
-        <v>1.26381286176331</v>
+        <v>1.2654309041218601</v>
       </c>
       <c r="E615" s="1">
         <v>1.25992451585765</v>
@@ -10865,7 +10866,7 @@
         <v>8.5959818492172296E-2</v>
       </c>
       <c r="D616" s="1">
-        <v>0.121332874268093</v>
+        <v>0.104574371599355</v>
       </c>
       <c r="E616" s="1">
         <v>0.182879416931575</v>
@@ -10882,7 +10883,7 @@
         <v>5.9526375780534602E-2</v>
       </c>
       <c r="D617" s="1">
-        <v>4.9714358642826001E-2</v>
+        <v>6.4766014016926707E-2</v>
       </c>
       <c r="E617" s="1">
         <v>1.3631735910312999E-2</v>
@@ -10899,7 +10900,7 @@
         <v>-0.348136061234396</v>
       </c>
       <c r="D618" s="1">
-        <v>-0.38602068235940401</v>
+        <v>-0.36448355237596902</v>
       </c>
       <c r="E618" s="1">
         <v>-0.37148014223681702</v>
@@ -10916,7 +10917,7 @@
         <v>0.41769915935679203</v>
       </c>
       <c r="D619" s="1">
-        <v>0.49887619090605001</v>
+        <v>0.45835590053762199</v>
       </c>
       <c r="E619" s="1">
         <v>0.57743057518190799</v>
@@ -10933,7 +10934,7 @@
         <v>-6.2928635396951704E-2</v>
       </c>
       <c r="D620" s="1">
-        <v>-7.0896862693916096E-2</v>
+        <v>-7.0799203836531099E-2</v>
       </c>
       <c r="E620" s="1">
         <v>-6.5439088530040296E-2</v>
@@ -10950,7 +10951,7 @@
         <v>1.89607808113168</v>
       </c>
       <c r="D621" s="1">
-        <v>1.9283369253659699</v>
+        <v>1.9048545495492599</v>
       </c>
       <c r="E621" s="1">
         <v>1.9353891358530999</v>
@@ -10967,7 +10968,7 @@
         <v>0.59699312574927998</v>
       </c>
       <c r="D622" s="1">
-        <v>0.59322302371078295</v>
+        <v>0.58940599797745197</v>
       </c>
       <c r="E622" s="1">
         <v>0.58960203819823398</v>
@@ -10984,7 +10985,7 @@
         <v>-0.255840892800338</v>
       </c>
       <c r="D623" s="1">
-        <v>-0.26630741368427802</v>
+        <v>-0.25432921552653598</v>
       </c>
       <c r="E623" s="1">
         <v>-0.27199958464915203</v>
@@ -11001,7 +11002,7 @@
         <v>-0.78320960976376197</v>
       </c>
       <c r="D624" s="1">
-        <v>-0.74404717913080798</v>
+        <v>-0.77382241758306103</v>
       </c>
       <c r="E624" s="1">
         <v>-0.71223470544725098</v>
@@ -11018,7 +11019,7 @@
         <v>2.5573387488966501</v>
       </c>
       <c r="D625" s="1">
-        <v>2.7085312606715801</v>
+        <v>2.6416557607005</v>
       </c>
       <c r="E625" s="1">
         <v>2.8536521590420501</v>
@@ -11035,7 +11036,7 @@
         <v>8.9643120848499902E-2</v>
       </c>
       <c r="D626" s="1">
-        <v>0.15580047502647601</v>
+        <v>0.12929578261196201</v>
       </c>
       <c r="E626" s="1">
         <v>0.187399611892902</v>
@@ -11052,7 +11053,7 @@
         <v>-0.467912770595312</v>
       </c>
       <c r="D627" s="1">
-        <v>-0.54762405166977701</v>
+        <v>-0.50167795872811005</v>
       </c>
       <c r="E627" s="1">
         <v>-0.58779093007619498</v>
@@ -11069,7 +11070,7 @@
         <v>1.4955573648218199</v>
       </c>
       <c r="D628" s="1">
-        <v>1.52645947141709</v>
+        <v>1.50875538886094</v>
       </c>
       <c r="E628" s="1">
         <v>1.5214170727177601</v>
@@ -11086,7 +11087,7 @@
         <v>-0.497849926701944</v>
       </c>
       <c r="D629" s="1">
-        <v>-0.52636986652995199</v>
+        <v>-0.51520966609542695</v>
       </c>
       <c r="E629" s="1">
         <v>-0.56940242477343395</v>
@@ -11103,7 +11104,7 @@
         <v>-1.2297763499775101</v>
       </c>
       <c r="D630" s="1">
-        <v>-1.2890102916644799</v>
+        <v>-1.25925718976503</v>
       </c>
       <c r="E630" s="1">
         <v>-1.3100879432899499</v>
@@ -11120,7 +11121,7 @@
         <v>1.6394410537237001</v>
       </c>
       <c r="D631" s="1">
-        <v>1.68112261847981</v>
+        <v>1.65836509570283</v>
       </c>
       <c r="E631" s="1">
         <v>1.65410289044265</v>
@@ -11137,7 +11138,7 @@
         <v>0.74648906704227402</v>
       </c>
       <c r="D632" s="1">
-        <v>0.73617640597454803</v>
+        <v>0.74081826657764305</v>
       </c>
       <c r="E632" s="1">
         <v>0.72905018213619799</v>
@@ -11154,7 +11155,7 @@
         <v>0.95222543801499604</v>
       </c>
       <c r="D633" s="1">
-        <v>0.96588943620339895</v>
+        <v>0.96491301668825502</v>
       </c>
       <c r="E633" s="1">
         <v>0.991754266246898</v>
@@ -11171,7 +11172,7 @@
         <v>-0.66082355448427699</v>
       </c>
       <c r="D634" s="1">
-        <v>-0.68341454504857402</v>
+        <v>-0.67488603087634802</v>
       </c>
       <c r="E634" s="1">
         <v>-0.695097383728568</v>
@@ -11188,7 +11189,7 @@
         <v>0.52033180882346697</v>
       </c>
       <c r="D635" s="1">
-        <v>0.51480944475105594</v>
+        <v>0.52307935915829096</v>
       </c>
       <c r="E635" s="1">
         <v>0.51712190889257903</v>
@@ -11205,7 +11206,7 @@
         <v>-0.83485588974635005</v>
       </c>
       <c r="D636" s="1">
-        <v>-0.841441007200458</v>
+        <v>-0.85205916038846496</v>
       </c>
       <c r="E636" s="1">
         <v>-0.84371906030930899</v>
@@ -11222,7 +11223,7 @@
         <v>-0.837533592853548</v>
       </c>
       <c r="D637" s="1">
-        <v>-0.86891688294500202</v>
+        <v>-0.86128186298103004</v>
       </c>
       <c r="E637" s="1">
         <v>-0.90486423158459595</v>
@@ -11239,7 +11240,7 @@
         <v>0.89655672619048798</v>
       </c>
       <c r="D638" s="1">
-        <v>0.91449240160015899</v>
+        <v>0.90865419038762596</v>
       </c>
       <c r="E638" s="1">
         <v>0.93019146321552504</v>
@@ -11256,7 +11257,7 @@
         <v>0.180076855216109</v>
       </c>
       <c r="D639" s="1">
-        <v>0.15391899309651699</v>
+        <v>0.170692085553492</v>
       </c>
       <c r="E639" s="1">
         <v>8.8895171805725495E-2</v>
@@ -11273,7 +11274,7 @@
         <v>1.2442400500620301</v>
       </c>
       <c r="D640" s="1">
-        <v>1.2365231865073101</v>
+        <v>1.2371013482549</v>
       </c>
       <c r="E640" s="1">
         <v>1.2455822831240799</v>
@@ -11290,7 +11291,7 @@
         <v>-0.69683283556668096</v>
       </c>
       <c r="D641" s="1">
-        <v>-0.735798772503512</v>
+        <v>-0.73526088019915503</v>
       </c>
       <c r="E641" s="1">
         <v>-0.77692702839801198</v>
@@ -11307,7 +11308,7 @@
         <v>-0.740454098945037</v>
       </c>
       <c r="D642" s="1">
-        <v>-0.75659573486117204</v>
+        <v>-0.754887570559437</v>
       </c>
       <c r="E642" s="1">
         <v>-0.804242505667499</v>
@@ -11324,7 +11325,7 @@
         <v>-3.2148506463726401</v>
       </c>
       <c r="D643" s="1">
-        <v>-3.19210828885711</v>
+        <v>-3.1931704310863398</v>
       </c>
       <c r="E643" s="1">
         <v>-3.1325952007093001</v>
@@ -11341,7 +11342,7 @@
         <v>1.97398208403385</v>
       </c>
       <c r="D644" s="1">
-        <v>1.9570145857344301</v>
+        <v>1.9577977494813199</v>
       </c>
       <c r="E644" s="1">
         <v>1.92429638726207</v>
@@ -11358,7 +11359,7 @@
         <v>0.31718053944131502</v>
       </c>
       <c r="D645" s="1">
-        <v>0.30720527874298797</v>
+        <v>0.30213047335165799</v>
       </c>
       <c r="E645" s="1">
         <v>0.30203526701214201</v>
@@ -11375,7 +11376,7 @@
         <v>0.88102712954732998</v>
       </c>
       <c r="D646" s="1">
-        <v>0.87021501386301903</v>
+        <v>0.87570579406570503</v>
       </c>
       <c r="E646" s="1">
         <v>0.89159336670501999</v>
@@ -11392,7 +11393,7 @@
         <v>0.59319853308318704</v>
       </c>
       <c r="D647" s="1">
-        <v>0.57443787880970199</v>
+        <v>0.58486213849165902</v>
       </c>
       <c r="E647" s="1">
         <v>0.57991652441178598</v>
@@ -11409,7 +11410,7 @@
         <v>-0.27519833143685102</v>
       </c>
       <c r="D648" s="1">
-        <v>-0.27360137145636099</v>
+        <v>-0.27648522763423999</v>
       </c>
       <c r="E648" s="1">
         <v>-0.27890747619423401</v>
@@ -11426,7 +11427,7 @@
         <v>-0.58547405665627905</v>
       </c>
       <c r="D649" s="1">
-        <v>-0.61376601368236705</v>
+        <v>-0.59705792101373001</v>
       </c>
       <c r="E649" s="1">
         <v>-0.63062753407043004</v>
@@ -11443,7 +11444,7 @@
         <v>-1.21381714263637</v>
       </c>
       <c r="D650" s="1">
-        <v>-1.3055396041320999</v>
+        <v>-1.26627984258549</v>
       </c>
       <c r="E650" s="1">
         <v>-1.3392248329242999</v>
@@ -11460,7 +11461,7 @@
         <v>0.96193027764431005</v>
       </c>
       <c r="D651" s="1">
-        <v>1.0019714575866701</v>
+        <v>0.97633849774579895</v>
       </c>
       <c r="E651" s="1">
         <v>1.01881467074091</v>
@@ -11477,7 +11478,7 @@
         <v>-5.6896707011089398E-2</v>
       </c>
       <c r="D652" s="1">
-        <v>-6.4406367808466897E-2</v>
+        <v>-6.3048170751969307E-2</v>
       </c>
       <c r="E652" s="1">
         <v>-7.1841477938763804E-2</v>
@@ -11494,7 +11495,7 @@
         <v>0.50419365168972097</v>
       </c>
       <c r="D653" s="1">
-        <v>0.50566554710341105</v>
+        <v>0.50047716557289201</v>
       </c>
       <c r="E653" s="1">
         <v>0.49875831898685302</v>
@@ -11511,7 +11512,7 @@
         <v>-1.00528942321005</v>
       </c>
       <c r="D654" s="1">
-        <v>-1.03210436115951</v>
+        <v>-1.01834240836846</v>
       </c>
       <c r="E654" s="1">
         <v>-1.02556378287887</v>
@@ -11528,7 +11529,7 @@
         <v>-0.28654868270908801</v>
       </c>
       <c r="D655" s="1">
-        <v>-0.33054969394990302</v>
+        <v>-0.30021357566371099</v>
       </c>
       <c r="E655" s="1">
         <v>-0.317066200960334</v>
@@ -11545,7 +11546,7 @@
         <v>0.56799102364582199</v>
       </c>
       <c r="D656" s="1">
-        <v>0.60620790709657602</v>
+        <v>0.58724294847904901</v>
       </c>
       <c r="E656" s="1">
         <v>0.62752795283053597</v>
@@ -11562,7 +11563,7 @@
         <v>-0.470116987297787</v>
       </c>
       <c r="D657" s="1">
-        <v>-0.51345889822040702</v>
+        <v>-0.49211233794384901</v>
       </c>
       <c r="E657" s="1">
         <v>-0.52854707047174598</v>
@@ -11579,7 +11580,7 @@
         <v>0.72743707983776296</v>
       </c>
       <c r="D658" s="1">
-        <v>0.76115190266858401</v>
+        <v>0.74273664172270104</v>
       </c>
       <c r="E658" s="1">
         <v>0.78449485217649995</v>
@@ -11596,7 +11597,7 @@
         <v>-3.3826774454683198E-2</v>
       </c>
       <c r="D659" s="1">
-        <v>1.7730487658704299E-2</v>
+        <v>-6.5513249523489799E-3</v>
       </c>
       <c r="E659" s="1">
         <v>4.8701100590502297E-2</v>
@@ -11613,7 +11614,7 @@
         <v>0.89877604031407099</v>
       </c>
       <c r="D660" s="1">
-        <v>0.91494223178434697</v>
+        <v>0.90549735702754797</v>
       </c>
       <c r="E660" s="1">
         <v>0.92816662827876195</v>
@@ -11630,7 +11631,7 @@
         <v>0.45856722940260602</v>
       </c>
       <c r="D661" s="1">
-        <v>0.45887547756432001</v>
+        <v>0.45683343138825599</v>
       </c>
       <c r="E661" s="1">
         <v>0.45270684573944597</v>
@@ -11647,7 +11648,7 @@
         <v>1.08691906776278</v>
       </c>
       <c r="D662" s="1">
-        <v>1.1215757361457199</v>
+        <v>1.10730466342041</v>
       </c>
       <c r="E662" s="1">
         <v>1.13560192378568</v>
@@ -11664,7 +11665,7 @@
         <v>-0.70885325617356398</v>
       </c>
       <c r="D663" s="1">
-        <v>-0.745954109910825</v>
+        <v>-0.72799496970058397</v>
       </c>
       <c r="E663" s="1">
         <v>-0.780205994494379</v>
@@ -11681,7 +11682,7 @@
         <v>-1.9122890248746499E-2</v>
       </c>
       <c r="D664" s="1">
-        <v>-5.9889720237124897E-2</v>
+        <v>-3.9962479550670303E-2</v>
       </c>
       <c r="E664" s="1">
         <v>-7.8058906080420695E-2</v>
@@ -11698,7 +11699,7 @@
         <v>-0.66106707568069001</v>
       </c>
       <c r="D665" s="1">
-        <v>-0.68211678688081601</v>
+        <v>-0.66690497081202704</v>
       </c>
       <c r="E665" s="1">
         <v>-0.68974690678733297</v>
@@ -11715,7 +11716,7 @@
         <v>-1.15767670949917</v>
       </c>
       <c r="D666" s="1">
-        <v>-1.14603638527774</v>
+        <v>-1.14534953775751</v>
       </c>
       <c r="E666" s="1">
         <v>-1.1365957543587899</v>
@@ -11732,7 +11733,7 @@
         <v>-0.45257826448161698</v>
       </c>
       <c r="D667" s="1">
-        <v>-0.43509056438082799</v>
+        <v>-0.44399263909949299</v>
       </c>
       <c r="E667" s="1">
         <v>-0.422665669437223</v>
@@ -11749,7 +11750,7 @@
         <v>-2.5406352566103299</v>
       </c>
       <c r="D668" s="1">
-        <v>-2.52781967858169</v>
+        <v>-2.5363450920533199</v>
       </c>
       <c r="E668" s="1">
         <v>-2.5244946894387499</v>
@@ -11766,7 +11767,7 @@
         <v>-0.15836792785120801</v>
       </c>
       <c r="D669" s="1">
-        <v>-0.125639119586268</v>
+        <v>-0.13653472456101301</v>
       </c>
       <c r="E669" s="1">
         <v>-8.0360924101766304E-2</v>
@@ -11783,7 +11784,7 @@
         <v>1.8946832369150299</v>
       </c>
       <c r="D670" s="1">
-        <v>1.9068390153629899</v>
+        <v>1.8993414779620901</v>
       </c>
       <c r="E670" s="1">
         <v>1.90515191432685</v>
@@ -11800,7 +11801,7 @@
         <v>6.9472131005988605E-2</v>
       </c>
       <c r="D671" s="1">
-        <v>7.3635564730528597E-2</v>
+        <v>6.7173676180871694E-2</v>
       </c>
       <c r="E671" s="1">
         <v>7.4013195218844599E-2</v>
@@ -11817,7 +11818,7 @@
         <v>0.37099996539522601</v>
       </c>
       <c r="D672" s="1">
-        <v>0.36930550490902098</v>
+        <v>0.365736585192319</v>
       </c>
       <c r="E672" s="1">
         <v>0.36343151503110699</v>
@@ -11834,7 +11835,7 @@
         <v>0.21280390960625001</v>
       </c>
       <c r="D673" s="1">
-        <v>0.158881482285186</v>
+        <v>0.193778105092451</v>
       </c>
       <c r="E673" s="1">
         <v>0.15093729849165699</v>
@@ -11851,7 +11852,7 @@
         <v>1.2354736938936599</v>
       </c>
       <c r="D674" s="1">
-        <v>1.2347930970301999</v>
+        <v>1.2370705702948901</v>
       </c>
       <c r="E674" s="1">
         <v>1.2539261155825701</v>
@@ -11868,7 +11869,7 @@
         <v>0.33254664196073702</v>
       </c>
       <c r="D675" s="1">
-        <v>0.33255007306009798</v>
+        <v>0.33073939693166399</v>
       </c>
       <c r="E675" s="1">
         <v>0.351871036786157</v>
@@ -11885,7 +11886,7 @@
         <v>1.1731356800914099</v>
       </c>
       <c r="D676" s="1">
-        <v>1.2340250779876201</v>
+        <v>1.1987376247444199</v>
       </c>
       <c r="E676" s="1">
         <v>1.24566381885083</v>
@@ -11902,7 +11903,7 @@
         <v>0.60203778155393695</v>
       </c>
       <c r="D677" s="1">
-        <v>0.63745805867480299</v>
+        <v>0.63205579020025404</v>
       </c>
       <c r="E677" s="1">
         <v>0.66211995634926302</v>
@@ -11919,7 +11920,7 @@
         <v>-7.7615979614656494E-2</v>
       </c>
       <c r="D678" s="1">
-        <v>-9.5792075618893399E-2</v>
+        <v>-7.9701823941817296E-2</v>
       </c>
       <c r="E678" s="1">
         <v>-8.0796647798996701E-2</v>
@@ -11936,7 +11937,7 @@
         <v>-0.27080002537511999</v>
       </c>
       <c r="D679" s="1">
-        <v>-0.318148358830602</v>
+        <v>-0.29490964278750198</v>
       </c>
       <c r="E679" s="1">
         <v>-0.35473779500243102</v>
@@ -11953,7 +11954,7 @@
         <v>-0.72207155992740002</v>
       </c>
       <c r="D680" s="1">
-        <v>-0.7596058979243</v>
+        <v>-0.74159436633891895</v>
       </c>
       <c r="E680" s="1">
         <v>-0.76439336942592595</v>
@@ -11970,7 +11971,7 @@
         <v>-0.60223604629988503</v>
       </c>
       <c r="D681" s="1">
-        <v>-0.60314622014052299</v>
+        <v>-0.61247740098283099</v>
       </c>
       <c r="E681" s="1">
         <v>-0.60240318104743695</v>
@@ -11987,7 +11988,7 @@
         <v>1.2336268325687101</v>
       </c>
       <c r="D682" s="1">
-        <v>1.23397239745591</v>
+        <v>1.22568508138216</v>
       </c>
       <c r="E682" s="1">
         <v>1.2517124915801601</v>
@@ -12004,7 +12005,7 @@
         <v>-0.37331655246870199</v>
       </c>
       <c r="D683" s="1">
-        <v>-0.40342267834101098</v>
+        <v>-0.39549881242892199</v>
       </c>
       <c r="E683" s="1">
         <v>-0.40816480019015999</v>
@@ -12021,7 +12022,7 @@
         <v>9.9131969470084402E-2</v>
       </c>
       <c r="D684" s="1">
-        <v>8.1441801325511695E-2</v>
+        <v>9.04142404722766E-2</v>
       </c>
       <c r="E684" s="1">
         <v>8.4686495255644298E-2</v>
@@ -12038,7 +12039,7 @@
         <v>0.35544124408261102</v>
       </c>
       <c r="D685" s="1">
-        <v>0.39366765913787499</v>
+        <v>0.36228039975980803</v>
       </c>
       <c r="E685" s="1">
         <v>0.39424736613376599</v>
@@ -12055,7 +12056,7 @@
         <v>-0.17919291589257699</v>
       </c>
       <c r="D686" s="1">
-        <v>-0.21065852613988301</v>
+        <v>-0.196006032846539</v>
       </c>
       <c r="E686" s="1">
         <v>-0.220350907952027</v>
@@ -12072,7 +12073,7 @@
         <v>0.10750090742946999</v>
       </c>
       <c r="D687" s="1">
-        <v>7.1725562373686297E-2</v>
+        <v>8.7600434994543702E-2</v>
       </c>
       <c r="E687" s="1">
         <v>9.6974376691232905E-2</v>
@@ -12089,7 +12090,7 @@
         <v>-0.27624110270312702</v>
       </c>
       <c r="D688" s="1">
-        <v>-0.28316527764138399</v>
+        <v>-0.27684274183729801</v>
       </c>
       <c r="E688" s="1">
         <v>-0.31133459710154399</v>
@@ -12106,7 +12107,7 @@
         <v>-0.62237771337757797</v>
       </c>
       <c r="D689" s="1">
-        <v>-0.62482214550691395</v>
+        <v>-0.62276653286277905</v>
       </c>
       <c r="E689" s="1">
         <v>-0.61426099425222203</v>
@@ -12123,7 +12124,7 @@
         <v>-1.0803668968617699</v>
       </c>
       <c r="D690" s="1">
-        <v>-1.1048731757278101</v>
+        <v>-1.0905528978160199</v>
       </c>
       <c r="E690" s="1">
         <v>-1.12759317676582</v>
@@ -12140,7 +12141,7 @@
         <v>-0.90431457903830204</v>
       </c>
       <c r="D691" s="1">
-        <v>-0.89629845361537797</v>
+        <v>-0.90558025201443604</v>
       </c>
       <c r="E691" s="1">
         <v>-0.90163869228804105</v>
@@ -12157,7 +12158,7 @@
         <v>0.42427208140406403</v>
       </c>
       <c r="D692" s="1">
-        <v>0.45856273836266898</v>
+        <v>0.42760440810355799</v>
       </c>
       <c r="E692" s="1">
         <v>0.484981350919855</v>
@@ -12174,7 +12175,7 @@
         <v>1.1496540128592001</v>
       </c>
       <c r="D693" s="1">
-        <v>1.1400889771586</v>
+        <v>1.1414184974113699</v>
       </c>
       <c r="E693" s="1">
         <v>1.1368494185022899</v>
@@ -12191,7 +12192,7 @@
         <v>1.08954392454001</v>
       </c>
       <c r="D694" s="1">
-        <v>1.10402122637162</v>
+        <v>1.09528020601826</v>
       </c>
       <c r="E694" s="1">
         <v>1.1202860260746801</v>
@@ -12208,7 +12209,7 @@
         <v>0.405421431722579</v>
       </c>
       <c r="D695" s="1">
-        <v>0.41543211850460698</v>
+        <v>0.41038459961141099</v>
       </c>
       <c r="E695" s="1">
         <v>0.42171767802410598</v>
@@ -12225,7 +12226,7 @@
         <v>0.44960093748725499</v>
       </c>
       <c r="D696" s="1">
-        <v>0.45486893055168198</v>
+        <v>0.44919697465492697</v>
       </c>
       <c r="E696" s="1">
         <v>0.464020510056321</v>
@@ -12242,7 +12243,7 @@
         <v>1.1996397271880199</v>
       </c>
       <c r="D697" s="1">
-        <v>1.1879698872284099</v>
+        <v>1.19845257981036</v>
       </c>
       <c r="E697" s="1">
         <v>1.1972871963491001</v>
@@ -12259,7 +12260,7 @@
         <v>-0.31266163975964301</v>
       </c>
       <c r="D698" s="1">
-        <v>-0.32833614148678297</v>
+        <v>-0.33418540403289498</v>
       </c>
       <c r="E698" s="1">
         <v>-0.32161289876631199</v>
@@ -12276,7 +12277,7 @@
         <v>1.4450661880132301</v>
       </c>
       <c r="D699" s="1">
-        <v>1.4530167821341999</v>
+        <v>1.4324662193011</v>
       </c>
       <c r="E699" s="1">
         <v>1.4689744848825199</v>
@@ -12293,7 +12294,7 @@
         <v>-0.29736138053040101</v>
       </c>
       <c r="D700" s="1">
-        <v>-0.27853546170536198</v>
+        <v>-0.29368500135530901</v>
       </c>
       <c r="E700" s="1">
         <v>-0.25185926100106598</v>
@@ -12310,7 +12311,7 @@
         <v>0.39831642894847202</v>
       </c>
       <c r="D701" s="1">
-        <v>0.39142724511067301</v>
+        <v>0.38669074209711701</v>
       </c>
       <c r="E701" s="1">
         <v>0.38481690494402798</v>
@@ -12327,7 +12328,7 @@
         <v>2.22976054244945</v>
       </c>
       <c r="D702" s="1">
-        <v>2.3045976087169402</v>
+        <v>2.2574983234677402</v>
       </c>
       <c r="E702" s="1">
         <v>2.3556634611554701</v>
@@ -12344,7 +12345,7 @@
         <v>0.304438093573901</v>
       </c>
       <c r="D703" s="1">
-        <v>0.31408348303239603</v>
+        <v>0.31566599483147501</v>
       </c>
       <c r="E703" s="1">
         <v>0.30851216834688</v>
@@ -12361,7 +12362,7 @@
         <v>1.3714569522200999</v>
       </c>
       <c r="D704" s="1">
-        <v>1.40053912188733</v>
+        <v>1.3872145437498999</v>
       </c>
       <c r="E704" s="1">
         <v>1.43188376880293</v>
@@ -12378,7 +12379,7 @@
         <v>-0.44251182811658801</v>
       </c>
       <c r="D705" s="1">
-        <v>-0.44844847854508901</v>
+        <v>-0.44503729654429097</v>
       </c>
       <c r="E705" s="1">
         <v>-0.47154050797232799</v>
@@ -12395,7 +12396,7 @@
         <v>-4.6245736014610198E-2</v>
       </c>
       <c r="D706" s="1">
-        <v>-4.3873263053066498E-2</v>
+        <v>-4.3754722024030399E-2</v>
       </c>
       <c r="E706" s="1">
         <v>-5.2860178622736197E-2</v>
@@ -12412,7 +12413,7 @@
         <v>1.2286152818224501</v>
       </c>
       <c r="D707" s="1">
-        <v>1.2267211952745201</v>
+        <v>1.2185468825389201</v>
       </c>
       <c r="E707" s="1">
         <v>1.24284429346412</v>
@@ -12429,7 +12430,7 @@
         <v>-0.52443855876490397</v>
       </c>
       <c r="D708" s="1">
-        <v>-0.54223569349237799</v>
+        <v>-0.53785489567626499</v>
       </c>
       <c r="E708" s="1">
         <v>-0.55218984719863695</v>
@@ -12446,7 +12447,7 @@
         <v>-0.564824488625015</v>
       </c>
       <c r="D709" s="1">
-        <v>-0.59777885640099804</v>
+        <v>-0.58023888692312697</v>
       </c>
       <c r="E709" s="1">
         <v>-0.63172833893513303</v>
@@ -12463,7 +12464,7 @@
         <v>0.75376181450736801</v>
       </c>
       <c r="D710" s="1">
-        <v>0.76580537459904696</v>
+        <v>0.75835444473282998</v>
       </c>
       <c r="E710" s="1">
         <v>0.77068692123907001</v>
@@ -12480,7 +12481,7 @@
         <v>9.9197631832166094E-2</v>
       </c>
       <c r="D711" s="1">
-        <v>9.1816416501860204E-2</v>
+        <v>9.5149273206964396E-2</v>
       </c>
       <c r="E711" s="1">
         <v>6.7784517536539995E-2</v>
@@ -12497,7 +12498,7 @@
         <v>-1.1511705621953701</v>
       </c>
       <c r="D712" s="1">
-        <v>-1.20915603258682</v>
+        <v>-1.1822546992610601</v>
       </c>
       <c r="E712" s="1">
         <v>-1.26106993433702</v>
@@ -12514,7 +12515,7 @@
         <v>1.29752954870307</v>
       </c>
       <c r="D713" s="1">
-        <v>1.34426395669791</v>
+        <v>1.31939671942644</v>
       </c>
       <c r="E713" s="1">
         <v>1.3942420073909101</v>
@@ -12531,7 +12532,7 @@
         <v>0.82029515475701897</v>
       </c>
       <c r="D714" s="1">
-        <v>0.84554556553302196</v>
+        <v>0.83164341639897199</v>
       </c>
       <c r="E714" s="1">
         <v>0.87655085779428299</v>
@@ -12548,7 +12549,7 @@
         <v>-5.0445814017441498E-2</v>
       </c>
       <c r="D715" s="1">
-        <v>-2.9641461940286998E-2</v>
+        <v>-4.3195355193407697E-2</v>
       </c>
       <c r="E715" s="1">
         <v>-2.7267667144227001E-2</v>
@@ -12565,7 +12566,7 @@
         <v>1.1743804468404999</v>
       </c>
       <c r="D716" s="1">
-        <v>1.2065760557368099</v>
+        <v>1.1864567187449899</v>
       </c>
       <c r="E716" s="1">
         <v>1.23867844005357</v>
@@ -12582,7 +12583,7 @@
         <v>0.94441251747521004</v>
       </c>
       <c r="D717" s="1">
-        <v>0.98653348687975795</v>
+        <v>0.971905195522897</v>
       </c>
       <c r="E717" s="1">
         <v>1.0157061155629701</v>
@@ -12599,7 +12600,7 @@
         <v>0.78767233288125005</v>
       </c>
       <c r="D718" s="1">
-        <v>0.797046973966681</v>
+        <v>0.78157582697794303</v>
       </c>
       <c r="E718" s="1">
         <v>0.79760854970039397</v>
@@ -12616,7 +12617,7 @@
         <v>0.194622471807813</v>
       </c>
       <c r="D719" s="1">
-        <v>0.18715275525679601</v>
+        <v>0.192829981567674</v>
       </c>
       <c r="E719" s="1">
         <v>0.186311573364557</v>
@@ -12633,7 +12634,7 @@
         <v>-1.00790727417632</v>
       </c>
       <c r="D720" s="1">
-        <v>-1.0239578116213199</v>
+        <v>-1.01454698766017</v>
       </c>
       <c r="E720" s="1">
         <v>-1.0495729425604301</v>
@@ -12650,7 +12651,7 @@
         <v>0.16310964427502</v>
       </c>
       <c r="D721" s="1">
-        <v>0.19336718949696</v>
+        <v>0.180476977707031</v>
       </c>
       <c r="E721" s="1">
         <v>0.238773337405845</v>
@@ -12667,7 +12668,7 @@
         <v>-0.435675910505474</v>
       </c>
       <c r="D722" s="1">
-        <v>-0.46018437884399499</v>
+        <v>-0.46086417610080399</v>
       </c>
       <c r="E722" s="1">
         <v>-0.532112629801062</v>
@@ -12684,7 +12685,7 @@
         <v>-0.97599370672255603</v>
       </c>
       <c r="D723" s="1">
-        <v>-0.96030995839820099</v>
+        <v>-0.97771634356894499</v>
       </c>
       <c r="E723" s="1">
         <v>-0.96001810520903597</v>
@@ -12701,7 +12702,7 @@
         <v>1.67203330311455</v>
       </c>
       <c r="D724" s="1">
-        <v>1.6622764634529199</v>
+        <v>1.6698055403235801</v>
       </c>
       <c r="E724" s="1">
         <v>1.6710458285951999</v>
@@ -12718,7 +12719,7 @@
         <v>-0.17816045921725401</v>
       </c>
       <c r="D725" s="1">
-        <v>-0.16520816753727699</v>
+        <v>-0.176408353475487</v>
       </c>
       <c r="E725" s="1">
         <v>-0.16194618279272099</v>
@@ -12735,7 +12736,7 @@
         <v>-5.6436111673651299E-2</v>
       </c>
       <c r="D726" s="1">
-        <v>-6.21745039688478E-2</v>
+        <v>-8.1160788528251301E-2</v>
       </c>
       <c r="E726" s="1">
         <v>-7.65426294513398E-2</v>
@@ -12752,7 +12753,7 @@
         <v>0.98438806857985195</v>
       </c>
       <c r="D727" s="1">
-        <v>0.97976377466636699</v>
+        <v>0.96059951718839998</v>
       </c>
       <c r="E727" s="1">
         <v>0.96642922310845203</v>
@@ -12769,7 +12770,7 @@
         <v>-1.4608942255364299</v>
       </c>
       <c r="D728" s="1">
-        <v>-1.45218768485802</v>
+        <v>-1.4505486974764401</v>
       </c>
       <c r="E728" s="1">
         <v>-1.4391379204654999</v>
@@ -12786,7 +12787,7 @@
         <v>0.28659545781302298</v>
       </c>
       <c r="D729" s="1">
-        <v>0.27627811931375201</v>
+        <v>0.27534738346931598</v>
       </c>
       <c r="E729" s="1">
         <v>0.24195015559022401</v>
@@ -12803,7 +12804,7 @@
         <v>0.37031268933522798</v>
       </c>
       <c r="D730" s="1">
-        <v>0.36835235515973302</v>
+        <v>0.372747650648313</v>
       </c>
       <c r="E730" s="1">
         <v>0.37719338271869901</v>
@@ -12820,7 +12821,7 @@
         <v>0.37575188394639603</v>
       </c>
       <c r="D731" s="1">
-        <v>0.38360834665014998</v>
+        <v>0.36277960023098399</v>
       </c>
       <c r="E731" s="1">
         <v>0.38338164172934702</v>
@@ -12837,7 +12838,7 @@
         <v>1.0816715338166201</v>
       </c>
       <c r="D732" s="1">
-        <v>1.0854794205546801</v>
+        <v>1.0554200548081101</v>
       </c>
       <c r="E732" s="1">
         <v>1.0797831469925001</v>
@@ -12854,7 +12855,7 @@
         <v>-0.100339014397823</v>
       </c>
       <c r="D733" s="1">
-        <v>-9.3178977887619793E-2</v>
+        <v>-0.11412557399081499</v>
       </c>
       <c r="E733" s="1">
         <v>-0.13710107962023699</v>
@@ -12871,7 +12872,7 @@
         <v>1.5710420668731899</v>
       </c>
       <c r="D734" s="1">
-        <v>1.60872502442773</v>
+        <v>1.59362159246093</v>
       </c>
       <c r="E734" s="1">
         <v>1.6424956238917601</v>
@@ -12888,7 +12889,7 @@
         <v>0.31787415441688999</v>
       </c>
       <c r="D735" s="1">
-        <v>0.314117578868715</v>
+        <v>0.301023811632607</v>
       </c>
       <c r="E735" s="1">
         <v>0.31374864273459802</v>
